--- a/predictor/modelC.xlsx
+++ b/predictor/modelC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF03E4A-4AD6-43F7-AE62-C73B141804BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D2BB6-35A7-4A73-97CF-D3560CC57E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -168,87 +168,6 @@
   </si>
   <si>
     <t>cost func</t>
-  </si>
-  <si>
-    <t>29-01-2021</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>2414</t>
-  </si>
-  <si>
-    <t>Stuttgart</t>
-  </si>
-  <si>
-    <t>Mainz</t>
-  </si>
-  <si>
-    <t>1845</t>
-  </si>
-  <si>
-    <t>betano</t>
-  </si>
-  <si>
-    <t>luckia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>1854</t>
-  </si>
-  <si>
-    <t>Antwerp</t>
-  </si>
-  <si>
-    <t>Waasland-Beveren</t>
-  </si>
-  <si>
-    <t>1832</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>1869</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>1871</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>1843</t>
   </si>
 </sst>
 </file>
@@ -601,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:S4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,22 +609,22 @@
         <v>0</v>
       </c>
       <c r="AB1">
-        <v>1.1266</v>
+        <v>1.1029</v>
       </c>
       <c r="AC1">
-        <v>0.99995999999999996</v>
+        <v>0.99970999999999999</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>7.0116085282567742E-3</v>
-      </c>
-      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="e">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>6.4097993211119086E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>3.8847268612799448E-4</v>
+        <v>0</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -755,15 +674,15 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q12" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
+        <f t="shared" ref="Q2:Q4" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R12" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
+        <f t="shared" ref="R2:R4" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S12" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
+        <f t="shared" ref="S2:S4" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
         <v>0</v>
       </c>
       <c r="T2">
@@ -804,7 +723,7 @@
       </c>
       <c r="AI2" s="2">
         <f ca="1">IFERROR(Y1-IF(MAX(AB4:AF4)&gt;AI1,1000,0),-1000)</f>
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -872,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.1266</v>
+        <v>1.1029</v>
       </c>
       <c r="AC3">
-        <v>0.99995999999999996</v>
+        <v>0.99970999999999999</v>
       </c>
       <c r="AD3">
-        <v>7.0116085282567742E-3</v>
+        <v>2.6399065163984159E-2</v>
       </c>
       <c r="AE3">
-        <v>6.4097993211119086E-3</v>
+        <v>2.5703867682859233E-2</v>
       </c>
       <c r="AF3">
-        <v>3.8847268612799448E-4</v>
+        <v>1.5578101625975292E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -961,430 +880,15 @@
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1" t="e">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5">
-        <v>0.37453292108068548</v>
-      </c>
-      <c r="F5">
-        <v>0.30407996452558428</v>
-      </c>
-      <c r="G5">
-        <v>0.32138711439373008</v>
-      </c>
-      <c r="H5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="I5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="J5">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6">
-        <v>0.59518460486032476</v>
-      </c>
-      <c r="F6">
-        <v>0.15940706237886501</v>
-      </c>
-      <c r="G6">
-        <v>0.24540833276081009</v>
-      </c>
-      <c r="H6">
-        <v>1.62</v>
-      </c>
-      <c r="I6">
-        <v>5.6</v>
-      </c>
-      <c r="J6">
-        <v>4.2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>0.29831293716975471</v>
-      </c>
-      <c r="F7">
-        <v>0.40545518531797842</v>
-      </c>
-      <c r="G7">
-        <v>0.29623187751226687</v>
-      </c>
-      <c r="H7">
-        <v>2.6</v>
-      </c>
-      <c r="I7">
-        <v>2.8</v>
-      </c>
-      <c r="J7">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>7.0116085282567742E-3</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8">
-        <v>0.66502240081407427</v>
-      </c>
-      <c r="F8">
-        <v>0.12545344239424211</v>
-      </c>
-      <c r="G8">
-        <v>0.2095241567916836</v>
-      </c>
-      <c r="H8">
-        <v>1.55</v>
-      </c>
-      <c r="I8">
-        <v>6.25</v>
-      </c>
-      <c r="J8">
-        <v>4.05</v>
-      </c>
-      <c r="K8" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>0.35216724119021459</v>
-      </c>
-      <c r="F9">
-        <v>0.33735069928220429</v>
-      </c>
-      <c r="G9">
-        <v>0.31048205952758112</v>
-      </c>
-      <c r="H9">
-        <v>2.25</v>
-      </c>
-      <c r="I9">
-        <v>3.45</v>
-      </c>
-      <c r="J9">
-        <v>3.05</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>5.8079901139670431E-3</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10">
-        <v>0.51360200449889504</v>
-      </c>
-      <c r="F10">
-        <v>0.2064489329753702</v>
-      </c>
-      <c r="G10">
-        <v>0.27994906252573482</v>
-      </c>
-      <c r="H10">
-        <v>1.8</v>
-      </c>
-      <c r="I10">
-        <v>4.75</v>
-      </c>
-      <c r="J10">
-        <v>3.15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <v>0.24549260579897461</v>
-      </c>
-      <c r="F11">
-        <v>0.48685445843109848</v>
-      </c>
-      <c r="G11">
-        <v>0.26765293576992688</v>
-      </c>
-      <c r="H11">
-        <v>3.2</v>
-      </c>
-      <c r="I11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="J11">
-        <v>3.25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12">
-        <v>0.67969214734674033</v>
-      </c>
-      <c r="F12">
-        <v>0.1179214502414718</v>
-      </c>
-      <c r="G12">
-        <v>0.2023864024117879</v>
-      </c>
-      <c r="H12">
-        <v>1.4</v>
-      </c>
-      <c r="I12">
-        <v>8</v>
-      </c>
-      <c r="J12">
-        <v>5.25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/predictor/modelC.xlsx
+++ b/predictor/modelC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6D2BB6-35A7-4A73-97CF-D3560CC57E20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B460B2-3713-4D46-B9E4-8A7620E89ABB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="250">
   <si>
     <t>date</t>
   </si>
@@ -168,6 +168,654 @@
   </si>
   <si>
     <t>cost func</t>
+  </si>
+  <si>
+    <t>30-01-2021</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>Brisbane Roar</t>
+  </si>
+  <si>
+    <t>Adelaide United</t>
+  </si>
+  <si>
+    <t>1948</t>
+  </si>
+  <si>
+    <t>Regensburg</t>
+  </si>
+  <si>
+    <t>Darmstadt</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>luckia</t>
+  </si>
+  <si>
+    <t>betano</t>
+  </si>
+  <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>Paderborn</t>
+  </si>
+  <si>
+    <t>Holstein Kiel</t>
+  </si>
+  <si>
+    <t>Braunschweig</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Basaksehir</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1869</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>Entella</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>2413</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>2414</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>Hertha Berlin</t>
+  </si>
+  <si>
+    <t>Union Berlin</t>
+  </si>
+  <si>
+    <t>B. Monchengladbach</t>
+  </si>
+  <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
+    <t>Hoffenheim</t>
+  </si>
+  <si>
+    <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Schalke</t>
+  </si>
+  <si>
+    <t>Sheffield Wed</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>MK Dons</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Cambridge Utd</t>
+  </si>
+  <si>
+    <t>Crawley</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Oxford Utd</t>
+  </si>
+  <si>
+    <t>Fleetwood</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Brentford</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Reggiana</t>
+  </si>
+  <si>
+    <t>Dundee Utd</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>R. Oviedo</t>
+  </si>
+  <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>1871</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>St. Mirren</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>KV Mechelen</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>1832</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>Ried</t>
+  </si>
+  <si>
+    <t>Admira</t>
+  </si>
+  <si>
+    <t>1827</t>
+  </si>
+  <si>
+    <t>Hartberg</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Altach</t>
+  </si>
+  <si>
+    <t>Sturm Graz</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Manchester Utd</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Mouscron</t>
+  </si>
+  <si>
+    <t>Leuven</t>
+  </si>
+  <si>
+    <t>Beerschot VA</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>AC Ajaccio</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Chateauroux</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>SC Farense</t>
+  </si>
+  <si>
+    <t>Chambly</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Sittard</t>
+  </si>
+  <si>
+    <t>Venlo</t>
+  </si>
+  <si>
+    <t>St. Gallen</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>1879</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Kortrijk</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Castellon</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
   </si>
 </sst>
 </file>
@@ -520,10 +1168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI4"/>
+  <dimension ref="A1:AI102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -616,21 +1264,21 @@
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0</v>
-      </c>
-      <c r="AE1" t="e">
+        <v>0.13787160975628807</v>
+      </c>
+      <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>#DIV/0!</v>
+        <v>5.1621766298515621E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>0</v>
+        <v>1.5333197910450183E-3</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
       </c>
       <c r="AI1">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -674,15 +1322,15 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q4" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
+        <f t="shared" ref="Q2:Q33" si="0">IF((($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1)&lt;0, 0,(($AC$1*E2)^($AB$1))-(1-(($AC$1*E2)^($AB$1)))/(H2-1))</f>
         <v>0</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R4" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
+        <f t="shared" ref="R2:R33" si="1">IF((($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1)&lt;0, 0,(($AC$1*F2)^($AB$1))-(1-(($AC$1*F2)^($AB$1)))/(I2-1))</f>
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S4" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
+        <f t="shared" ref="S2:S33" si="2">IF((($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1)&lt;0, 0,(($AC$1*G2)^($AB$1))-(1-(($AC$1*G2)^($AB$1)))/(J2-1))</f>
         <v>0</v>
       </c>
       <c r="T2">
@@ -723,7 +1371,7 @@
       </c>
       <c r="AI2" s="2">
         <f ca="1">IFERROR(Y1-IF(MAX(AB4:AF4)&gt;AI1,1000,0),-1000)</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
@@ -797,13 +1445,13 @@
         <v>0.99970999999999999</v>
       </c>
       <c r="AD3">
-        <v>2.6399065163984159E-2</v>
+        <v>0.13787160975628807</v>
       </c>
       <c r="AE3">
-        <v>2.5703867682859233E-2</v>
+        <v>5.1621766298515621E-2</v>
       </c>
       <c r="AF3">
-        <v>1.5578101625975292E-3</v>
+        <v>1.5333197910450183E-3</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
@@ -880,15 +1528,5101 @@
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>1</v>
-      </c>
-      <c r="AE4" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>0.47234166933570909</v>
+      </c>
+      <c r="F5">
+        <v>0.2481983577323916</v>
+      </c>
+      <c r="G5">
+        <v>0.27945997293189923</v>
+      </c>
+      <c r="H5">
+        <v>1.82</v>
+      </c>
+      <c r="I5">
+        <v>3.7</v>
+      </c>
+      <c r="J5">
+        <v>3.55</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>0.58186752767085836</v>
+      </c>
+      <c r="F6">
+        <v>0.1745101991176542</v>
+      </c>
+      <c r="G6">
+        <v>0.24362227321148741</v>
+      </c>
+      <c r="H6">
+        <v>1.98</v>
+      </c>
+      <c r="I6">
+        <v>3.65</v>
+      </c>
+      <c r="J6">
+        <v>3.35</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>9.113085542140581E-2</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>0.405266234617704</v>
+      </c>
+      <c r="F7">
+        <v>0.29701902819944709</v>
+      </c>
+      <c r="G7">
+        <v>0.29771473718284891</v>
+      </c>
+      <c r="H7">
+        <v>2.6</v>
+      </c>
+      <c r="I7">
+        <v>2.6</v>
+      </c>
+      <c r="J7">
+        <v>3.2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>0.50568924684809413</v>
+      </c>
+      <c r="F8">
+        <v>0.22346789284405541</v>
+      </c>
+      <c r="G8">
+        <v>0.27084286030785037</v>
+      </c>
+      <c r="H8">
+        <v>1.83</v>
+      </c>
+      <c r="I8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J8">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>0.5173131553715612</v>
+      </c>
+      <c r="F9">
+        <v>0.21407289738396271</v>
+      </c>
+      <c r="G9">
+        <v>0.26861394724447613</v>
+      </c>
+      <c r="H9">
+        <v>1.72</v>
+      </c>
+      <c r="I9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J9">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>0.59428780747467203</v>
+      </c>
+      <c r="F10">
+        <v>0.1698796794353308</v>
+      </c>
+      <c r="G10">
+        <v>0.23583251308999709</v>
+      </c>
+      <c r="H10">
+        <v>1.57</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <v>3.95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>0.51914748690960455</v>
+      </c>
+      <c r="F11">
+        <v>0.2251988895275924</v>
+      </c>
+      <c r="G11">
+        <v>0.25565362356280308</v>
+      </c>
+      <c r="H11">
+        <v>1.72</v>
+      </c>
+      <c r="I11">
+        <v>4.75</v>
+      </c>
+      <c r="J11">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>0.45300891821910882</v>
+      </c>
+      <c r="F12">
+        <v>0.25871063188157928</v>
+      </c>
+      <c r="G12">
+        <v>0.28828044989931179</v>
+      </c>
+      <c r="H12">
+        <v>1.93</v>
+      </c>
+      <c r="I12">
+        <v>3.9</v>
+      </c>
+      <c r="J12">
+        <v>3.35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13">
+        <v>0.45510675108752952</v>
+      </c>
+      <c r="F13">
+        <v>0.26145748308398792</v>
+      </c>
+      <c r="G13">
+        <v>0.28343576582848262</v>
+      </c>
+      <c r="H13">
+        <v>1.91</v>
+      </c>
+      <c r="I13">
+        <v>3.75</v>
+      </c>
+      <c r="J13">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>0.23903802691458351</v>
+      </c>
+      <c r="F14">
+        <v>0.49435814607204748</v>
+      </c>
+      <c r="G14">
+        <v>0.26660382701336888</v>
+      </c>
+      <c r="H14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I14">
+        <v>1.93</v>
+      </c>
+      <c r="J14">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>0.4938877538059453</v>
+      </c>
+      <c r="F15">
+        <v>0.2379638046086279</v>
+      </c>
+      <c r="G15">
+        <v>0.268148441585427</v>
+      </c>
+      <c r="H15">
+        <v>1.8</v>
+      </c>
+      <c r="I15">
+        <v>4.05</v>
+      </c>
+      <c r="J15">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>0.37739564808471709</v>
+      </c>
+      <c r="F16">
+        <v>0.3177372040615053</v>
+      </c>
+      <c r="G16">
+        <v>0.30486714785377772</v>
+      </c>
+      <c r="H16">
+        <v>2.4</v>
+      </c>
+      <c r="I16">
+        <v>2.85</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>0.63707184773809522</v>
+      </c>
+      <c r="F17">
+        <v>0.14609833864839239</v>
+      </c>
+      <c r="G17">
+        <v>0.21682981361351239</v>
+      </c>
+      <c r="H17">
+        <v>1.52</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>3.7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18">
+        <v>0.46620812911077231</v>
+      </c>
+      <c r="F18">
+        <v>0.26142238280855079</v>
+      </c>
+      <c r="G18">
+        <v>0.27236948808067712</v>
+      </c>
+      <c r="H18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J18">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>0.34482377960774452</v>
+      </c>
+      <c r="F19">
+        <v>0.36508424562140862</v>
+      </c>
+      <c r="G19">
+        <v>0.29009197477084681</v>
+      </c>
+      <c r="H19">
+        <v>2.82</v>
+      </c>
+      <c r="I19">
+        <v>2.27</v>
+      </c>
+      <c r="J19">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>0.33843450482710508</v>
+      </c>
+      <c r="F20">
+        <v>0.36975877706514082</v>
+      </c>
+      <c r="G20">
+        <v>0.29180671810775433</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J20">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21">
+        <v>0.20731080370162891</v>
+      </c>
+      <c r="F21">
+        <v>0.56111354011579895</v>
+      </c>
+      <c r="G21">
+        <v>0.23157565618257209</v>
+      </c>
+      <c r="H21">
+        <v>3.85</v>
+      </c>
+      <c r="I21">
+        <v>1.95</v>
+      </c>
+      <c r="J21">
+        <v>3.65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>3.2294506987318394E-2</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>0.28777572405494978</v>
+      </c>
+      <c r="F22">
+        <v>0.43357686085354519</v>
+      </c>
+      <c r="G22">
+        <v>0.27864741509150509</v>
+      </c>
+      <c r="H22">
+        <v>2.95</v>
+      </c>
+      <c r="I22">
+        <v>2.35</v>
+      </c>
+      <c r="J22">
+        <v>3.1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>0.38507303738134341</v>
+      </c>
+      <c r="F23">
+        <v>0.33241544213731172</v>
+      </c>
+      <c r="G23">
+        <v>0.28251152048134481</v>
+      </c>
+      <c r="H23">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I23">
+        <v>3.6</v>
+      </c>
+      <c r="J23">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>2.6205404453644332E-2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>0.7598132719533055</v>
+      </c>
+      <c r="F24">
+        <v>8.5439606820117808E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.15474712122657669</v>
+      </c>
+      <c r="H24">
+        <v>1.26</v>
+      </c>
+      <c r="I24">
+        <v>10.5</v>
+      </c>
+      <c r="J24">
+        <v>6.5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <v>0.48649124397960591</v>
+      </c>
+      <c r="F25">
+        <v>0.25237610445959607</v>
+      </c>
+      <c r="G25">
+        <v>0.26113265156079818</v>
+      </c>
+      <c r="H25">
+        <v>1.78</v>
+      </c>
+      <c r="I25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J25">
+        <v>3.8</v>
+      </c>
+      <c r="K25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26">
+        <v>0.30026215577674659</v>
+      </c>
+      <c r="F26">
+        <v>0.43605685856034371</v>
+      </c>
+      <c r="G26">
+        <v>0.26368098566290959</v>
+      </c>
+      <c r="H26">
+        <v>3.25</v>
+      </c>
+      <c r="I26">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="J26">
+        <v>3.8</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27">
+        <v>0.77070321013613219</v>
+      </c>
+      <c r="F27">
+        <v>8.3251922720960478E-2</v>
+      </c>
+      <c r="G27">
+        <v>0.14604486714290729</v>
+      </c>
+      <c r="H27">
+        <v>1.25</v>
+      </c>
+      <c r="I27">
+        <v>10.25</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28">
+        <v>0.44841618979527947</v>
+      </c>
+      <c r="F28">
+        <v>0.26989037584144537</v>
+      </c>
+      <c r="G28">
+        <v>0.28169343436327499</v>
+      </c>
+      <c r="H28">
+        <v>2.02</v>
+      </c>
+      <c r="I28">
+        <v>3.6</v>
+      </c>
+      <c r="J28">
+        <v>3.6</v>
+      </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29">
+        <v>0.34376938756123709</v>
+      </c>
+      <c r="F29">
+        <v>0.35903778622596721</v>
+      </c>
+      <c r="G29">
+        <v>0.29719282621279558</v>
+      </c>
+      <c r="H29">
+        <v>2.9</v>
+      </c>
+      <c r="I29">
+        <v>2.5</v>
+      </c>
+      <c r="J29">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30">
+        <v>0.36559903056416188</v>
+      </c>
+      <c r="F30">
+        <v>0.33432442036370158</v>
+      </c>
+      <c r="G30">
+        <v>0.3000765490721366</v>
+      </c>
+      <c r="H30">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I30">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J30">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>0.842496284942157</v>
+      </c>
+      <c r="F31">
+        <v>5.0309037038122333E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.1071946780197207</v>
+      </c>
+      <c r="H31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>8.5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32">
+        <v>0.41562909241980678</v>
+      </c>
+      <c r="F32">
+        <v>0.31651170912861409</v>
+      </c>
+      <c r="G32">
+        <v>0.26785919845157902</v>
+      </c>
+      <c r="H32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I32">
+        <v>3.05</v>
+      </c>
+      <c r="J32">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>0.29376204570991749</v>
+      </c>
+      <c r="F33">
+        <v>0.44329111533518512</v>
+      </c>
+      <c r="G33">
+        <v>0.26294683895489762</v>
+      </c>
+      <c r="H33">
+        <v>3.45</v>
+      </c>
+      <c r="I33">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J33">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <v>0.72772943480983132</v>
+      </c>
+      <c r="F34">
+        <v>0.10796018010830059</v>
+      </c>
+      <c r="G34">
+        <v>0.16431038508186821</v>
+      </c>
+      <c r="H34">
+        <v>1.35</v>
+      </c>
+      <c r="I34">
+        <v>7.25</v>
+      </c>
+      <c r="J34">
+        <v>4.75</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34:Q65" si="4">IF((($AC$1*E34)^($AB$1))-(1-(($AC$1*E34)^($AB$1)))/(H34-1)&lt;0, 0,(($AC$1*E34)^($AB$1))-(1-(($AC$1*E34)^($AB$1)))/(H34-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f t="shared" ref="R34:R65" si="5">IF((($AC$1*F34)^($AB$1))-(1-(($AC$1*F34)^($AB$1)))/(I34-1)&lt;0, 0,(($AC$1*F34)^($AB$1))-(1-(($AC$1*F34)^($AB$1)))/(I34-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34:S65" si="6">IF((($AC$1*G34)^($AB$1))-(1-(($AC$1*G34)^($AB$1)))/(J34-1)&lt;0, 0,(($AC$1*G34)^($AB$1))-(1-(($AC$1*G34)^($AB$1)))/(J34-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35">
+        <v>0.39773329206007002</v>
+      </c>
+      <c r="F35">
+        <v>0.31124155962528471</v>
+      </c>
+      <c r="G35">
+        <v>0.29102514831464521</v>
+      </c>
+      <c r="H35">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I35">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J35">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36">
+        <v>0.33889140604034518</v>
+      </c>
+      <c r="F36">
+        <v>0.38296772808806862</v>
+      </c>
+      <c r="G36">
+        <v>0.2781408658715861</v>
+      </c>
+      <c r="H36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J36">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37">
+        <v>0.44520123188760907</v>
+      </c>
+      <c r="F37">
+        <v>0.28723349627230732</v>
+      </c>
+      <c r="G37">
+        <v>0.26756527184008372</v>
+      </c>
+      <c r="H37">
+        <v>1.95</v>
+      </c>
+      <c r="I37">
+        <v>3.7</v>
+      </c>
+      <c r="J37">
+        <v>3.3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38">
+        <v>0.4280057190036865</v>
+      </c>
+      <c r="F38">
+        <v>0.28722200316016672</v>
+      </c>
+      <c r="G38">
+        <v>0.28477227783614673</v>
+      </c>
+      <c r="H38">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I38">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J38">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39">
+        <v>0.35909642347946169</v>
+      </c>
+      <c r="F39">
+        <v>0.33926706942993012</v>
+      </c>
+      <c r="G39">
+        <v>0.30163650709060819</v>
+      </c>
+      <c r="H39">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I39">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J39">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>0.53215678386871745</v>
+      </c>
+      <c r="F40">
+        <v>0.20388526800598639</v>
+      </c>
+      <c r="G40">
+        <v>0.26395794812529599</v>
+      </c>
+      <c r="H40">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I40">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J40">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>0.46846719012415688</v>
+      </c>
+      <c r="F41">
+        <v>0.27706605357587832</v>
+      </c>
+      <c r="G41">
+        <v>0.25446675629996479</v>
+      </c>
+      <c r="H41">
+        <v>1.95</v>
+      </c>
+      <c r="I41">
+        <v>3.4</v>
+      </c>
+      <c r="J41">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>0.30637108281435432</v>
+      </c>
+      <c r="F42">
+        <v>0.40849040788703661</v>
+      </c>
+      <c r="G42">
+        <v>0.28513850929860901</v>
+      </c>
+      <c r="H42">
+        <v>3.25</v>
+      </c>
+      <c r="I42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J42">
+        <v>3.05</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43">
+        <v>0.33026674678830731</v>
+      </c>
+      <c r="F43">
+        <v>0.39053401109905389</v>
+      </c>
+      <c r="G43">
+        <v>0.2791992421126388</v>
+      </c>
+      <c r="H43">
+        <v>3.05</v>
+      </c>
+      <c r="I43">
+        <v>2.35</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44">
+        <v>0.36893871911501569</v>
+      </c>
+      <c r="F44">
+        <v>0.35394756175524672</v>
+      </c>
+      <c r="G44">
+        <v>0.27711371912973759</v>
+      </c>
+      <c r="H44">
+        <v>2.7</v>
+      </c>
+      <c r="I44">
+        <v>2.4</v>
+      </c>
+      <c r="J44">
+        <v>3.35</v>
+      </c>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <v>0.36640074414778201</v>
+      </c>
+      <c r="F45">
+        <v>0.34313779195935212</v>
+      </c>
+      <c r="G45">
+        <v>0.29046146389286598</v>
+      </c>
+      <c r="H45">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I45">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J45">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46">
+        <v>0.34408245992101649</v>
+      </c>
+      <c r="F46">
+        <v>0.37154945286757679</v>
+      </c>
+      <c r="G46">
+        <v>0.28436808721140672</v>
+      </c>
+      <c r="H46">
+        <v>3.05</v>
+      </c>
+      <c r="I46">
+        <v>2.62</v>
+      </c>
+      <c r="J46">
+        <v>3.05</v>
+      </c>
+      <c r="K46" t="s">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>0.34053210654713639</v>
+      </c>
+      <c r="F47">
+        <v>0.36036068135402832</v>
+      </c>
+      <c r="G47">
+        <v>0.29910721209883528</v>
+      </c>
+      <c r="H47">
+        <v>2.9</v>
+      </c>
+      <c r="I47">
+        <v>2.65</v>
+      </c>
+      <c r="J47">
+        <v>2.92</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>0.44288549091021162</v>
+      </c>
+      <c r="F48">
+        <v>0.27379115810022059</v>
+      </c>
+      <c r="G48">
+        <v>0.2833233509895679</v>
+      </c>
+      <c r="H48">
+        <v>2.1</v>
+      </c>
+      <c r="I48">
+        <v>3.55</v>
+      </c>
+      <c r="J48">
+        <v>3.05</v>
+      </c>
+      <c r="K48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>0.47958860055339009</v>
+      </c>
+      <c r="F49">
+        <v>0.2378915035898346</v>
+      </c>
+      <c r="G49">
+        <v>0.28251989585677528</v>
+      </c>
+      <c r="H49">
+        <v>1.83</v>
+      </c>
+      <c r="I49">
+        <v>4.45</v>
+      </c>
+      <c r="J49">
+        <v>3.3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50">
+        <v>0.45637249845853972</v>
+      </c>
+      <c r="F50">
+        <v>0.26142295571407193</v>
+      </c>
+      <c r="G50">
+        <v>0.28220454582738852</v>
+      </c>
+      <c r="H50">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I50">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J50">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>0.31100078580259022</v>
+      </c>
+      <c r="F51">
+        <v>0.41521274634797639</v>
+      </c>
+      <c r="G51">
+        <v>0.27378646784943339</v>
+      </c>
+      <c r="H51">
+        <v>3.45</v>
+      </c>
+      <c r="I51">
+        <v>2.25</v>
+      </c>
+      <c r="J51">
+        <v>3.25</v>
+      </c>
+      <c r="K51" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52">
+        <v>0.4068215141426923</v>
+      </c>
+      <c r="F52">
+        <v>0.29744807933068818</v>
+      </c>
+      <c r="G52">
+        <v>0.29573040652661953</v>
+      </c>
+      <c r="H52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I52">
+        <v>3.35</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53">
+        <v>0.71047350958209288</v>
+      </c>
+      <c r="F53">
+        <v>0.1126456416458118</v>
+      </c>
+      <c r="G53">
+        <v>0.1768808487720952</v>
+      </c>
+      <c r="H53">
+        <v>1.34</v>
+      </c>
+      <c r="I53">
+        <v>8.25</v>
+      </c>
+      <c r="J53">
+        <v>5.25</v>
+      </c>
+      <c r="K53" t="s">
+        <v>45</v>
+      </c>
+      <c r="L53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>0.50205645837751134</v>
+      </c>
+      <c r="F54">
+        <v>0.2237261956698911</v>
+      </c>
+      <c r="G54">
+        <v>0.27421734595259739</v>
+      </c>
+      <c r="H54">
+        <v>1.83</v>
+      </c>
+      <c r="I54">
+        <v>4.55</v>
+      </c>
+      <c r="J54">
+        <v>3.35</v>
+      </c>
+      <c r="K54" t="s">
+        <v>45</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55">
+        <v>0.40997862643540173</v>
+      </c>
+      <c r="F55">
+        <v>0.31146232693547249</v>
+      </c>
+      <c r="G55">
+        <v>0.27855904662912578</v>
+      </c>
+      <c r="H55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I55">
+        <v>2.75</v>
+      </c>
+      <c r="J55">
+        <v>3.45</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E56">
+        <v>0.45959251064329842</v>
+      </c>
+      <c r="F56">
+        <v>0.26173533439017738</v>
+      </c>
+      <c r="G56">
+        <v>0.2786721549665242</v>
+      </c>
+      <c r="H56">
+        <v>2.1</v>
+      </c>
+      <c r="I56">
+        <v>3.4</v>
+      </c>
+      <c r="J56">
+        <v>3.2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57">
+        <v>0.42470854335802483</v>
+      </c>
+      <c r="F57">
+        <v>0.27534655717604878</v>
+      </c>
+      <c r="G57">
+        <v>0.29994489946592628</v>
+      </c>
+      <c r="H57">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I57">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J57">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" t="s">
+        <v>156</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58">
+        <v>0.4990229280410261</v>
+      </c>
+      <c r="F58">
+        <v>0.23265425348801089</v>
+      </c>
+      <c r="G58">
+        <v>0.26832281847096301</v>
+      </c>
+      <c r="H58">
+        <v>1.87</v>
+      </c>
+      <c r="I58">
+        <v>3.75</v>
+      </c>
+      <c r="J58">
+        <v>3.4</v>
+      </c>
+      <c r="K58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59">
+        <v>0.2403408073945677</v>
+      </c>
+      <c r="F59">
+        <v>0.50905282537101815</v>
+      </c>
+      <c r="G59">
+        <v>0.2506063672344141</v>
+      </c>
+      <c r="H59">
+        <v>4.5</v>
+      </c>
+      <c r="I59">
+        <v>1.68</v>
+      </c>
+      <c r="J59">
+        <v>3.65</v>
+      </c>
+      <c r="K59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60">
+        <v>0.37118474566965809</v>
+      </c>
+      <c r="F60">
+        <v>0.33462659499601272</v>
+      </c>
+      <c r="G60">
+        <v>0.29418865933432919</v>
+      </c>
+      <c r="H60">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I60">
+        <v>2.95</v>
+      </c>
+      <c r="J60">
+        <v>3.1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" t="s">
+        <v>164</v>
+      </c>
+      <c r="E61">
+        <v>0.51778823457194478</v>
+      </c>
+      <c r="F61">
+        <v>0.1938639033042644</v>
+      </c>
+      <c r="G61">
+        <v>0.28834786212379082</v>
+      </c>
+      <c r="H61">
+        <v>1.75</v>
+      </c>
+      <c r="I61">
+        <v>5.25</v>
+      </c>
+      <c r="J61">
+        <v>3.3</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62">
+        <v>0.32542245977874729</v>
+      </c>
+      <c r="F62">
+        <v>0.38686575145127511</v>
+      </c>
+      <c r="G62">
+        <v>0.28771178876997761</v>
+      </c>
+      <c r="H62">
+        <v>3.15</v>
+      </c>
+      <c r="I62">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J62">
+        <v>3.1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63">
+        <v>0.38358927652553682</v>
+      </c>
+      <c r="F63">
+        <v>0.32032514382410809</v>
+      </c>
+      <c r="G63">
+        <v>0.29608557965035509</v>
+      </c>
+      <c r="H63">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I63">
+        <v>2.85</v>
+      </c>
+      <c r="J63">
+        <v>2.9</v>
+      </c>
+      <c r="K63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64">
+        <v>0.72897286757122914</v>
+      </c>
+      <c r="F64">
+        <v>0.1009699933816712</v>
+      </c>
+      <c r="G64">
+        <v>0.17005713904709971</v>
+      </c>
+      <c r="H64">
+        <v>1.31</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>5.25</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="s">
+        <v>44</v>
+      </c>
+      <c r="M64" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" t="s">
+        <v>172</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65">
+        <v>0.30015948832161582</v>
+      </c>
+      <c r="F65">
+        <v>0.43275535501161699</v>
+      </c>
+      <c r="G65">
+        <v>0.26708515666676719</v>
+      </c>
+      <c r="H65">
+        <v>4.2</v>
+      </c>
+      <c r="I65">
+        <v>1.86</v>
+      </c>
+      <c r="J65">
+        <v>3.2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" t="s">
+        <v>44</v>
+      </c>
+      <c r="M65" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="4"/>
+        <v>3.5462138910590968E-2</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" t="s">
+        <v>173</v>
+      </c>
+      <c r="C66" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" t="s">
+        <v>175</v>
+      </c>
+      <c r="E66">
+        <v>0.45351122579526387</v>
+      </c>
+      <c r="F66">
+        <v>0.29321887741487618</v>
+      </c>
+      <c r="G66">
+        <v>0.25326989678986001</v>
+      </c>
+      <c r="H66">
+        <v>2.15</v>
+      </c>
+      <c r="I66">
+        <v>3.05</v>
+      </c>
+      <c r="J66">
+        <v>3.55</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q102" si="7">IF((($AC$1*E66)^($AB$1))-(1-(($AC$1*E66)^($AB$1)))/(H66-1)&lt;0, 0,(($AC$1*E66)^($AB$1))-(1-(($AC$1*E66)^($AB$1)))/(H66-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" ref="R66:R102" si="8">IF((($AC$1*F66)^($AB$1))-(1-(($AC$1*F66)^($AB$1)))/(I66-1)&lt;0, 0,(($AC$1*F66)^($AB$1))-(1-(($AC$1*F66)^($AB$1)))/(I66-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ref="S66:S102" si="9">IF((($AC$1*G66)^($AB$1))-(1-(($AC$1*G66)^($AB$1)))/(J66-1)&lt;0, 0,(($AC$1*G66)^($AB$1))-(1-(($AC$1*G66)^($AB$1)))/(J66-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67">
+        <v>0.71860220326227198</v>
+      </c>
+      <c r="F67">
+        <v>0.1006047775634127</v>
+      </c>
+      <c r="G67">
+        <v>0.18079301917431531</v>
+      </c>
+      <c r="H67">
+        <v>1.38</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="J67">
+        <v>5.75</v>
+      </c>
+      <c r="K67" t="s">
+        <v>45</v>
+      </c>
+      <c r="L67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="B68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68">
+        <v>0.28710269017144008</v>
+      </c>
+      <c r="F68">
+        <v>0.42081824496130371</v>
+      </c>
+      <c r="G68">
+        <v>0.29207906486725632</v>
+      </c>
+      <c r="H68">
+        <v>3.05</v>
+      </c>
+      <c r="I68">
+        <v>2.57</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69">
+        <v>0.42447163991914177</v>
+      </c>
+      <c r="F69">
+        <v>0.28938495891321547</v>
+      </c>
+      <c r="G69">
+        <v>0.2861434011676427</v>
+      </c>
+      <c r="H69">
+        <v>2.37</v>
+      </c>
+      <c r="I69">
+        <v>2.9</v>
+      </c>
+      <c r="J69">
+        <v>3.2</v>
+      </c>
+      <c r="K69" t="s">
+        <v>45</v>
+      </c>
+      <c r="L69" t="s">
+        <v>44</v>
+      </c>
+      <c r="M69" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" t="s">
+        <v>184</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70">
+        <v>0.35163092060380169</v>
+      </c>
+      <c r="F70">
+        <v>0.35843698746535502</v>
+      </c>
+      <c r="G70">
+        <v>0.28993209193084318</v>
+      </c>
+      <c r="H70">
+        <v>2.8</v>
+      </c>
+      <c r="I70">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J70">
+        <v>3.2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>44</v>
+      </c>
+      <c r="L70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>186</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71">
+        <v>0.33041671383602578</v>
+      </c>
+      <c r="F71">
+        <v>0.41339159646576651</v>
+      </c>
+      <c r="G71">
+        <v>0.25619168969820771</v>
+      </c>
+      <c r="H71">
+        <v>1.9</v>
+      </c>
+      <c r="I71">
+        <v>3.6</v>
+      </c>
+      <c r="J71">
+        <v>3.6</v>
+      </c>
+      <c r="K71" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" t="s">
+        <v>44</v>
+      </c>
+      <c r="M71" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="8"/>
+        <v>0.13787160975628807</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>189</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72">
+        <v>5.8964059988451632E-2</v>
+      </c>
+      <c r="F72">
+        <v>0.85388034115893219</v>
+      </c>
+      <c r="G72">
+        <v>8.715559885261609E-2</v>
+      </c>
+      <c r="H72">
+        <v>12</v>
+      </c>
+      <c r="I72">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73">
+        <v>0.14803854215503751</v>
+      </c>
+      <c r="F73">
+        <v>0.66596366885142833</v>
+      </c>
+      <c r="G73">
+        <v>0.18599778899353411</v>
+      </c>
+      <c r="H73">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="I73">
+        <v>1.62</v>
+      </c>
+      <c r="J73">
+        <v>3.9</v>
+      </c>
+      <c r="K73" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" t="s">
+        <v>44</v>
+      </c>
+      <c r="M73" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="8"/>
+        <v>5.5373139772003421E-2</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C74" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74">
+        <v>0.6913691183373829</v>
+      </c>
+      <c r="F74">
+        <v>0.1188414915036239</v>
+      </c>
+      <c r="G74">
+        <v>0.18978939015899321</v>
+      </c>
+      <c r="H74">
+        <v>1.44</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L74" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75">
+        <v>0.12775835458095469</v>
+      </c>
+      <c r="F75">
+        <v>0.70764698751815047</v>
+      </c>
+      <c r="G75">
+        <v>0.16459465790089481</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>1.45</v>
+      </c>
+      <c r="J75">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76">
+        <v>0.37515272274366168</v>
+      </c>
+      <c r="F76">
+        <v>0.29763980839757409</v>
+      </c>
+      <c r="G76">
+        <v>0.32720746885876428</v>
+      </c>
+      <c r="H76">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I76">
+        <v>3.45</v>
+      </c>
+      <c r="J76">
+        <v>2.85</v>
+      </c>
+      <c r="K76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L76" t="s">
+        <v>44</v>
+      </c>
+      <c r="M76" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77">
+        <v>0.34365588234957722</v>
+      </c>
+      <c r="F77">
+        <v>0.38953387487214852</v>
+      </c>
+      <c r="G77">
+        <v>0.26681024277827431</v>
+      </c>
+      <c r="H77">
+        <v>3.02</v>
+      </c>
+      <c r="I77">
+        <v>2.57</v>
+      </c>
+      <c r="J77">
+        <v>3.57</v>
+      </c>
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78">
+        <v>0.56449728746250882</v>
+      </c>
+      <c r="F78">
+        <v>0.18114472550540961</v>
+      </c>
+      <c r="G78">
+        <v>0.25435798703208168</v>
+      </c>
+      <c r="H78">
+        <v>1.7</v>
+      </c>
+      <c r="I78">
+        <v>5.75</v>
+      </c>
+      <c r="J78">
+        <v>3.65</v>
+      </c>
+      <c r="K78" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E79">
+        <v>0.42207787824805948</v>
+      </c>
+      <c r="F79">
+        <v>0.30817032720637377</v>
+      </c>
+      <c r="G79">
+        <v>0.26975179454556658</v>
+      </c>
+      <c r="H79">
+        <v>1.95</v>
+      </c>
+      <c r="I79">
+        <v>3.9</v>
+      </c>
+      <c r="J79">
+        <v>3.85</v>
+      </c>
+      <c r="K79" t="s">
+        <v>44</v>
+      </c>
+      <c r="L79" t="s">
+        <v>44</v>
+      </c>
+      <c r="M79" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="8"/>
+        <v>2.2213835653577318E-2</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80">
+        <v>0.42321257869840878</v>
+      </c>
+      <c r="F80">
+        <v>0.30083804471213599</v>
+      </c>
+      <c r="G80">
+        <v>0.27594937658945518</v>
+      </c>
+      <c r="H80">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I80">
+        <v>3.3</v>
+      </c>
+      <c r="J80">
+        <v>3.45</v>
+      </c>
+      <c r="K80" t="s">
+        <v>44</v>
+      </c>
+      <c r="L80" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81">
+        <v>0.41538006806066552</v>
+      </c>
+      <c r="F81">
+        <v>0.32007319178648092</v>
+      </c>
+      <c r="G81">
+        <v>0.26454674015285368</v>
+      </c>
+      <c r="H81">
+        <v>2.25</v>
+      </c>
+      <c r="I81">
+        <v>2.9</v>
+      </c>
+      <c r="J81">
+        <v>3.7</v>
+      </c>
+      <c r="K81" t="s">
+        <v>44</v>
+      </c>
+      <c r="L81" t="s">
+        <v>44</v>
+      </c>
+      <c r="M81" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" t="s">
+        <v>182</v>
+      </c>
+      <c r="E82">
+        <v>0.64286339765135592</v>
+      </c>
+      <c r="F82">
+        <v>0.14803692155075679</v>
+      </c>
+      <c r="G82">
+        <v>0.20909968079788721</v>
+      </c>
+      <c r="H82">
+        <v>1.55</v>
+      </c>
+      <c r="I82">
+        <v>6</v>
+      </c>
+      <c r="J82">
+        <v>3.95</v>
+      </c>
+      <c r="K82" t="s">
+        <v>45</v>
+      </c>
+      <c r="L82" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>0.44108328898017529</v>
+      </c>
+      <c r="F83">
+        <v>0.27240183693775227</v>
+      </c>
+      <c r="G83">
+        <v>0.28651487408207238</v>
+      </c>
+      <c r="H83">
+        <v>1.83</v>
+      </c>
+      <c r="I83">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J83">
+        <v>3.3</v>
+      </c>
+      <c r="K83" t="s">
+        <v>44</v>
+      </c>
+      <c r="L83" t="s">
+        <v>44</v>
+      </c>
+      <c r="M83" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>0.33643924203095371</v>
+      </c>
+      <c r="F84">
+        <v>0.35943380898345528</v>
+      </c>
+      <c r="G84">
+        <v>0.30412694898559101</v>
+      </c>
+      <c r="H84">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>2.9</v>
+      </c>
+      <c r="K84" t="s">
+        <v>44</v>
+      </c>
+      <c r="L84" t="s">
+        <v>44</v>
+      </c>
+      <c r="M84" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>215</v>
+      </c>
+      <c r="C85" t="s">
+        <v>216</v>
+      </c>
+      <c r="D85" t="s">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>0.31086838383326099</v>
+      </c>
+      <c r="F85">
+        <v>0.40857961342415289</v>
+      </c>
+      <c r="G85">
+        <v>0.28055200274258602</v>
+      </c>
+      <c r="H85">
+        <v>2.95</v>
+      </c>
+      <c r="I85">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+      <c r="K85" t="s">
+        <v>44</v>
+      </c>
+      <c r="L85" t="s">
+        <v>44</v>
+      </c>
+      <c r="M85" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>217</v>
+      </c>
+      <c r="C86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86">
+        <v>0.32421108818400252</v>
+      </c>
+      <c r="F86">
+        <v>0.38942827143326242</v>
+      </c>
+      <c r="G86">
+        <v>0.28636064038273518</v>
+      </c>
+      <c r="H86">
+        <v>2.85</v>
+      </c>
+      <c r="I86">
+        <v>2.5</v>
+      </c>
+      <c r="J86">
+        <v>2.95</v>
+      </c>
+      <c r="K86" t="s">
+        <v>44</v>
+      </c>
+      <c r="L86" t="s">
+        <v>44</v>
+      </c>
+      <c r="M86" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87">
+        <v>0.30773308959166079</v>
+      </c>
+      <c r="F87">
+        <v>0.40140906845453228</v>
+      </c>
+      <c r="G87">
+        <v>0.29085784195380687</v>
+      </c>
+      <c r="H87">
+        <v>2.9</v>
+      </c>
+      <c r="I87">
+        <v>2.5</v>
+      </c>
+      <c r="J87">
+        <v>2.95</v>
+      </c>
+      <c r="K87" t="s">
+        <v>44</v>
+      </c>
+      <c r="L87" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" t="s">
+        <v>83</v>
+      </c>
+      <c r="E88">
+        <v>0.45307983429706777</v>
+      </c>
+      <c r="F88">
+        <v>0.26123842465842129</v>
+      </c>
+      <c r="G88">
+        <v>0.28568174104451072</v>
+      </c>
+      <c r="H88">
+        <v>1.9</v>
+      </c>
+      <c r="I88">
+        <v>4.25</v>
+      </c>
+      <c r="J88">
+        <v>3.05</v>
+      </c>
+      <c r="K88" t="s">
+        <v>44</v>
+      </c>
+      <c r="L88" t="s">
+        <v>44</v>
+      </c>
+      <c r="M88" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" t="s">
+        <v>224</v>
+      </c>
+      <c r="D89" t="s">
+        <v>83</v>
+      </c>
+      <c r="E89">
+        <v>0.41836126306370708</v>
+      </c>
+      <c r="F89">
+        <v>0.28968700948440868</v>
+      </c>
+      <c r="G89">
+        <v>0.2919517274518843</v>
+      </c>
+      <c r="H89">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I89">
+        <v>3.65</v>
+      </c>
+      <c r="J89">
+        <v>3.05</v>
+      </c>
+      <c r="K89" t="s">
+        <v>44</v>
+      </c>
+      <c r="L89" t="s">
+        <v>44</v>
+      </c>
+      <c r="M89" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>225</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90">
+        <v>0.31556779048661521</v>
+      </c>
+      <c r="F90">
+        <v>0.40702376789811012</v>
+      </c>
+      <c r="G90">
+        <v>0.27740844161527478</v>
+      </c>
+      <c r="H90">
+        <v>2.57</v>
+      </c>
+      <c r="I90">
+        <v>2.8</v>
+      </c>
+      <c r="J90">
+        <v>3.35</v>
+      </c>
+      <c r="K90" t="s">
+        <v>45</v>
+      </c>
+      <c r="L90" t="s">
+        <v>44</v>
+      </c>
+      <c r="M90" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="8"/>
+        <v>2.1471591454705563E-2</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" t="s">
+        <v>226</v>
+      </c>
+      <c r="C91" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" t="s">
+        <v>83</v>
+      </c>
+      <c r="E91">
+        <v>0.31485657307117382</v>
+      </c>
+      <c r="F91">
+        <v>0.40387057151675199</v>
+      </c>
+      <c r="G91">
+        <v>0.28127285541207409</v>
+      </c>
+      <c r="H91">
+        <v>2.85</v>
+      </c>
+      <c r="I91">
+        <v>2.65</v>
+      </c>
+      <c r="J91">
+        <v>2.8</v>
+      </c>
+      <c r="K91" t="s">
+        <v>44</v>
+      </c>
+      <c r="L91" t="s">
+        <v>44</v>
+      </c>
+      <c r="M91" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>228</v>
+      </c>
+      <c r="C92" t="s">
+        <v>229</v>
+      </c>
+      <c r="D92" t="s">
+        <v>182</v>
+      </c>
+      <c r="E92">
+        <v>0.49475779813732051</v>
+      </c>
+      <c r="F92">
+        <v>0.25654889866558939</v>
+      </c>
+      <c r="G92">
+        <v>0.24869330319708999</v>
+      </c>
+      <c r="H92">
+        <v>1.95</v>
+      </c>
+      <c r="I92">
+        <v>3.45</v>
+      </c>
+      <c r="J92">
+        <v>3.65</v>
+      </c>
+      <c r="K92" t="s">
+        <v>44</v>
+      </c>
+      <c r="L92" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>230</v>
+      </c>
+      <c r="C93" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E93">
+        <v>0.41021135204472309</v>
+      </c>
+      <c r="F93">
+        <v>0.31245949251833838</v>
+      </c>
+      <c r="G93">
+        <v>0.27732915543693848</v>
+      </c>
+      <c r="H93">
+        <v>1.88</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>3.2</v>
+      </c>
+      <c r="K93" t="s">
+        <v>45</v>
+      </c>
+      <c r="L93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+      <c r="E94">
+        <v>0.46464575798548208</v>
+      </c>
+      <c r="F94">
+        <v>0.23118592883219541</v>
+      </c>
+      <c r="G94">
+        <v>0.30416831318232251</v>
+      </c>
+      <c r="H94">
+        <v>1.93</v>
+      </c>
+      <c r="I94">
+        <v>4.25</v>
+      </c>
+      <c r="J94">
+        <v>3.15</v>
+      </c>
+      <c r="K94" t="s">
+        <v>45</v>
+      </c>
+      <c r="L94" t="s">
+        <v>44</v>
+      </c>
+      <c r="M94" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95">
+        <v>0.81579391447998328</v>
+      </c>
+      <c r="F95">
+        <v>6.0821352350674089E-2</v>
+      </c>
+      <c r="G95">
+        <v>0.1233847331693427</v>
+      </c>
+      <c r="H95">
+        <v>1.2</v>
+      </c>
+      <c r="I95">
+        <v>15</v>
+      </c>
+      <c r="J95">
+        <v>7.25</v>
+      </c>
+      <c r="K95" t="s">
+        <v>45</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" t="s">
+        <v>238</v>
+      </c>
+      <c r="D96" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96">
+        <v>0.33992174995946939</v>
+      </c>
+      <c r="F96">
+        <v>0.37940220438438488</v>
+      </c>
+      <c r="G96">
+        <v>0.28067604565614562</v>
+      </c>
+      <c r="H96">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I96">
+        <v>2.6</v>
+      </c>
+      <c r="J96">
+        <v>3.3</v>
+      </c>
+      <c r="K96" t="s">
+        <v>44</v>
+      </c>
+      <c r="L96" t="s">
+        <v>44</v>
+      </c>
+      <c r="M96" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97">
+        <v>0.36620662269283238</v>
+      </c>
+      <c r="F97">
+        <v>0.33209486270465338</v>
+      </c>
+      <c r="G97">
+        <v>0.30169851460251418</v>
+      </c>
+      <c r="H97">
+        <v>2.75</v>
+      </c>
+      <c r="I97">
+        <v>2.7</v>
+      </c>
+      <c r="J97">
+        <v>3.1</v>
+      </c>
+      <c r="K97" t="s">
+        <v>45</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" t="s">
+        <v>242</v>
+      </c>
+      <c r="D98" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98">
+        <v>0.36057983700195029</v>
+      </c>
+      <c r="F98">
+        <v>0.34222479404319978</v>
+      </c>
+      <c r="G98">
+        <v>0.29719536895484999</v>
+      </c>
+      <c r="H98">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I98">
+        <v>3.1</v>
+      </c>
+      <c r="J98">
+        <v>3.15</v>
+      </c>
+      <c r="K98" t="s">
+        <v>45</v>
+      </c>
+      <c r="L98" t="s">
+        <v>44</v>
+      </c>
+      <c r="M98" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>243</v>
+      </c>
+      <c r="C99" t="s">
+        <v>244</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99">
+        <v>0.3213079762505906</v>
+      </c>
+      <c r="F99">
+        <v>0.41670773585656168</v>
+      </c>
+      <c r="G99">
+        <v>0.26198428789284772</v>
+      </c>
+      <c r="H99">
+        <v>2.95</v>
+      </c>
+      <c r="I99">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J99">
+        <v>3.6</v>
+      </c>
+      <c r="K99" t="s">
+        <v>45</v>
+      </c>
+      <c r="L99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>245</v>
+      </c>
+      <c r="C100" t="s">
+        <v>246</v>
+      </c>
+      <c r="D100" t="s">
+        <v>164</v>
+      </c>
+      <c r="E100">
+        <v>0.54197861211494192</v>
+      </c>
+      <c r="F100">
+        <v>0.193932113579874</v>
+      </c>
+      <c r="G100">
+        <v>0.26408927430518409</v>
+      </c>
+      <c r="H100">
+        <v>1.7</v>
+      </c>
+      <c r="I100">
+        <v>5.5</v>
+      </c>
+      <c r="J100">
+        <v>3.3</v>
+      </c>
+      <c r="K100" t="s">
+        <v>45</v>
+      </c>
+      <c r="L100" t="s">
+        <v>44</v>
+      </c>
+      <c r="M100" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>247</v>
+      </c>
+      <c r="C101" t="s">
+        <v>248</v>
+      </c>
+      <c r="D101" t="s">
+        <v>182</v>
+      </c>
+      <c r="E101">
+        <v>0.75044394078154741</v>
+      </c>
+      <c r="F101">
+        <v>9.3362328566866271E-2</v>
+      </c>
+      <c r="G101">
+        <v>0.1561937306515862</v>
+      </c>
+      <c r="H101">
+        <v>1.34</v>
+      </c>
+      <c r="I101">
+        <v>7.75</v>
+      </c>
+      <c r="J101">
+        <v>5.25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>45</v>
+      </c>
+      <c r="L101" t="s">
+        <v>44</v>
+      </c>
+      <c r="M101" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102">
+        <v>0.35228992204110698</v>
+      </c>
+      <c r="F102">
+        <v>0.36019880529950049</v>
+      </c>
+      <c r="G102">
+        <v>0.28751127265939241</v>
+      </c>
+      <c r="H102">
+        <v>2.37</v>
+      </c>
+      <c r="I102">
+        <v>3.4</v>
+      </c>
+      <c r="J102">
+        <v>3.15</v>
+      </c>
+      <c r="K102" t="s">
+        <v>45</v>
+      </c>
+      <c r="L102" t="s">
+        <v>44</v>
+      </c>
+      <c r="M102" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="8"/>
+        <v>4.2572814277106741E-2</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/predictor/modelC.xlsx
+++ b/predictor/modelC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED3086A-19A1-4F13-9952-4DB0735372F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F969FAE-FF9E-4EC0-AA16-1939DED2F026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2995" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="470">
   <si>
     <t>date</t>
   </si>
@@ -1465,6 +1465,18 @@
   <si>
     <t>Venezia</t>
   </si>
+  <si>
+    <t>10-02-2021</t>
+  </si>
+  <si>
+    <t>12-02-2021</t>
+  </si>
+  <si>
+    <t>13-02-2021</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
 </sst>
 </file>
 
@@ -1817,10 +1829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ440"/>
+  <dimension ref="A1:AQ543"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,33 +1911,33 @@
       </c>
       <c r="Y1" s="3">
         <f>(SUM(T2:V1048576)-SUM(AL2:AN1048576)  )/(SUM(AL2:AN1048576)+0.000000000000000001)</f>
-        <v>-9.5366944220700994E-3</v>
+        <v>-0.19152825304909563</v>
       </c>
       <c r="Z1">
         <f>COUNTIF(AL2:AN1048576,"&gt;0")</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="5">
         <f>_xlfn.STDEV.P(AO2:AQ1048576)</f>
-        <v>6.1785613634103009E-2</v>
+        <v>6.1992347924206569E-2</v>
       </c>
       <c r="AB1">
-        <v>1.1312031654229782</v>
+        <v>1.1406337768465256</v>
       </c>
       <c r="AC1">
-        <v>1.0143147686873375</v>
+        <v>1.0193497635063331</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0.13346571121303508</v>
+        <v>0.18825107386256201</v>
       </c>
       <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>3.1368527351642944E-2</v>
+        <v>3.8443282971767398E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>1.0479993951953601E-3</v>
+        <v>1.3003570500905331E-3</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -2047,8 +2059,8 @@
         <v>37</v>
       </c>
       <c r="AI2" s="2">
-        <f>IFERROR(IF(Y1&lt;0,Y1*AA1,Y1/AA1)  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
-        <v>-10000.000589230516</v>
+        <f>IFERROR(IF(Y1&lt;0,Y1,Y1/SQRT(AA1))  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
+        <v>-10000.19152825305</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL65" si="6">Q2*COUNT(N2)</f>
@@ -2149,10 +2161,10 @@
         <v>0.13753037753570821</v>
       </c>
       <c r="AE3">
-        <v>2.6066964359276804E-2</v>
+        <v>3.0375484885073904E-2</v>
       </c>
       <c r="AF3">
-        <v>1.0058680828292363E-3</v>
+        <v>1.1565378584115782E-3</v>
       </c>
       <c r="AL3">
         <f t="shared" si="6"/>
@@ -2245,23 +2257,23 @@
       </c>
       <c r="AB4" s="1">
         <f>ABS(AB1-AB3)/AB3</f>
-        <v>2.5662494716636296E-2</v>
+        <v>3.4213234968288667E-2</v>
       </c>
       <c r="AC4" s="1">
         <f>ABS(AC1-AC3)/AC3</f>
-        <v>1.4609005298874184E-2</v>
+        <v>1.9645460689933201E-2</v>
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>2.9554680176877925E-2</v>
+        <v>0.36879631420836279</v>
       </c>
       <c r="AE4" s="1">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>0.20338244681258411</v>
+        <v>0.2656022814851558</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>4.1885524638200812E-2</v>
+        <v>0.12435320697281824</v>
       </c>
       <c r="AL4">
         <f t="shared" si="6"/>
@@ -2419,7 +2431,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>9.2322482591617072E-2</v>
+        <v>9.3074134412471976E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
@@ -2431,7 +2443,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>0.18279851553140181</v>
+        <v>0.18428678613669452</v>
       </c>
       <c r="U6">
         <f t="shared" si="4"/>
@@ -2443,7 +2455,7 @@
       </c>
       <c r="AL6">
         <f t="shared" si="6"/>
-        <v>9.2322482591617072E-2</v>
+        <v>9.3074134412471976E-2</v>
       </c>
       <c r="AM6">
         <f t="shared" si="7"/>
@@ -2455,7 +2467,7 @@
       </c>
       <c r="AO6">
         <f t="shared" si="9"/>
-        <v>9.0476032939784734E-2</v>
+        <v>9.1212651724222549E-2</v>
       </c>
       <c r="AP6" t="str">
         <f t="shared" si="10"/>
@@ -3884,7 +3896,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>2.3359778166582634E-2</v>
+        <v>2.389364533049243E-2</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
@@ -3896,7 +3908,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
-        <v>4.4383578516507004E-2</v>
+        <v>4.5397926127935612E-2</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
@@ -3908,7 +3920,7 @@
       </c>
       <c r="AM21">
         <f t="shared" si="7"/>
-        <v>2.3359778166582634E-2</v>
+        <v>2.389364533049243E-2</v>
       </c>
       <c r="AN21">
         <f t="shared" si="8"/>
@@ -3920,7 +3932,7 @@
       </c>
       <c r="AP21">
         <f t="shared" si="10"/>
-        <v>2.1023800349924369E-2</v>
+        <v>2.1504280797443182E-2</v>
       </c>
       <c r="AQ21" t="str">
         <f t="shared" si="11"/>
@@ -4080,7 +4092,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>1.9082040557830748E-2</v>
+        <v>1.7218376958980486E-2</v>
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
@@ -4104,7 +4116,7 @@
       </c>
       <c r="AM23">
         <f t="shared" si="7"/>
-        <v>1.9082040557830748E-2</v>
+        <v>1.7218376958980486E-2</v>
       </c>
       <c r="AN23">
         <f t="shared" si="8"/>
@@ -4116,7 +4128,7 @@
       </c>
       <c r="AP23">
         <f t="shared" si="10"/>
-        <v>-1.9082040557830748E-2</v>
+        <v>-1.7218376958980486E-2</v>
       </c>
       <c r="AQ23" t="str">
         <f t="shared" si="11"/>
@@ -8084,7 +8096,7 @@
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
-        <v>3.9954192050523252E-2</v>
+        <v>3.8077130862316066E-2</v>
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
@@ -8108,7 +8120,7 @@
       </c>
       <c r="AL65">
         <f t="shared" si="6"/>
-        <v>3.9954192050523252E-2</v>
+        <v>3.8077130862316066E-2</v>
       </c>
       <c r="AM65">
         <f t="shared" si="7"/>
@@ -8120,7 +8132,7 @@
       </c>
       <c r="AO65">
         <f t="shared" si="9"/>
-        <v>-3.9954192050523252E-2</v>
+        <v>-3.8077130862316066E-2</v>
       </c>
       <c r="AP65" t="str">
         <f t="shared" si="10"/>
@@ -8676,7 +8688,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="13"/>
-        <v>0.133048485719794</v>
+        <v>0.13172798522349469</v>
       </c>
       <c r="S71">
         <f t="shared" si="14"/>
@@ -8700,7 +8712,7 @@
       </c>
       <c r="AM71">
         <f t="shared" si="19"/>
-        <v>0.133048485719794</v>
+        <v>0.13172798522349469</v>
       </c>
       <c r="AN71">
         <f t="shared" si="20"/>
@@ -8712,7 +8724,7 @@
       </c>
       <c r="AP71">
         <f t="shared" si="22"/>
-        <v>-0.133048485719794</v>
+        <v>-0.13172798522349469</v>
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="23"/>
@@ -8872,7 +8884,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="13"/>
-        <v>8.3652908136022441E-2</v>
+        <v>8.6646778683696746E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
@@ -8896,7 +8908,7 @@
       </c>
       <c r="AM73">
         <f t="shared" si="19"/>
-        <v>8.3652908136022441E-2</v>
+        <v>8.6646778683696746E-2</v>
       </c>
       <c r="AN73">
         <f t="shared" si="20"/>
@@ -8908,7 +8920,7 @@
       </c>
       <c r="AP73">
         <f t="shared" si="22"/>
-        <v>-8.3652908136022441E-2</v>
+        <v>-8.6646778683696746E-2</v>
       </c>
       <c r="AQ73" t="str">
         <f t="shared" si="23"/>
@@ -9068,7 +9080,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="13"/>
-        <v>2.0670738056977833E-2</v>
+        <v>2.6084414738517303E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="14"/>
@@ -9080,7 +9092,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="16"/>
-        <v>3.0385984943757414E-2</v>
+        <v>3.8344089665620432E-2</v>
       </c>
       <c r="V75">
         <f t="shared" si="17"/>
@@ -9092,7 +9104,7 @@
       </c>
       <c r="AM75">
         <f t="shared" si="19"/>
-        <v>2.0670738056977833E-2</v>
+        <v>2.6084414738517303E-2</v>
       </c>
       <c r="AN75">
         <f t="shared" si="20"/>
@@ -9104,7 +9116,7 @@
       </c>
       <c r="AP75">
         <f t="shared" si="22"/>
-        <v>9.7152468867795806E-3</v>
+        <v>1.2259674927103129E-2</v>
       </c>
       <c r="AQ75" t="str">
         <f t="shared" si="23"/>
@@ -9460,7 +9472,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="13"/>
-        <v>1.5839898059109958E-2</v>
+        <v>1.392490143100078E-2</v>
       </c>
       <c r="S79">
         <f t="shared" si="14"/>
@@ -9484,7 +9496,7 @@
       </c>
       <c r="AM79">
         <f t="shared" si="19"/>
-        <v>1.5839898059109958E-2</v>
+        <v>1.392490143100078E-2</v>
       </c>
       <c r="AN79">
         <f t="shared" si="20"/>
@@ -9496,7 +9508,7 @@
       </c>
       <c r="AP79">
         <f t="shared" si="22"/>
-        <v>-1.5839898059109958E-2</v>
+        <v>-1.392490143100078E-2</v>
       </c>
       <c r="AQ79" t="str">
         <f t="shared" si="23"/>
@@ -10538,7 +10550,7 @@
       </c>
       <c r="R90">
         <f t="shared" si="13"/>
-        <v>2.0658086415352495E-2</v>
+        <v>1.9070186296722691E-2</v>
       </c>
       <c r="S90">
         <f t="shared" si="14"/>
@@ -10562,7 +10574,7 @@
       </c>
       <c r="AM90">
         <f t="shared" si="19"/>
-        <v>2.0658086415352495E-2</v>
+        <v>1.9070186296722691E-2</v>
       </c>
       <c r="AN90">
         <f t="shared" si="20"/>
@@ -10574,7 +10586,7 @@
       </c>
       <c r="AP90">
         <f t="shared" si="22"/>
-        <v>-2.0658086415352495E-2</v>
+        <v>-1.9070186296722691E-2</v>
       </c>
       <c r="AQ90" t="str">
         <f t="shared" si="23"/>
@@ -11705,7 +11717,7 @@
       </c>
       <c r="R102">
         <f t="shared" si="13"/>
-        <v>3.526289137705485E-2</v>
+        <v>3.3514125468726619E-2</v>
       </c>
       <c r="S102">
         <f t="shared" si="14"/>
@@ -11717,7 +11729,7 @@
       </c>
       <c r="U102">
         <f t="shared" si="16"/>
-        <v>0.11989383068198649</v>
+        <v>0.1139480265936705</v>
       </c>
       <c r="V102">
         <f t="shared" si="17"/>
@@ -11729,7 +11741,7 @@
       </c>
       <c r="AM102">
         <f t="shared" si="19"/>
-        <v>3.526289137705485E-2</v>
+        <v>3.3514125468726619E-2</v>
       </c>
       <c r="AN102">
         <f t="shared" si="20"/>
@@ -11741,7 +11753,7 @@
       </c>
       <c r="AP102">
         <f t="shared" si="22"/>
-        <v>8.4630939304931638E-2</v>
+        <v>8.0433901124943877E-2</v>
       </c>
       <c r="AQ102" t="str">
         <f t="shared" si="23"/>
@@ -15322,7 +15334,7 @@
       </c>
       <c r="R139">
         <f t="shared" si="25"/>
-        <v>9.884308900885036E-2</v>
+        <v>9.7458698355934736E-2</v>
       </c>
       <c r="S139">
         <f t="shared" si="26"/>
@@ -15334,7 +15346,7 @@
       </c>
       <c r="U139">
         <f t="shared" si="28"/>
-        <v>0.32618219372920615</v>
+        <v>0.3216137045745846</v>
       </c>
       <c r="V139">
         <f t="shared" si="29"/>
@@ -15346,7 +15358,7 @@
       </c>
       <c r="AM139">
         <f t="shared" si="31"/>
-        <v>9.884308900885036E-2</v>
+        <v>9.7458698355934736E-2</v>
       </c>
       <c r="AN139">
         <f t="shared" si="32"/>
@@ -15358,7 +15370,7 @@
       </c>
       <c r="AP139">
         <f t="shared" si="34"/>
-        <v>0.22733910472035579</v>
+        <v>0.22415500621864987</v>
       </c>
       <c r="AQ139" t="str">
         <f t="shared" si="35"/>
@@ -15714,7 +15726,7 @@
       </c>
       <c r="R143">
         <f t="shared" si="25"/>
-        <v>3.123027643572307E-4</v>
+        <v>0</v>
       </c>
       <c r="S143">
         <f t="shared" si="26"/>
@@ -15738,7 +15750,7 @@
       </c>
       <c r="AM143">
         <f t="shared" si="31"/>
-        <v>3.123027643572307E-4</v>
+        <v>0</v>
       </c>
       <c r="AN143">
         <f t="shared" si="32"/>
@@ -15748,9 +15760,9 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AP143">
+      <c r="AP143" t="str">
         <f t="shared" si="34"/>
-        <v>-3.123027643572307E-4</v>
+        <v/>
       </c>
       <c r="AQ143" t="str">
         <f t="shared" si="35"/>
@@ -17135,7 +17147,7 @@
       </c>
       <c r="Q158">
         <f t="shared" si="24"/>
-        <v>4.014700827555906E-2</v>
+        <v>4.7091154370451749E-2</v>
       </c>
       <c r="R158">
         <f t="shared" si="25"/>
@@ -17147,7 +17159,7 @@
       </c>
       <c r="T158">
         <f t="shared" si="27"/>
-        <v>5.7008751751293864E-2</v>
+        <v>6.6869439206041478E-2</v>
       </c>
       <c r="U158">
         <f t="shared" si="28"/>
@@ -17159,7 +17171,7 @@
       </c>
       <c r="AL158">
         <f t="shared" si="30"/>
-        <v>4.014700827555906E-2</v>
+        <v>4.7091154370451749E-2</v>
       </c>
       <c r="AM158">
         <f t="shared" si="31"/>
@@ -17171,7 +17183,7 @@
       </c>
       <c r="AO158">
         <f t="shared" si="33"/>
-        <v>1.6861743475734804E-2</v>
+        <v>1.9778284835589729E-2</v>
       </c>
       <c r="AP158" t="str">
         <f t="shared" si="34"/>
@@ -18466,7 +18478,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="25"/>
-        <v>1.1286621100623173E-2</v>
+        <v>9.8340920588185221E-3</v>
       </c>
       <c r="S172">
         <f t="shared" si="26"/>
@@ -18490,7 +18502,7 @@
       </c>
       <c r="AM172">
         <f t="shared" si="31"/>
-        <v>1.1286621100623173E-2</v>
+        <v>9.8340920588185221E-3</v>
       </c>
       <c r="AN172">
         <f t="shared" si="32"/>
@@ -18502,7 +18514,7 @@
       </c>
       <c r="AP172">
         <f t="shared" si="34"/>
-        <v>-1.1286621100623173E-2</v>
+        <v>-9.8340920588185221E-3</v>
       </c>
       <c r="AQ172" t="str">
         <f t="shared" si="35"/>
@@ -21067,7 +21079,7 @@
       </c>
       <c r="R199">
         <f t="shared" si="37"/>
-        <v>3.2878141060165733E-2</v>
+        <v>3.1237701184956002E-2</v>
       </c>
       <c r="S199">
         <f t="shared" si="38"/>
@@ -21091,7 +21103,7 @@
       </c>
       <c r="AM199">
         <f t="shared" si="43"/>
-        <v>3.2878141060165733E-2</v>
+        <v>3.1237701184956002E-2</v>
       </c>
       <c r="AN199">
         <f t="shared" si="44"/>
@@ -21103,7 +21115,7 @@
       </c>
       <c r="AP199">
         <f t="shared" si="46"/>
-        <v>-3.2878141060165733E-2</v>
+        <v>-3.1237701184956002E-2</v>
       </c>
       <c r="AQ199" t="str">
         <f t="shared" si="47"/>
@@ -22185,7 +22197,7 @@
       </c>
       <c r="Q211">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4.4928794081906531E-3</v>
       </c>
       <c r="R211">
         <f t="shared" si="37"/>
@@ -22197,7 +22209,7 @@
       </c>
       <c r="T211">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>6.3798887596307275E-3</v>
       </c>
       <c r="U211">
         <f t="shared" si="40"/>
@@ -22209,7 +22221,7 @@
       </c>
       <c r="AL211">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>4.4928794081906531E-3</v>
       </c>
       <c r="AM211">
         <f t="shared" si="43"/>
@@ -22219,9 +22231,9 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AO211" t="str">
+      <c r="AO211">
         <f t="shared" si="45"/>
-        <v/>
+        <v>1.8870093514400743E-3</v>
       </c>
       <c r="AP211" t="str">
         <f t="shared" si="46"/>
@@ -23459,7 +23471,7 @@
       </c>
       <c r="Q224">
         <f t="shared" si="36"/>
-        <v>9.0825114641707033E-3</v>
+        <v>7.7662392867211827E-3</v>
       </c>
       <c r="R224">
         <f t="shared" si="37"/>
@@ -23483,7 +23495,7 @@
       </c>
       <c r="AL224">
         <f t="shared" si="42"/>
-        <v>9.0825114641707033E-3</v>
+        <v>7.7662392867211827E-3</v>
       </c>
       <c r="AM224">
         <f t="shared" si="43"/>
@@ -23495,7 +23507,7 @@
       </c>
       <c r="AO224">
         <f t="shared" si="45"/>
-        <v>-9.0825114641707033E-3</v>
+        <v>-7.7662392867211827E-3</v>
       </c>
       <c r="AP224" t="str">
         <f t="shared" si="46"/>
@@ -23753,7 +23765,7 @@
       </c>
       <c r="Q227">
         <f t="shared" si="36"/>
-        <v>2.5599060259789974E-4</v>
+        <v>0</v>
       </c>
       <c r="R227">
         <f t="shared" si="37"/>
@@ -23777,7 +23789,7 @@
       </c>
       <c r="AL227">
         <f t="shared" si="42"/>
-        <v>2.5599060259789974E-4</v>
+        <v>0</v>
       </c>
       <c r="AM227">
         <f t="shared" si="43"/>
@@ -23787,9 +23799,9 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AO227">
+      <c r="AO227" t="str">
         <f t="shared" si="45"/>
-        <v>-2.5599060259789974E-4</v>
+        <v/>
       </c>
       <c r="AP227" t="str">
         <f t="shared" si="46"/>
@@ -25419,7 +25431,7 @@
       </c>
       <c r="Q244">
         <f t="shared" si="36"/>
-        <v>2.8267231295672657E-2</v>
+        <v>3.5702808406174791E-2</v>
       </c>
       <c r="R244">
         <f t="shared" si="37"/>
@@ -25443,7 +25455,7 @@
       </c>
       <c r="AL244">
         <f t="shared" si="42"/>
-        <v>2.8267231295672657E-2</v>
+        <v>3.5702808406174791E-2</v>
       </c>
       <c r="AM244">
         <f t="shared" si="43"/>
@@ -25455,7 +25467,7 @@
       </c>
       <c r="AO244">
         <f t="shared" si="45"/>
-        <v>-2.8267231295672657E-2</v>
+        <v>-3.5702808406174791E-2</v>
       </c>
       <c r="AP244" t="str">
         <f t="shared" si="46"/>
@@ -26599,7 +26611,7 @@
       </c>
       <c r="R256">
         <f t="shared" si="37"/>
-        <v>4.8215650799566578E-2</v>
+        <v>4.6395075690106008E-2</v>
       </c>
       <c r="S256">
         <f t="shared" si="38"/>
@@ -26611,7 +26623,7 @@
       </c>
       <c r="U256">
         <f t="shared" si="40"/>
-        <v>0.19286260319826631</v>
+        <v>0.18558030276042403</v>
       </c>
       <c r="V256">
         <f t="shared" si="41"/>
@@ -26623,7 +26635,7 @@
       </c>
       <c r="AM256">
         <f t="shared" si="43"/>
-        <v>4.8215650799566578E-2</v>
+        <v>4.6395075690106008E-2</v>
       </c>
       <c r="AN256">
         <f t="shared" si="44"/>
@@ -26635,7 +26647,7 @@
       </c>
       <c r="AP256">
         <f t="shared" si="46"/>
-        <v>0.14464695239869974</v>
+        <v>0.13918522707031802</v>
       </c>
       <c r="AQ256" t="str">
         <f t="shared" si="47"/>
@@ -26795,7 +26807,7 @@
       </c>
       <c r="R258">
         <f t="shared" ref="R258:R321" si="49">IF((($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1)&lt;0, 0,(($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1))</f>
-        <v>5.2442210473133688E-3</v>
+        <v>3.3040007916560477E-3</v>
       </c>
       <c r="S258">
         <f t="shared" ref="S258:S321" si="50">IF((($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1)&lt;0, 0,(($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1))</f>
@@ -26819,7 +26831,7 @@
       </c>
       <c r="AM258">
         <f t="shared" ref="AM258:AM321" si="55">R258*COUNT(O258)</f>
-        <v>5.2442210473133688E-3</v>
+        <v>3.3040007916560477E-3</v>
       </c>
       <c r="AN258">
         <f t="shared" ref="AN258:AN321" si="56">S258*COUNT(P258)</f>
@@ -26831,7 +26843,7 @@
       </c>
       <c r="AP258">
         <f t="shared" ref="AP258:AP321" si="58">IF(AM258=0,"",U258-AM258)</f>
-        <v>-5.2442210473133688E-3</v>
+        <v>-3.3040007916560477E-3</v>
       </c>
       <c r="AQ258" t="str">
         <f t="shared" ref="AQ258:AQ321" si="59">IF(AN258=0,"",V258-AN258)</f>
@@ -28555,7 +28567,7 @@
       </c>
       <c r="Q276">
         <f t="shared" si="48"/>
-        <v>6.9286946465264565E-3</v>
+        <v>9.8840065432044266E-3</v>
       </c>
       <c r="R276">
         <f t="shared" si="49"/>
@@ -28579,7 +28591,7 @@
       </c>
       <c r="AL276">
         <f t="shared" si="54"/>
-        <v>6.9286946465264565E-3</v>
+        <v>9.8840065432044266E-3</v>
       </c>
       <c r="AM276">
         <f t="shared" si="55"/>
@@ -28591,7 +28603,7 @@
       </c>
       <c r="AO276">
         <f t="shared" si="57"/>
-        <v>-6.9286946465264565E-3</v>
+        <v>-9.8840065432044266E-3</v>
       </c>
       <c r="AP276" t="str">
         <f t="shared" si="58"/>
@@ -28951,7 +28963,7 @@
       </c>
       <c r="R280">
         <f t="shared" si="49"/>
-        <v>5.4828972784664309E-3</v>
+        <v>3.5578077791768303E-3</v>
       </c>
       <c r="S280">
         <f t="shared" si="50"/>
@@ -28975,7 +28987,7 @@
       </c>
       <c r="AM280">
         <f t="shared" si="55"/>
-        <v>5.4828972784664309E-3</v>
+        <v>3.5578077791768303E-3</v>
       </c>
       <c r="AN280">
         <f t="shared" si="56"/>
@@ -28987,7 +28999,7 @@
       </c>
       <c r="AP280">
         <f t="shared" si="58"/>
-        <v>-5.4828972784664309E-3</v>
+        <v>-3.5578077791768303E-3</v>
       </c>
       <c r="AQ280" t="str">
         <f t="shared" si="59"/>
@@ -29049,7 +29061,7 @@
       </c>
       <c r="R281">
         <f t="shared" si="49"/>
-        <v>2.0561842328520874E-3</v>
+        <v>3.1373306849841187E-4</v>
       </c>
       <c r="S281">
         <f t="shared" si="50"/>
@@ -29061,7 +29073,7 @@
       </c>
       <c r="U281">
         <f t="shared" si="52"/>
-        <v>6.1685526985562622E-3</v>
+        <v>9.4119920549523561E-4</v>
       </c>
       <c r="V281">
         <f t="shared" si="53"/>
@@ -29073,7 +29085,7 @@
       </c>
       <c r="AM281">
         <f t="shared" si="55"/>
-        <v>2.0561842328520874E-3</v>
+        <v>3.1373306849841187E-4</v>
       </c>
       <c r="AN281">
         <f t="shared" si="56"/>
@@ -29085,7 +29097,7 @@
       </c>
       <c r="AP281">
         <f t="shared" si="58"/>
-        <v>4.1123684657041748E-3</v>
+        <v>6.2746613699682374E-4</v>
       </c>
       <c r="AQ281" t="str">
         <f t="shared" si="59"/>
@@ -30016,7 +30028,7 @@
       </c>
       <c r="Q291">
         <f t="shared" si="48"/>
-        <v>1.2192832503080953E-2</v>
+        <v>1.0267111593903033E-2</v>
       </c>
       <c r="R291">
         <f t="shared" si="49"/>
@@ -30040,7 +30052,7 @@
       </c>
       <c r="AL291">
         <f t="shared" si="54"/>
-        <v>1.2192832503080953E-2</v>
+        <v>1.0267111593903033E-2</v>
       </c>
       <c r="AM291">
         <f t="shared" si="55"/>
@@ -30052,7 +30064,7 @@
       </c>
       <c r="AO291">
         <f t="shared" si="57"/>
-        <v>-1.2192832503080953E-2</v>
+        <v>-1.0267111593903033E-2</v>
       </c>
       <c r="AP291" t="str">
         <f t="shared" si="58"/>
@@ -30114,7 +30126,7 @@
       </c>
       <c r="Q292">
         <f t="shared" si="48"/>
-        <v>1.7392947643606882E-3</v>
+        <v>2.0270632361524266E-4</v>
       </c>
       <c r="R292">
         <f t="shared" si="49"/>
@@ -30126,7 +30138,7 @@
       </c>
       <c r="T292">
         <f t="shared" si="51"/>
-        <v>4.6960958637738588E-3</v>
+        <v>5.4730707376115519E-4</v>
       </c>
       <c r="U292">
         <f t="shared" si="52"/>
@@ -30138,7 +30150,7 @@
       </c>
       <c r="AL292">
         <f t="shared" si="54"/>
-        <v>1.7392947643606882E-3</v>
+        <v>2.0270632361524266E-4</v>
       </c>
       <c r="AM292">
         <f t="shared" si="55"/>
@@ -30150,7 +30162,7 @@
       </c>
       <c r="AO292">
         <f t="shared" si="57"/>
-        <v>2.9568010994131706E-3</v>
+        <v>3.4460075014591254E-4</v>
       </c>
       <c r="AP292" t="str">
         <f t="shared" si="58"/>
@@ -30880,7 +30892,7 @@
       </c>
       <c r="Q300">
         <f t="shared" si="48"/>
-        <v>9.3167775431466926E-3</v>
+        <v>7.4181562339501461E-3</v>
       </c>
       <c r="R300">
         <f t="shared" si="49"/>
@@ -30904,7 +30916,7 @@
       </c>
       <c r="AL300">
         <f t="shared" si="54"/>
-        <v>9.3167775431466926E-3</v>
+        <v>7.4181562339501461E-3</v>
       </c>
       <c r="AM300">
         <f t="shared" si="55"/>
@@ -30916,7 +30928,7 @@
       </c>
       <c r="AO300">
         <f t="shared" si="57"/>
-        <v>-9.3167775431466926E-3</v>
+        <v>-7.4181562339501461E-3</v>
       </c>
       <c r="AP300" t="str">
         <f t="shared" si="58"/>
@@ -31744,7 +31756,7 @@
       </c>
       <c r="Q309">
         <f t="shared" si="48"/>
-        <v>1.5208469166387073E-2</v>
+        <v>1.3531069500425319E-2</v>
       </c>
       <c r="R309">
         <f t="shared" si="49"/>
@@ -31768,7 +31780,7 @@
       </c>
       <c r="AL309">
         <f t="shared" si="54"/>
-        <v>1.5208469166387073E-2</v>
+        <v>1.3531069500425319E-2</v>
       </c>
       <c r="AM309">
         <f t="shared" si="55"/>
@@ -31780,7 +31792,7 @@
       </c>
       <c r="AO309">
         <f t="shared" si="57"/>
-        <v>-1.5208469166387073E-2</v>
+        <v>-1.3531069500425319E-2</v>
       </c>
       <c r="AP309" t="str">
         <f t="shared" si="58"/>
@@ -31842,7 +31854,7 @@
       </c>
       <c r="Q310">
         <f t="shared" si="48"/>
-        <v>2.428480006752165E-3</v>
+        <v>4.8304810099619733E-4</v>
       </c>
       <c r="R310">
         <f t="shared" si="49"/>
@@ -31866,7 +31878,7 @@
       </c>
       <c r="AL310">
         <f t="shared" si="54"/>
-        <v>2.428480006752165E-3</v>
+        <v>4.8304810099619733E-4</v>
       </c>
       <c r="AM310">
         <f t="shared" si="55"/>
@@ -31878,7 +31890,7 @@
       </c>
       <c r="AO310">
         <f t="shared" si="57"/>
-        <v>-2.428480006752165E-3</v>
+        <v>-4.8304810099619733E-4</v>
       </c>
       <c r="AP310" t="str">
         <f t="shared" si="58"/>
@@ -32376,7 +32388,7 @@
       </c>
       <c r="Q316">
         <f t="shared" si="48"/>
-        <v>2.1529082295798085E-3</v>
+        <v>2.6771180909501702E-4</v>
       </c>
       <c r="R316">
         <f t="shared" si="49"/>
@@ -32400,7 +32412,7 @@
       </c>
       <c r="AL316">
         <f t="shared" si="54"/>
-        <v>2.1529082295798085E-3</v>
+        <v>2.6771180909501702E-4</v>
       </c>
       <c r="AM316">
         <f t="shared" si="55"/>
@@ -32412,7 +32424,7 @@
       </c>
       <c r="AO316">
         <f t="shared" si="57"/>
-        <v>-2.1529082295798085E-3</v>
+        <v>-2.6771180909501702E-4</v>
       </c>
       <c r="AP316" t="str">
         <f t="shared" si="58"/>
@@ -33454,7 +33466,7 @@
       </c>
       <c r="Q327">
         <f t="shared" si="60"/>
-        <v>4.0827610196483233E-2</v>
+        <v>3.9060931943699972E-2</v>
       </c>
       <c r="R327">
         <f t="shared" si="61"/>
@@ -33466,7 +33478,7 @@
       </c>
       <c r="T327">
         <f t="shared" si="63"/>
-        <v>0.14493801619751548</v>
+        <v>0.13866630840013489</v>
       </c>
       <c r="U327">
         <f t="shared" si="64"/>
@@ -33478,7 +33490,7 @@
       </c>
       <c r="AL327">
         <f t="shared" si="66"/>
-        <v>4.0827610196483233E-2</v>
+        <v>3.9060931943699972E-2</v>
       </c>
       <c r="AM327">
         <f t="shared" si="67"/>
@@ -33490,7 +33502,7 @@
       </c>
       <c r="AO327">
         <f t="shared" si="69"/>
-        <v>0.10411040600103225</v>
+        <v>9.9605376456434913E-2</v>
       </c>
       <c r="AP327" t="str">
         <f t="shared" si="70"/>
@@ -34238,7 +34250,7 @@
       </c>
       <c r="Q335">
         <f t="shared" si="60"/>
-        <v>6.9609583511226203E-3</v>
+        <v>5.2536831619107438E-3</v>
       </c>
       <c r="R335">
         <f t="shared" si="61"/>
@@ -34262,7 +34274,7 @@
       </c>
       <c r="AL335">
         <f t="shared" si="66"/>
-        <v>6.9609583511226203E-3</v>
+        <v>5.2536831619107438E-3</v>
       </c>
       <c r="AM335">
         <f t="shared" si="67"/>
@@ -34274,7 +34286,7 @@
       </c>
       <c r="AO335">
         <f t="shared" si="69"/>
-        <v>-6.9609583511226203E-3</v>
+        <v>-5.2536831619107438E-3</v>
       </c>
       <c r="AP335" t="str">
         <f t="shared" si="70"/>
@@ -34630,7 +34642,7 @@
       </c>
       <c r="Q339">
         <f t="shared" si="60"/>
-        <v>5.4326826922811544E-2</v>
+        <v>5.7501448152491141E-2</v>
       </c>
       <c r="R339">
         <f t="shared" si="61"/>
@@ -34654,7 +34666,7 @@
       </c>
       <c r="AL339">
         <f t="shared" si="66"/>
-        <v>5.4326826922811544E-2</v>
+        <v>5.7501448152491141E-2</v>
       </c>
       <c r="AM339">
         <f t="shared" si="67"/>
@@ -34666,7 +34678,7 @@
       </c>
       <c r="AO339">
         <f t="shared" si="69"/>
-        <v>-5.4326826922811544E-2</v>
+        <v>-5.7501448152491141E-2</v>
       </c>
       <c r="AP339" t="str">
         <f t="shared" si="70"/>
@@ -34732,7 +34744,7 @@
       </c>
       <c r="R340">
         <f t="shared" si="61"/>
-        <v>3.9339100120131087E-2</v>
+        <v>4.0784015013831221E-2</v>
       </c>
       <c r="S340">
         <f t="shared" si="62"/>
@@ -34756,7 +34768,7 @@
       </c>
       <c r="AM340">
         <f t="shared" si="67"/>
-        <v>3.9339100120131087E-2</v>
+        <v>4.0784015013831221E-2</v>
       </c>
       <c r="AN340">
         <f t="shared" si="68"/>
@@ -34768,7 +34780,7 @@
       </c>
       <c r="AP340">
         <f t="shared" si="70"/>
-        <v>-3.9339100120131087E-2</v>
+        <v>-4.0784015013831221E-2</v>
       </c>
       <c r="AQ340" t="str">
         <f t="shared" si="71"/>
@@ -34826,7 +34838,7 @@
       </c>
       <c r="Q341">
         <f t="shared" si="60"/>
-        <v>0.13346571121303508</v>
+        <v>0.13774055713216982</v>
       </c>
       <c r="R341">
         <f t="shared" si="61"/>
@@ -34850,7 +34862,7 @@
       </c>
       <c r="AL341">
         <f t="shared" si="66"/>
-        <v>0.13346571121303508</v>
+        <v>0.13774055713216982</v>
       </c>
       <c r="AM341">
         <f t="shared" si="67"/>
@@ -34862,7 +34874,7 @@
       </c>
       <c r="AO341">
         <f t="shared" si="69"/>
-        <v>-0.13346571121303508</v>
+        <v>-0.13774055713216982</v>
       </c>
       <c r="AP341" t="str">
         <f t="shared" si="70"/>
@@ -35512,7 +35524,7 @@
       </c>
       <c r="Q348">
         <f t="shared" si="60"/>
-        <v>1.5685983358864841E-2</v>
+        <v>2.1045485890653359E-2</v>
       </c>
       <c r="R348">
         <f t="shared" si="61"/>
@@ -35524,7 +35536,7 @@
       </c>
       <c r="T348">
         <f t="shared" si="63"/>
-        <v>2.3058395537531317E-2</v>
+        <v>3.0936864259260437E-2</v>
       </c>
       <c r="U348">
         <f t="shared" si="64"/>
@@ -35536,7 +35548,7 @@
       </c>
       <c r="AL348">
         <f t="shared" si="66"/>
-        <v>1.5685983358864841E-2</v>
+        <v>2.1045485890653359E-2</v>
       </c>
       <c r="AM348">
         <f t="shared" si="67"/>
@@ -35548,7 +35560,7 @@
       </c>
       <c r="AO348">
         <f t="shared" si="69"/>
-        <v>7.3724121786664758E-3</v>
+        <v>9.8913783686070782E-3</v>
       </c>
       <c r="AP348" t="str">
         <f t="shared" si="70"/>
@@ -35708,7 +35720,7 @@
       </c>
       <c r="Q350">
         <f t="shared" si="60"/>
-        <v>4.5041614076980069E-4</v>
+        <v>0</v>
       </c>
       <c r="R350">
         <f t="shared" si="61"/>
@@ -35732,7 +35744,7 @@
       </c>
       <c r="AL350">
         <f t="shared" si="66"/>
-        <v>4.5041614076980069E-4</v>
+        <v>0</v>
       </c>
       <c r="AM350">
         <f t="shared" si="67"/>
@@ -35742,9 +35754,9 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AO350">
+      <c r="AO350" t="str">
         <f t="shared" si="69"/>
-        <v>-4.5041614076980069E-4</v>
+        <v/>
       </c>
       <c r="AP350" t="str">
         <f t="shared" si="70"/>
@@ -36091,7 +36103,7 @@
       </c>
       <c r="Q354">
         <f t="shared" si="60"/>
-        <v>2.3308223010679474E-2</v>
+        <v>2.1556480993317972E-2</v>
       </c>
       <c r="R354">
         <f t="shared" si="61"/>
@@ -36115,7 +36127,7 @@
       </c>
       <c r="AL354">
         <f t="shared" si="66"/>
-        <v>2.3308223010679474E-2</v>
+        <v>2.1556480993317972E-2</v>
       </c>
       <c r="AM354">
         <f t="shared" si="67"/>
@@ -36127,7 +36139,7 @@
       </c>
       <c r="AO354">
         <f t="shared" si="69"/>
-        <v>-2.3308223010679474E-2</v>
+        <v>-2.1556480993317972E-2</v>
       </c>
       <c r="AP354" t="str">
         <f t="shared" si="70"/>
@@ -36875,7 +36887,7 @@
       </c>
       <c r="Q362">
         <f t="shared" si="60"/>
-        <v>7.8582360296988729E-3</v>
+        <v>5.946915881929582E-3</v>
       </c>
       <c r="R362">
         <f t="shared" si="61"/>
@@ -36899,7 +36911,7 @@
       </c>
       <c r="AL362">
         <f t="shared" si="66"/>
-        <v>7.8582360296988729E-3</v>
+        <v>5.946915881929582E-3</v>
       </c>
       <c r="AM362">
         <f t="shared" si="67"/>
@@ -36911,7 +36923,7 @@
       </c>
       <c r="AO362">
         <f t="shared" si="69"/>
-        <v>-7.8582360296988729E-3</v>
+        <v>-5.946915881929582E-3</v>
       </c>
       <c r="AP362" t="str">
         <f t="shared" si="70"/>
@@ -38149,7 +38161,7 @@
       </c>
       <c r="Q375">
         <f t="shared" si="60"/>
-        <v>7.8223066729687929E-4</v>
+        <v>5.3311853259855324E-3</v>
       </c>
       <c r="R375">
         <f t="shared" si="61"/>
@@ -38161,7 +38173,7 @@
       </c>
       <c r="T375">
         <f t="shared" si="63"/>
-        <v>1.1733460009453189E-3</v>
+        <v>7.9967779889782986E-3</v>
       </c>
       <c r="U375">
         <f t="shared" si="64"/>
@@ -38173,7 +38185,7 @@
       </c>
       <c r="AL375">
         <f t="shared" si="66"/>
-        <v>7.8223066729687929E-4</v>
+        <v>5.3311853259855324E-3</v>
       </c>
       <c r="AM375">
         <f t="shared" si="67"/>
@@ -38185,7 +38197,7 @@
       </c>
       <c r="AO375">
         <f t="shared" si="69"/>
-        <v>3.9111533364843964E-4</v>
+        <v>2.6655926629927662E-3</v>
       </c>
       <c r="AP375" t="str">
         <f t="shared" si="70"/>
@@ -39217,51 +39229,51 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <f t="shared" ref="Q386:Q440" si="72">IF((($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1)&lt;0, 0,(($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1))</f>
+        <f t="shared" ref="Q386:Q449" si="72">IF((($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1)&lt;0, 0,(($AC$1*E386)^($AB$1))-(1-(($AC$1*E386)^($AB$1)))/(H386-1))</f>
         <v>0</v>
       </c>
       <c r="R386">
-        <f t="shared" ref="R386:R440" si="73">IF((($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1)&lt;0, 0,(($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1))</f>
+        <f t="shared" ref="R386:R449" si="73">IF((($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1)&lt;0, 0,(($AC$1*F386)^($AB$1))-(1-(($AC$1*F386)^($AB$1)))/(I386-1))</f>
         <v>0</v>
       </c>
       <c r="S386">
-        <f t="shared" ref="S386:S440" si="74">IF((($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1)&lt;0, 0,(($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1))</f>
+        <f t="shared" ref="S386:S449" si="74">IF((($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1)&lt;0, 0,(($AC$1*G386)^($AB$1))-(1-(($AC$1*G386)^($AB$1)))/(J386-1))</f>
         <v>0</v>
       </c>
       <c r="T386">
-        <f t="shared" ref="T386:T407" si="75">H386*Q386*N386</f>
+        <f t="shared" ref="T386:T449" si="75">H386*Q386*N386</f>
         <v>0</v>
       </c>
       <c r="U386">
-        <f t="shared" ref="U386:U407" si="76">I386*R386*O386</f>
+        <f t="shared" ref="U386:U449" si="76">I386*R386*O386</f>
         <v>0</v>
       </c>
       <c r="V386">
-        <f t="shared" ref="V386:V407" si="77">J386*S386*P386</f>
+        <f t="shared" ref="V386:V449" si="77">J386*S386*P386</f>
         <v>0</v>
       </c>
       <c r="AL386">
-        <f t="shared" ref="AL386:AL407" si="78">Q386*COUNT(N386)</f>
+        <f t="shared" ref="AL386:AL449" si="78">Q386*COUNT(N386)</f>
         <v>0</v>
       </c>
       <c r="AM386">
-        <f t="shared" ref="AM386:AM407" si="79">R386*COUNT(O386)</f>
+        <f t="shared" ref="AM386:AM449" si="79">R386*COUNT(O386)</f>
         <v>0</v>
       </c>
       <c r="AN386">
-        <f t="shared" ref="AN386:AN407" si="80">S386*COUNT(P386)</f>
+        <f t="shared" ref="AN386:AN449" si="80">S386*COUNT(P386)</f>
         <v>0</v>
       </c>
       <c r="AO386" t="str">
-        <f t="shared" ref="AO386:AO407" si="81">IF(AL386=0,"",T386-AL386)</f>
+        <f t="shared" ref="AO386:AO449" si="81">IF(AL386=0,"",T386-AL386)</f>
         <v/>
       </c>
       <c r="AP386" t="str">
-        <f t="shared" ref="AP386:AP407" si="82">IF(AM386=0,"",U386-AM386)</f>
+        <f t="shared" ref="AP386:AP449" si="82">IF(AM386=0,"",U386-AM386)</f>
         <v/>
       </c>
       <c r="AQ386" t="str">
-        <f t="shared" ref="AQ386:AQ407" si="83">IF(AN386=0,"",V386-AN386)</f>
+        <f t="shared" ref="AQ386:AQ449" si="83">IF(AN386=0,"",V386-AN386)</f>
         <v/>
       </c>
     </row>
@@ -39414,7 +39426,7 @@
       </c>
       <c r="Q388">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>7.9041722145047899E-3</v>
       </c>
       <c r="R388">
         <f t="shared" si="73"/>
@@ -39426,7 +39438,7 @@
       </c>
       <c r="T388">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.0749674211726516E-2</v>
       </c>
       <c r="U388">
         <f t="shared" si="76"/>
@@ -39438,7 +39450,7 @@
       </c>
       <c r="AL388">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>7.9041722145047899E-3</v>
       </c>
       <c r="AM388">
         <f t="shared" si="79"/>
@@ -39448,9 +39460,9 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AO388" t="str">
+      <c r="AO388">
         <f t="shared" si="81"/>
-        <v/>
+        <v>2.8455019972217256E-3</v>
       </c>
       <c r="AP388" t="str">
         <f t="shared" si="82"/>
@@ -41240,7 +41252,7 @@
       </c>
       <c r="Q407">
         <f t="shared" si="72"/>
-        <v>5.56816774537916E-3</v>
+        <v>3.7053732818544127E-3</v>
       </c>
       <c r="R407">
         <f t="shared" si="73"/>
@@ -41264,7 +41276,7 @@
       </c>
       <c r="AL407">
         <f t="shared" si="78"/>
-        <v>5.56816774537916E-3</v>
+        <v>3.7053732818544127E-3</v>
       </c>
       <c r="AM407">
         <f t="shared" si="79"/>
@@ -41276,7 +41288,7 @@
       </c>
       <c r="AO407">
         <f t="shared" si="81"/>
-        <v>-5.56816774537916E-3</v>
+        <v>-3.7053732818544127E-3</v>
       </c>
       <c r="AP407" t="str">
         <f t="shared" si="82"/>
@@ -41327,17 +41339,62 @@
       <c r="M408" t="s">
         <v>49</v>
       </c>
+      <c r="N408">
+        <v>0</v>
+      </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
+      <c r="P408">
+        <v>1</v>
+      </c>
       <c r="Q408">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R408">
         <f t="shared" si="73"/>
-        <v>2.1532518084598523E-2</v>
+        <v>1.9618951855791489E-2</v>
       </c>
       <c r="S408">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T408">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U408">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V408">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL408">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM408">
+        <f t="shared" si="79"/>
+        <v>1.9618951855791489E-2</v>
+      </c>
+      <c r="AN408">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO408" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP408">
+        <f t="shared" si="82"/>
+        <v>-1.9618951855791489E-2</v>
+      </c>
+      <c r="AQ408" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="409" spans="1:43" x14ac:dyDescent="0.35">
@@ -41380,17 +41437,62 @@
       <c r="M409" t="s">
         <v>49</v>
       </c>
+      <c r="N409">
+        <v>1</v>
+      </c>
+      <c r="O409">
+        <v>0</v>
+      </c>
+      <c r="P409">
+        <v>0</v>
+      </c>
       <c r="Q409">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R409">
         <f t="shared" si="73"/>
-        <v>2.1027512045327906E-2</v>
+        <v>1.9101378161936272E-2</v>
       </c>
       <c r="S409">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T409">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U409">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V409">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL409">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM409">
+        <f t="shared" si="79"/>
+        <v>1.9101378161936272E-2</v>
+      </c>
+      <c r="AN409">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO409" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP409">
+        <f t="shared" si="82"/>
+        <v>-1.9101378161936272E-2</v>
+      </c>
+      <c r="AQ409" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="410" spans="1:43" x14ac:dyDescent="0.35">
@@ -41433,17 +41535,62 @@
       <c r="M410" t="s">
         <v>48</v>
       </c>
+      <c r="N410">
+        <v>1</v>
+      </c>
+      <c r="O410">
+        <v>0</v>
+      </c>
+      <c r="P410">
+        <v>0</v>
+      </c>
       <c r="Q410">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R410">
         <f t="shared" si="73"/>
-        <v>7.9685673798003953E-2</v>
+        <v>7.787503178082375E-2</v>
       </c>
       <c r="S410">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T410">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U410">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V410">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL410">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM410">
+        <f t="shared" si="79"/>
+        <v>7.787503178082375E-2</v>
+      </c>
+      <c r="AN410">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO410" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP410">
+        <f t="shared" si="82"/>
+        <v>-7.787503178082375E-2</v>
+      </c>
+      <c r="AQ410" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="411" spans="1:43" x14ac:dyDescent="0.35">
@@ -41477,6 +41624,15 @@
       <c r="J411">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N411">
+        <v>1</v>
+      </c>
+      <c r="O411">
+        <v>0</v>
+      </c>
+      <c r="P411">
+        <v>0</v>
+      </c>
       <c r="Q411">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41488,6 +41644,42 @@
       <c r="S411">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T411">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U411">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V411">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL411">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM411">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN411">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO411" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP411" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ411" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="412" spans="1:43" x14ac:dyDescent="0.35">
@@ -41530,6 +41722,15 @@
       <c r="M412" t="s">
         <v>48</v>
       </c>
+      <c r="N412">
+        <v>0</v>
+      </c>
+      <c r="O412">
+        <v>1</v>
+      </c>
+      <c r="P412">
+        <v>0</v>
+      </c>
       <c r="Q412">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41541,6 +41742,42 @@
       <c r="S412">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T412">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U412">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V412">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL412">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM412">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN412">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO412" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP412" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ412" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="413" spans="1:43" x14ac:dyDescent="0.35">
@@ -41583,6 +41820,15 @@
       <c r="M413" t="s">
         <v>49</v>
       </c>
+      <c r="N413">
+        <v>0</v>
+      </c>
+      <c r="O413">
+        <v>1</v>
+      </c>
+      <c r="P413">
+        <v>0</v>
+      </c>
       <c r="Q413">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41594,6 +41840,42 @@
       <c r="S413">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T413">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U413">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V413">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL413">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM413">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN413">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO413" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP413" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ413" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="414" spans="1:43" x14ac:dyDescent="0.35">
@@ -41636,6 +41918,15 @@
       <c r="M414" t="s">
         <v>49</v>
       </c>
+      <c r="N414">
+        <v>0</v>
+      </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
+      <c r="P414">
+        <v>1</v>
+      </c>
       <c r="Q414">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41647,6 +41938,42 @@
       <c r="S414">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T414">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U414">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V414">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL414">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM414">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN414">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO414" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP414" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ414" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="415" spans="1:43" x14ac:dyDescent="0.35">
@@ -41689,6 +42016,15 @@
       <c r="M415" t="s">
         <v>49</v>
       </c>
+      <c r="N415">
+        <v>0</v>
+      </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
+      <c r="P415">
+        <v>1</v>
+      </c>
       <c r="Q415">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41700,6 +42036,42 @@
       <c r="S415">
         <f t="shared" si="74"/>
         <v>0</v>
+      </c>
+      <c r="T415">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U415">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V415">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL415">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM415">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN415">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO415" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP415" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ415" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
     </row>
     <row r="416" spans="1:43" x14ac:dyDescent="0.35">
@@ -41742,6 +42114,15 @@
       <c r="M416" t="s">
         <v>49</v>
       </c>
+      <c r="N416">
+        <v>1</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="P416">
+        <v>0</v>
+      </c>
       <c r="Q416">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41754,8 +42135,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T416">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U416">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V416">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL416">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM416">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN416">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO416" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP416" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ416" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>464</v>
       </c>
@@ -41786,6 +42203,15 @@
       <c r="J417">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N417">
+        <v>0</v>
+      </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
+      <c r="P417">
+        <v>1</v>
+      </c>
       <c r="Q417">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41798,8 +42224,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T417">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U417">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V417">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL417">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM417">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN417">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO417" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP417" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ417" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>464</v>
       </c>
@@ -41839,6 +42301,15 @@
       <c r="M418" t="s">
         <v>49</v>
       </c>
+      <c r="N418">
+        <v>0</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="P418">
+        <v>1</v>
+      </c>
       <c r="Q418">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41851,8 +42322,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T418">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U418">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V418">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL418">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM418">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN418">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO418" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP418" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ418" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>464</v>
       </c>
@@ -41883,6 +42390,15 @@
       <c r="J419">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N419">
+        <v>0</v>
+      </c>
+      <c r="O419">
+        <v>0</v>
+      </c>
+      <c r="P419">
+        <v>1</v>
+      </c>
       <c r="Q419">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41895,8 +42411,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T419">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U419">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V419">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL419">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM419">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN419">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO419" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP419" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ419" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>464</v>
       </c>
@@ -41927,6 +42479,15 @@
       <c r="J420">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N420">
+        <v>1</v>
+      </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
+      <c r="P420">
+        <v>0</v>
+      </c>
       <c r="Q420">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41939,8 +42500,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T420">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U420">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V420">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL420">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM420">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN420">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO420" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP420" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ420" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>464</v>
       </c>
@@ -41980,6 +42577,15 @@
       <c r="M421" t="s">
         <v>48</v>
       </c>
+      <c r="N421">
+        <v>0</v>
+      </c>
+      <c r="O421">
+        <v>1</v>
+      </c>
+      <c r="P421">
+        <v>0</v>
+      </c>
       <c r="Q421">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -41992,8 +42598,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T421">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U421">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V421">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL421">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM421">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN421">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO421" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP421" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ421" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>464</v>
       </c>
@@ -42033,6 +42675,15 @@
       <c r="M422" t="s">
         <v>48</v>
       </c>
+      <c r="N422">
+        <v>0</v>
+      </c>
+      <c r="O422">
+        <v>0</v>
+      </c>
+      <c r="P422">
+        <v>1</v>
+      </c>
       <c r="Q422">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42045,8 +42696,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T422">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U422">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V422">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL422">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM422">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN422">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO422" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP422" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ422" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>464</v>
       </c>
@@ -42089,8 +42776,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T423">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U423">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V423">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL423">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM423">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN423">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO423" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP423" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ423" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>464</v>
       </c>
@@ -42130,6 +42853,15 @@
       <c r="M424" t="s">
         <v>48</v>
       </c>
+      <c r="N424">
+        <v>1</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="P424">
+        <v>0</v>
+      </c>
       <c r="Q424">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42142,8 +42874,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T424">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U424">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V424">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL424">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM424">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN424">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO424" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP424" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ424" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>464</v>
       </c>
@@ -42183,6 +42951,15 @@
       <c r="M425" t="s">
         <v>48</v>
       </c>
+      <c r="N425">
+        <v>0</v>
+      </c>
+      <c r="O425">
+        <v>0</v>
+      </c>
+      <c r="P425">
+        <v>1</v>
+      </c>
       <c r="Q425">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42195,8 +42972,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T425">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U425">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V425">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL425">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM425">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN425">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO425" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP425" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ425" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>464</v>
       </c>
@@ -42248,8 +43061,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T426">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U426">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V426">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL426">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM426">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN426">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO426" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP426" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ426" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>464</v>
       </c>
@@ -42289,6 +43138,15 @@
       <c r="M427" t="s">
         <v>49</v>
       </c>
+      <c r="N427">
+        <v>0</v>
+      </c>
+      <c r="O427">
+        <v>1</v>
+      </c>
+      <c r="P427">
+        <v>0</v>
+      </c>
       <c r="Q427">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42301,8 +43159,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T427">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U427">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V427">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL427">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM427">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN427">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO427" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP427" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ427" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>464</v>
       </c>
@@ -42333,6 +43227,15 @@
       <c r="J428">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N428">
+        <v>0</v>
+      </c>
+      <c r="O428">
+        <v>0</v>
+      </c>
+      <c r="P428">
+        <v>1</v>
+      </c>
       <c r="Q428">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42345,8 +43248,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T428">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U428">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V428">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL428">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM428">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN428">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO428" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP428" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ428" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>464</v>
       </c>
@@ -42386,6 +43325,15 @@
       <c r="M429" t="s">
         <v>48</v>
       </c>
+      <c r="N429">
+        <v>0</v>
+      </c>
+      <c r="O429">
+        <v>0</v>
+      </c>
+      <c r="P429">
+        <v>1</v>
+      </c>
       <c r="Q429">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42398,8 +43346,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T429">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U429">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V429">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL429">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM429">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN429">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO429" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP429" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ429" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>464</v>
       </c>
@@ -42439,6 +43423,15 @@
       <c r="M430" t="s">
         <v>48</v>
       </c>
+      <c r="N430">
+        <v>0</v>
+      </c>
+      <c r="O430">
+        <v>1</v>
+      </c>
+      <c r="P430">
+        <v>0</v>
+      </c>
       <c r="Q430">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42451,8 +43444,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T430">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U430">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V430">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL430">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM430">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN430">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO430" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP430" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ430" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>464</v>
       </c>
@@ -42492,6 +43521,15 @@
       <c r="M431" t="s">
         <v>48</v>
       </c>
+      <c r="N431">
+        <v>1</v>
+      </c>
+      <c r="O431">
+        <v>0</v>
+      </c>
+      <c r="P431">
+        <v>0</v>
+      </c>
       <c r="Q431">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42504,8 +43542,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T431">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U431">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V431">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL431">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM431">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN431">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO431" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP431" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ431" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>464</v>
       </c>
@@ -42545,6 +43619,15 @@
       <c r="M432" t="s">
         <v>48</v>
       </c>
+      <c r="N432">
+        <v>0</v>
+      </c>
+      <c r="O432">
+        <v>1</v>
+      </c>
+      <c r="P432">
+        <v>0</v>
+      </c>
       <c r="Q432">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42557,8 +43640,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T432">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U432">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V432">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL432">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM432">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN432">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO432" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP432" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ432" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>464</v>
       </c>
@@ -42598,6 +43717,15 @@
       <c r="M433" t="s">
         <v>48</v>
       </c>
+      <c r="N433">
+        <v>0</v>
+      </c>
+      <c r="O433">
+        <v>0</v>
+      </c>
+      <c r="P433">
+        <v>1</v>
+      </c>
       <c r="Q433">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42610,8 +43738,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T433">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U433">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V433">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL433">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM433">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN433">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO433" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP433" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ433" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>464</v>
       </c>
@@ -42654,8 +43818,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T434">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U434">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V434">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL434">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM434">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN434">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO434" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP434" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ434" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>464</v>
       </c>
@@ -42686,6 +43886,15 @@
       <c r="J435">
         <v>1.0009999999999999</v>
       </c>
+      <c r="N435">
+        <v>0</v>
+      </c>
+      <c r="O435">
+        <v>0</v>
+      </c>
+      <c r="P435">
+        <v>1</v>
+      </c>
       <c r="Q435">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42698,8 +43907,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T435">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U435">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V435">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL435">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM435">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN435">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO435" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP435" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ435" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>464</v>
       </c>
@@ -42739,20 +43984,65 @@
       <c r="M436" t="s">
         <v>48</v>
       </c>
+      <c r="N436">
+        <v>1</v>
+      </c>
+      <c r="O436">
+        <v>0</v>
+      </c>
+      <c r="P436">
+        <v>0</v>
+      </c>
       <c r="Q436">
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="R436">
         <f t="shared" si="73"/>
-        <v>0.11350522886719222</v>
+        <v>0.1119179804032619</v>
       </c>
       <c r="S436">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T436">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U436">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V436">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL436">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM436">
+        <f t="shared" si="79"/>
+        <v>0.1119179804032619</v>
+      </c>
+      <c r="AN436">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO436" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP436">
+        <f t="shared" si="82"/>
+        <v>-0.1119179804032619</v>
+      </c>
+      <c r="AQ436" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>464</v>
       </c>
@@ -42792,6 +44082,15 @@
       <c r="M437" t="s">
         <v>48</v>
       </c>
+      <c r="N437">
+        <v>0</v>
+      </c>
+      <c r="O437">
+        <v>1</v>
+      </c>
+      <c r="P437">
+        <v>0</v>
+      </c>
       <c r="Q437">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42804,8 +44103,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T437">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U437">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V437">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL437">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM437">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN437">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO437" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP437" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ437" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>464</v>
       </c>
@@ -42845,6 +44180,15 @@
       <c r="M438" t="s">
         <v>49</v>
       </c>
+      <c r="N438">
+        <v>0</v>
+      </c>
+      <c r="O438">
+        <v>0</v>
+      </c>
+      <c r="P438">
+        <v>1</v>
+      </c>
       <c r="Q438">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42857,8 +44201,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T438">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U438">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V438">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL438">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM438">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN438">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO438" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP438" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ438" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>464</v>
       </c>
@@ -42898,6 +44278,15 @@
       <c r="M439" t="s">
         <v>48</v>
       </c>
+      <c r="N439">
+        <v>0</v>
+      </c>
+      <c r="O439">
+        <v>0</v>
+      </c>
+      <c r="P439">
+        <v>1</v>
+      </c>
       <c r="Q439">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42910,8 +44299,44 @@
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T439">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U439">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V439">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL439">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM439">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN439">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO439" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP439" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ439" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>464</v>
       </c>
@@ -42951,6 +44376,15 @@
       <c r="M440" t="s">
         <v>49</v>
       </c>
+      <c r="N440">
+        <v>0</v>
+      </c>
+      <c r="O440">
+        <v>1</v>
+      </c>
+      <c r="P440">
+        <v>0</v>
+      </c>
       <c r="Q440">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42961,6 +44395,6482 @@
       </c>
       <c r="S440">
         <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T440">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U440">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V440">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL440">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM440">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN440">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO440" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP440" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ440" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>466</v>
+      </c>
+      <c r="B441" t="s">
+        <v>319</v>
+      </c>
+      <c r="C441" t="s">
+        <v>234</v>
+      </c>
+      <c r="D441" t="s">
+        <v>236</v>
+      </c>
+      <c r="E441">
+        <v>0.36358117996368722</v>
+      </c>
+      <c r="F441">
+        <v>0.35064394809437888</v>
+      </c>
+      <c r="G441">
+        <v>0.28577487194193402</v>
+      </c>
+      <c r="H441">
+        <v>2.25</v>
+      </c>
+      <c r="I441">
+        <v>2.4</v>
+      </c>
+      <c r="J441">
+        <v>3.15</v>
+      </c>
+      <c r="K441" t="s">
+        <v>49</v>
+      </c>
+      <c r="L441" t="s">
+        <v>49</v>
+      </c>
+      <c r="M441" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q441">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R441">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S441">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T441">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U441">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V441">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL441">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM441">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN441">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO441" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP441" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ441" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>466</v>
+      </c>
+      <c r="B442" t="s">
+        <v>279</v>
+      </c>
+      <c r="C442" t="s">
+        <v>327</v>
+      </c>
+      <c r="D442" t="s">
+        <v>192</v>
+      </c>
+      <c r="E442">
+        <v>0.1153092891244096</v>
+      </c>
+      <c r="F442">
+        <v>0.73211499544245606</v>
+      </c>
+      <c r="G442">
+        <v>0.15257571543313439</v>
+      </c>
+      <c r="H442">
+        <v>6</v>
+      </c>
+      <c r="I442">
+        <v>1.39</v>
+      </c>
+      <c r="J442">
+        <v>4.8</v>
+      </c>
+      <c r="K442" t="s">
+        <v>48</v>
+      </c>
+      <c r="L442" t="s">
+        <v>48</v>
+      </c>
+      <c r="M442" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q442">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R442">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S442">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T442">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U442">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V442">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL442">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM442">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN442">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO442" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP442" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ442" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>466</v>
+      </c>
+      <c r="B443" t="s">
+        <v>191</v>
+      </c>
+      <c r="C443" t="s">
+        <v>195</v>
+      </c>
+      <c r="D443" t="s">
+        <v>192</v>
+      </c>
+      <c r="E443">
+        <v>0.25268522872102889</v>
+      </c>
+      <c r="F443">
+        <v>0.48312633378728392</v>
+      </c>
+      <c r="G443">
+        <v>0.26418843749168719</v>
+      </c>
+      <c r="H443">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I443">
+        <v>2.5</v>
+      </c>
+      <c r="J443">
+        <v>3.55</v>
+      </c>
+      <c r="K443" t="s">
+        <v>48</v>
+      </c>
+      <c r="L443" t="s">
+        <v>48</v>
+      </c>
+      <c r="M443" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q443">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R443">
+        <f t="shared" si="73"/>
+        <v>7.6303674788240183E-2</v>
+      </c>
+      <c r="S443">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T443">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U443">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V443">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL443">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM443">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN443">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO443" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP443" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ443" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>466</v>
+      </c>
+      <c r="B444" t="s">
+        <v>175</v>
+      </c>
+      <c r="C444" t="s">
+        <v>422</v>
+      </c>
+      <c r="D444" t="s">
+        <v>163</v>
+      </c>
+      <c r="E444">
+        <v>0.35390014651969659</v>
+      </c>
+      <c r="F444">
+        <v>0.34876315020371229</v>
+      </c>
+      <c r="G444">
+        <v>0.29733670327659112</v>
+      </c>
+      <c r="H444">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I444">
+        <v>2.7</v>
+      </c>
+      <c r="J444">
+        <v>3.05</v>
+      </c>
+      <c r="K444" t="s">
+        <v>48</v>
+      </c>
+      <c r="L444" t="s">
+        <v>48</v>
+      </c>
+      <c r="M444" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q444">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R444">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S444">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T444">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U444">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V444">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL444">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM444">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN444">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO444" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP444" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ444" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>466</v>
+      </c>
+      <c r="B445" t="s">
+        <v>390</v>
+      </c>
+      <c r="C445" t="s">
+        <v>70</v>
+      </c>
+      <c r="D445" t="s">
+        <v>69</v>
+      </c>
+      <c r="E445">
+        <v>0.46740800733099552</v>
+      </c>
+      <c r="F445">
+        <v>0.23319231633117579</v>
+      </c>
+      <c r="G445">
+        <v>0.29939967633782882</v>
+      </c>
+      <c r="H445">
+        <v>1.91</v>
+      </c>
+      <c r="I445">
+        <v>3.9</v>
+      </c>
+      <c r="J445">
+        <v>3.15</v>
+      </c>
+      <c r="K445" t="s">
+        <v>49</v>
+      </c>
+      <c r="L445" t="s">
+        <v>49</v>
+      </c>
+      <c r="M445" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q445">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R445">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S445">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T445">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U445">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V445">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL445">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM445">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN445">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO445" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP445" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ445" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>466</v>
+      </c>
+      <c r="B446" t="s">
+        <v>171</v>
+      </c>
+      <c r="C446" t="s">
+        <v>424</v>
+      </c>
+      <c r="D446" t="s">
+        <v>163</v>
+      </c>
+      <c r="E446">
+        <v>0.67281995402757611</v>
+      </c>
+      <c r="F446">
+        <v>0.13108532501793449</v>
+      </c>
+      <c r="G446">
+        <v>0.19609472095448929</v>
+      </c>
+      <c r="H446">
+        <v>1.38</v>
+      </c>
+      <c r="I446">
+        <v>7</v>
+      </c>
+      <c r="J446">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K446" t="s">
+        <v>49</v>
+      </c>
+      <c r="L446" t="s">
+        <v>48</v>
+      </c>
+      <c r="M446" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q446">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R446">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S446">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T446">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U446">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V446">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL446">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM446">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN446">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO446" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP446" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ446" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>466</v>
+      </c>
+      <c r="B447" t="s">
+        <v>448</v>
+      </c>
+      <c r="C447" t="s">
+        <v>149</v>
+      </c>
+      <c r="D447" t="s">
+        <v>59</v>
+      </c>
+      <c r="E447">
+        <v>0.27156541009906671</v>
+      </c>
+      <c r="F447">
+        <v>0.45350863102495881</v>
+      </c>
+      <c r="G447">
+        <v>0.2749259588759746</v>
+      </c>
+      <c r="H447">
+        <v>3.65</v>
+      </c>
+      <c r="I447">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J447">
+        <v>3.25</v>
+      </c>
+      <c r="K447" t="s">
+        <v>48</v>
+      </c>
+      <c r="L447" t="s">
+        <v>48</v>
+      </c>
+      <c r="M447" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q447">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R447">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S447">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T447">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U447">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V447">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL447">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM447">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN447">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO447" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP447" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ447" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>466</v>
+      </c>
+      <c r="B448" t="s">
+        <v>194</v>
+      </c>
+      <c r="C448" t="s">
+        <v>281</v>
+      </c>
+      <c r="D448" t="s">
+        <v>192</v>
+      </c>
+      <c r="E448">
+        <v>0.75412218974300949</v>
+      </c>
+      <c r="F448">
+        <v>9.4797462345631564E-2</v>
+      </c>
+      <c r="G448">
+        <v>0.15108034791135891</v>
+      </c>
+      <c r="H448">
+        <v>1.19</v>
+      </c>
+      <c r="I448">
+        <v>10</v>
+      </c>
+      <c r="J448">
+        <v>6.75</v>
+      </c>
+      <c r="K448" t="s">
+        <v>48</v>
+      </c>
+      <c r="L448" t="s">
+        <v>48</v>
+      </c>
+      <c r="M448" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q448">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R448">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S448">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T448">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U448">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V448">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL448">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM448">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN448">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO448" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP448" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ448" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A449" t="s">
+        <v>466</v>
+      </c>
+      <c r="B449" t="s">
+        <v>436</v>
+      </c>
+      <c r="C449" t="s">
+        <v>318</v>
+      </c>
+      <c r="D449" t="s">
+        <v>236</v>
+      </c>
+      <c r="E449">
+        <v>0.40868532283625919</v>
+      </c>
+      <c r="F449">
+        <v>0.30784584272345938</v>
+      </c>
+      <c r="G449">
+        <v>0.28346883444028131</v>
+      </c>
+      <c r="H449">
+        <v>1.95</v>
+      </c>
+      <c r="I449">
+        <v>2.87</v>
+      </c>
+      <c r="J449">
+        <v>3.15</v>
+      </c>
+      <c r="K449" t="s">
+        <v>49</v>
+      </c>
+      <c r="L449" t="s">
+        <v>49</v>
+      </c>
+      <c r="M449" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q449">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="R449">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="S449">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="T449">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="U449">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="V449">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="AL449">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="AM449">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AN449">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="AO449" t="str">
+        <f t="shared" si="81"/>
+        <v/>
+      </c>
+      <c r="AP449" t="str">
+        <f t="shared" si="82"/>
+        <v/>
+      </c>
+      <c r="AQ449" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A450" t="s">
+        <v>466</v>
+      </c>
+      <c r="B450" t="s">
+        <v>174</v>
+      </c>
+      <c r="C450" t="s">
+        <v>173</v>
+      </c>
+      <c r="D450" t="s">
+        <v>163</v>
+      </c>
+      <c r="E450">
+        <v>0.1644304033993691</v>
+      </c>
+      <c r="F450">
+        <v>0.63970798301602805</v>
+      </c>
+      <c r="G450">
+        <v>0.1958616135846028</v>
+      </c>
+      <c r="H450">
+        <v>6</v>
+      </c>
+      <c r="I450">
+        <v>1.43</v>
+      </c>
+      <c r="J450">
+        <v>4.25</v>
+      </c>
+      <c r="K450" t="s">
+        <v>48</v>
+      </c>
+      <c r="L450" t="s">
+        <v>48</v>
+      </c>
+      <c r="M450" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q450">
+        <f t="shared" ref="Q450:Q513" si="84">IF((($AC$1*E450)^($AB$1))-(1-(($AC$1*E450)^($AB$1)))/(H450-1)&lt;0, 0,(($AC$1*E450)^($AB$1))-(1-(($AC$1*E450)^($AB$1)))/(H450-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R450">
+        <f t="shared" ref="R450:R513" si="85">IF((($AC$1*F450)^($AB$1))-(1-(($AC$1*F450)^($AB$1)))/(I450-1)&lt;0, 0,(($AC$1*F450)^($AB$1))-(1-(($AC$1*F450)^($AB$1)))/(I450-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S450">
+        <f t="shared" ref="S450:S513" si="86">IF((($AC$1*G450)^($AB$1))-(1-(($AC$1*G450)^($AB$1)))/(J450-1)&lt;0, 0,(($AC$1*G450)^($AB$1))-(1-(($AC$1*G450)^($AB$1)))/(J450-1))</f>
+        <v>0</v>
+      </c>
+      <c r="T450">
+        <f t="shared" ref="T450:T465" si="87">H450*Q450*N450</f>
+        <v>0</v>
+      </c>
+      <c r="U450">
+        <f t="shared" ref="U450:U465" si="88">I450*R450*O450</f>
+        <v>0</v>
+      </c>
+      <c r="V450">
+        <f t="shared" ref="V450:V465" si="89">J450*S450*P450</f>
+        <v>0</v>
+      </c>
+      <c r="AL450">
+        <f t="shared" ref="AL450:AL465" si="90">Q450*COUNT(N450)</f>
+        <v>0</v>
+      </c>
+      <c r="AM450">
+        <f t="shared" ref="AM450:AM465" si="91">R450*COUNT(O450)</f>
+        <v>0</v>
+      </c>
+      <c r="AN450">
+        <f t="shared" ref="AN450:AN465" si="92">S450*COUNT(P450)</f>
+        <v>0</v>
+      </c>
+      <c r="AO450" t="str">
+        <f t="shared" ref="AO450:AO465" si="93">IF(AL450=0,"",T450-AL450)</f>
+        <v/>
+      </c>
+      <c r="AP450" t="str">
+        <f t="shared" ref="AP450:AP465" si="94">IF(AM450=0,"",U450-AM450)</f>
+        <v/>
+      </c>
+      <c r="AQ450" t="str">
+        <f t="shared" ref="AQ450:AQ465" si="95">IF(AN450=0,"",V450-AN450)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>466</v>
+      </c>
+      <c r="B451" t="s">
+        <v>303</v>
+      </c>
+      <c r="C451" t="s">
+        <v>160</v>
+      </c>
+      <c r="D451" t="s">
+        <v>69</v>
+      </c>
+      <c r="E451">
+        <v>0.68562060811757053</v>
+      </c>
+      <c r="F451">
+        <v>0.1189488857981877</v>
+      </c>
+      <c r="G451">
+        <v>0.1954305060842417</v>
+      </c>
+      <c r="H451">
+        <v>1.47</v>
+      </c>
+      <c r="I451">
+        <v>6.2</v>
+      </c>
+      <c r="J451">
+        <v>3.9</v>
+      </c>
+      <c r="K451" t="s">
+        <v>49</v>
+      </c>
+      <c r="L451" t="s">
+        <v>49</v>
+      </c>
+      <c r="M451" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q451">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R451">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S451">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T451">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U451">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V451">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL451">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM451">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN451">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO451" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP451" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ451" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>466</v>
+      </c>
+      <c r="B452" t="s">
+        <v>371</v>
+      </c>
+      <c r="C452" t="s">
+        <v>398</v>
+      </c>
+      <c r="D452" t="s">
+        <v>350</v>
+      </c>
+      <c r="E452">
+        <v>0.70817609574495166</v>
+      </c>
+      <c r="F452">
+        <v>9.7289122233182368E-2</v>
+      </c>
+      <c r="G452">
+        <v>0.19453478202186589</v>
+      </c>
+      <c r="H452">
+        <v>1.37</v>
+      </c>
+      <c r="I452">
+        <v>8.5</v>
+      </c>
+      <c r="J452">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K452" t="s">
+        <v>49</v>
+      </c>
+      <c r="L452" t="s">
+        <v>49</v>
+      </c>
+      <c r="M452" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q452">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R452">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S452">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T452">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U452">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V452">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL452">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM452">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN452">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO452" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP452" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ452" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>466</v>
+      </c>
+      <c r="B453" t="s">
+        <v>364</v>
+      </c>
+      <c r="C453" t="s">
+        <v>353</v>
+      </c>
+      <c r="D453" t="s">
+        <v>350</v>
+      </c>
+      <c r="E453">
+        <v>0.42517067517873319</v>
+      </c>
+      <c r="F453">
+        <v>0.2476185684754485</v>
+      </c>
+      <c r="G453">
+        <v>0.32721075634581831</v>
+      </c>
+      <c r="H453">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I453">
+        <v>3.5</v>
+      </c>
+      <c r="J453">
+        <v>2.95</v>
+      </c>
+      <c r="K453" t="s">
+        <v>48</v>
+      </c>
+      <c r="L453" t="s">
+        <v>49</v>
+      </c>
+      <c r="M453" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q453">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R453">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S453">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T453">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U453">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V453">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL453">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM453">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN453">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO453" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP453" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ453" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>467</v>
+      </c>
+      <c r="B454" t="s">
+        <v>198</v>
+      </c>
+      <c r="C454" t="s">
+        <v>255</v>
+      </c>
+      <c r="D454" t="s">
+        <v>41</v>
+      </c>
+      <c r="E454">
+        <v>0.38067136805134638</v>
+      </c>
+      <c r="F454">
+        <v>0.3336152023056857</v>
+      </c>
+      <c r="G454">
+        <v>0.28571342964296792</v>
+      </c>
+      <c r="H454">
+        <v>2.25</v>
+      </c>
+      <c r="I454">
+        <v>3.1</v>
+      </c>
+      <c r="J454">
+        <v>3.15</v>
+      </c>
+      <c r="K454" t="s">
+        <v>48</v>
+      </c>
+      <c r="L454" t="s">
+        <v>48</v>
+      </c>
+      <c r="M454" t="s">
+        <v>48</v>
+      </c>
+      <c r="N454">
+        <v>0</v>
+      </c>
+      <c r="O454">
+        <v>1</v>
+      </c>
+      <c r="P454">
+        <v>0</v>
+      </c>
+      <c r="Q454">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R454">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S454">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T454">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U454">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V454">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL454">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM454">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN454">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO454" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP454" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ454" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>467</v>
+      </c>
+      <c r="B455" t="s">
+        <v>384</v>
+      </c>
+      <c r="C455" t="s">
+        <v>51</v>
+      </c>
+      <c r="D455" t="s">
+        <v>47</v>
+      </c>
+      <c r="E455">
+        <v>0.42871618273454037</v>
+      </c>
+      <c r="F455">
+        <v>0.2769186530237866</v>
+      </c>
+      <c r="G455">
+        <v>0.29436516424167308</v>
+      </c>
+      <c r="H455">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I455">
+        <v>3</v>
+      </c>
+      <c r="J455">
+        <v>3.5</v>
+      </c>
+      <c r="K455" t="s">
+        <v>48</v>
+      </c>
+      <c r="L455" t="s">
+        <v>48</v>
+      </c>
+      <c r="M455" t="s">
+        <v>49</v>
+      </c>
+      <c r="N455">
+        <v>0</v>
+      </c>
+      <c r="O455">
+        <v>0</v>
+      </c>
+      <c r="P455">
+        <v>1</v>
+      </c>
+      <c r="Q455">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R455">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S455">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T455">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U455">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V455">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL455">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM455">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN455">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO455" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP455" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ455" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>467</v>
+      </c>
+      <c r="B456" t="s">
+        <v>52</v>
+      </c>
+      <c r="C456" t="s">
+        <v>456</v>
+      </c>
+      <c r="D456" t="s">
+        <v>47</v>
+      </c>
+      <c r="E456">
+        <v>0.5934355254801571</v>
+      </c>
+      <c r="F456">
+        <v>0.17534800366049691</v>
+      </c>
+      <c r="G456">
+        <v>0.2312164708593458</v>
+      </c>
+      <c r="H456">
+        <v>1.6</v>
+      </c>
+      <c r="I456">
+        <v>5.5</v>
+      </c>
+      <c r="J456">
+        <v>3.9</v>
+      </c>
+      <c r="K456" t="s">
+        <v>49</v>
+      </c>
+      <c r="L456" t="s">
+        <v>48</v>
+      </c>
+      <c r="M456" t="s">
+        <v>48</v>
+      </c>
+      <c r="N456">
+        <v>1</v>
+      </c>
+      <c r="O456">
+        <v>0</v>
+      </c>
+      <c r="P456">
+        <v>0</v>
+      </c>
+      <c r="Q456">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R456">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S456">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T456">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U456">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V456">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL456">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM456">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN456">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO456" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP456" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ456" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>467</v>
+      </c>
+      <c r="B457" t="s">
+        <v>252</v>
+      </c>
+      <c r="C457" t="s">
+        <v>286</v>
+      </c>
+      <c r="D457" t="s">
+        <v>186</v>
+      </c>
+      <c r="E457">
+        <v>0.42333170693192168</v>
+      </c>
+      <c r="F457">
+        <v>0.31353011105444217</v>
+      </c>
+      <c r="G457">
+        <v>0.26313818201363609</v>
+      </c>
+      <c r="H457">
+        <v>2.15</v>
+      </c>
+      <c r="I457">
+        <v>3.05</v>
+      </c>
+      <c r="J457">
+        <v>3.45</v>
+      </c>
+      <c r="K457" t="s">
+        <v>48</v>
+      </c>
+      <c r="L457" t="s">
+        <v>48</v>
+      </c>
+      <c r="M457" t="s">
+        <v>48</v>
+      </c>
+      <c r="N457">
+        <v>1</v>
+      </c>
+      <c r="O457">
+        <v>0</v>
+      </c>
+      <c r="P457">
+        <v>0</v>
+      </c>
+      <c r="Q457">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R457">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S457">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T457">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U457">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V457">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL457">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM457">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN457">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO457" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP457" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ457" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>467</v>
+      </c>
+      <c r="B458" t="s">
+        <v>207</v>
+      </c>
+      <c r="C458" t="s">
+        <v>91</v>
+      </c>
+      <c r="D458" t="s">
+        <v>92</v>
+      </c>
+      <c r="E458">
+        <v>0.77286333608944047</v>
+      </c>
+      <c r="F458">
+        <v>7.8820778881585549E-2</v>
+      </c>
+      <c r="G458">
+        <v>0.148315885028974</v>
+      </c>
+      <c r="H458">
+        <v>1.26</v>
+      </c>
+      <c r="I458">
+        <v>11.5</v>
+      </c>
+      <c r="J458">
+        <v>6</v>
+      </c>
+      <c r="K458" t="s">
+        <v>49</v>
+      </c>
+      <c r="L458" t="s">
+        <v>49</v>
+      </c>
+      <c r="M458" t="s">
+        <v>48</v>
+      </c>
+      <c r="N458">
+        <v>1</v>
+      </c>
+      <c r="O458">
+        <v>0</v>
+      </c>
+      <c r="P458">
+        <v>0</v>
+      </c>
+      <c r="Q458">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R458">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S458">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T458">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U458">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V458">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL458">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM458">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN458">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO458" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP458" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ458" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>467</v>
+      </c>
+      <c r="B459" t="s">
+        <v>151</v>
+      </c>
+      <c r="C459" t="s">
+        <v>102</v>
+      </c>
+      <c r="D459" t="s">
+        <v>59</v>
+      </c>
+      <c r="E459">
+        <v>0.47966385008517198</v>
+      </c>
+      <c r="F459">
+        <v>0.2571475949213286</v>
+      </c>
+      <c r="G459">
+        <v>0.26318855499349941</v>
+      </c>
+      <c r="H459">
+        <v>1.9</v>
+      </c>
+      <c r="I459">
+        <v>3.9</v>
+      </c>
+      <c r="J459">
+        <v>3.4</v>
+      </c>
+      <c r="K459" t="s">
+        <v>48</v>
+      </c>
+      <c r="L459" t="s">
+        <v>48</v>
+      </c>
+      <c r="M459" t="s">
+        <v>49</v>
+      </c>
+      <c r="N459">
+        <v>0</v>
+      </c>
+      <c r="O459">
+        <v>1</v>
+      </c>
+      <c r="P459">
+        <v>0</v>
+      </c>
+      <c r="Q459">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R459">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S459">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T459">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U459">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V459">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL459">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM459">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN459">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO459" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP459" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ459" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>467</v>
+      </c>
+      <c r="B460" t="s">
+        <v>211</v>
+      </c>
+      <c r="C460" t="s">
+        <v>241</v>
+      </c>
+      <c r="D460" t="s">
+        <v>179</v>
+      </c>
+      <c r="E460">
+        <v>0.34909289465347271</v>
+      </c>
+      <c r="F460">
+        <v>0.39049863797936463</v>
+      </c>
+      <c r="G460">
+        <v>0.26040846736716261</v>
+      </c>
+      <c r="H460">
+        <v>2.7</v>
+      </c>
+      <c r="I460">
+        <v>2.4</v>
+      </c>
+      <c r="J460">
+        <v>3.4</v>
+      </c>
+      <c r="K460" t="s">
+        <v>48</v>
+      </c>
+      <c r="L460" t="s">
+        <v>48</v>
+      </c>
+      <c r="M460" t="s">
+        <v>48</v>
+      </c>
+      <c r="N460">
+        <v>1</v>
+      </c>
+      <c r="O460">
+        <v>0</v>
+      </c>
+      <c r="P460">
+        <v>0</v>
+      </c>
+      <c r="Q460">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R460">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S460">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T460">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U460">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V460">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL460">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM460">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN460">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO460" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP460" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ460" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>467</v>
+      </c>
+      <c r="B461" t="s">
+        <v>82</v>
+      </c>
+      <c r="C461" t="s">
+        <v>240</v>
+      </c>
+      <c r="D461" t="s">
+        <v>84</v>
+      </c>
+      <c r="E461">
+        <v>0.51317933584115683</v>
+      </c>
+      <c r="F461">
+        <v>0.2300372831005523</v>
+      </c>
+      <c r="G461">
+        <v>0.25678338105829079</v>
+      </c>
+      <c r="H461">
+        <v>1.82</v>
+      </c>
+      <c r="I461">
+        <v>4.45</v>
+      </c>
+      <c r="J461">
+        <v>3.5</v>
+      </c>
+      <c r="K461" t="s">
+        <v>49</v>
+      </c>
+      <c r="L461" t="s">
+        <v>48</v>
+      </c>
+      <c r="M461" t="s">
+        <v>48</v>
+      </c>
+      <c r="N461">
+        <v>0</v>
+      </c>
+      <c r="O461">
+        <v>0</v>
+      </c>
+      <c r="P461">
+        <v>1</v>
+      </c>
+      <c r="Q461">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R461">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S461">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T461">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U461">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V461">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL461">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM461">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN461">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO461" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP461" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ461" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>467</v>
+      </c>
+      <c r="B462" t="s">
+        <v>392</v>
+      </c>
+      <c r="C462" t="s">
+        <v>458</v>
+      </c>
+      <c r="D462" t="s">
+        <v>168</v>
+      </c>
+      <c r="E462">
+        <v>0.30755764736280089</v>
+      </c>
+      <c r="F462">
+        <v>0.37373460411798748</v>
+      </c>
+      <c r="G462">
+        <v>0.31870774851921158</v>
+      </c>
+      <c r="H462">
+        <v>2.9</v>
+      </c>
+      <c r="I462">
+        <v>2.65</v>
+      </c>
+      <c r="J462">
+        <v>2.9</v>
+      </c>
+      <c r="K462" t="s">
+        <v>48</v>
+      </c>
+      <c r="L462" t="s">
+        <v>48</v>
+      </c>
+      <c r="M462" t="s">
+        <v>49</v>
+      </c>
+      <c r="N462">
+        <v>0</v>
+      </c>
+      <c r="O462">
+        <v>0</v>
+      </c>
+      <c r="P462">
+        <v>1</v>
+      </c>
+      <c r="Q462">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R462">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S462">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T462">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U462">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V462">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL462">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM462">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN462">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO462" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP462" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ462" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>467</v>
+      </c>
+      <c r="B463" t="s">
+        <v>344</v>
+      </c>
+      <c r="C463" t="s">
+        <v>206</v>
+      </c>
+      <c r="D463" t="s">
+        <v>66</v>
+      </c>
+      <c r="E463">
+        <v>0.66161334636103764</v>
+      </c>
+      <c r="F463">
+        <v>0.1241819148363628</v>
+      </c>
+      <c r="G463">
+        <v>0.21420473880259969</v>
+      </c>
+      <c r="H463">
+        <v>1.5</v>
+      </c>
+      <c r="I463">
+        <v>7.75</v>
+      </c>
+      <c r="J463">
+        <v>4.05</v>
+      </c>
+      <c r="K463" t="s">
+        <v>49</v>
+      </c>
+      <c r="L463" t="s">
+        <v>48</v>
+      </c>
+      <c r="M463" t="s">
+        <v>48</v>
+      </c>
+      <c r="N463">
+        <v>1</v>
+      </c>
+      <c r="O463">
+        <v>0</v>
+      </c>
+      <c r="P463">
+        <v>0</v>
+      </c>
+      <c r="Q463">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R463">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S463">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T463">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U463">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V463">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL463">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM463">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN463">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO463" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP463" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ463" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>467</v>
+      </c>
+      <c r="B464" t="s">
+        <v>314</v>
+      </c>
+      <c r="C464" t="s">
+        <v>159</v>
+      </c>
+      <c r="D464" t="s">
+        <v>69</v>
+      </c>
+      <c r="E464">
+        <v>0.61925976756048229</v>
+      </c>
+      <c r="F464">
+        <v>0.16190191584315611</v>
+      </c>
+      <c r="G464">
+        <v>0.21883831659636149</v>
+      </c>
+      <c r="H464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J464">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N464">
+        <v>0</v>
+      </c>
+      <c r="O464">
+        <v>1</v>
+      </c>
+      <c r="P464">
+        <v>0</v>
+      </c>
+      <c r="Q464">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R464">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S464">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T464">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U464">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V464">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL464">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM464">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AN464">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO464" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP464" t="str">
+        <f t="shared" si="94"/>
+        <v/>
+      </c>
+      <c r="AQ464" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A465" t="s">
+        <v>467</v>
+      </c>
+      <c r="B465" t="s">
+        <v>183</v>
+      </c>
+      <c r="C465" t="s">
+        <v>379</v>
+      </c>
+      <c r="D465" t="s">
+        <v>28</v>
+      </c>
+      <c r="E465">
+        <v>0.3167044798496455</v>
+      </c>
+      <c r="F465">
+        <v>0.38463145940081639</v>
+      </c>
+      <c r="G465">
+        <v>0.29866406074953811</v>
+      </c>
+      <c r="H465">
+        <v>2.5</v>
+      </c>
+      <c r="I465">
+        <v>3.15</v>
+      </c>
+      <c r="J465">
+        <v>3</v>
+      </c>
+      <c r="K465" t="s">
+        <v>48</v>
+      </c>
+      <c r="L465" t="s">
+        <v>48</v>
+      </c>
+      <c r="M465" t="s">
+        <v>49</v>
+      </c>
+      <c r="N465">
+        <v>0</v>
+      </c>
+      <c r="O465">
+        <v>0</v>
+      </c>
+      <c r="P465">
+        <v>1</v>
+      </c>
+      <c r="Q465">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R465">
+        <f t="shared" si="85"/>
+        <v>3.8446861312668668E-2</v>
+      </c>
+      <c r="S465">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="T465">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="U465">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="V465">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="AL465">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="AM465">
+        <f t="shared" si="91"/>
+        <v>3.8446861312668668E-2</v>
+      </c>
+      <c r="AN465">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AO465" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="AP465">
+        <f t="shared" si="94"/>
+        <v>-3.8446861312668668E-2</v>
+      </c>
+      <c r="AQ465" t="str">
+        <f t="shared" si="95"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A466" t="s">
+        <v>468</v>
+      </c>
+      <c r="B466" t="s">
+        <v>40</v>
+      </c>
+      <c r="C466" t="s">
+        <v>256</v>
+      </c>
+      <c r="D466" t="s">
+        <v>41</v>
+      </c>
+      <c r="E466">
+        <v>0.39822063216296938</v>
+      </c>
+      <c r="F466">
+        <v>0.31280273479267268</v>
+      </c>
+      <c r="G466">
+        <v>0.28897663304435778</v>
+      </c>
+      <c r="H466">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I466">
+        <v>3</v>
+      </c>
+      <c r="J466">
+        <v>3.15</v>
+      </c>
+      <c r="K466" t="s">
+        <v>49</v>
+      </c>
+      <c r="L466" t="s">
+        <v>48</v>
+      </c>
+      <c r="M466" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q466">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R466">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S466">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467" t="s">
+        <v>185</v>
+      </c>
+      <c r="C467" t="s">
+        <v>214</v>
+      </c>
+      <c r="D467" t="s">
+        <v>186</v>
+      </c>
+      <c r="E467">
+        <v>0.48066922697115899</v>
+      </c>
+      <c r="F467">
+        <v>0.25239460174416922</v>
+      </c>
+      <c r="G467">
+        <v>0.26693617128467201</v>
+      </c>
+      <c r="H467">
+        <v>2.1</v>
+      </c>
+      <c r="I467">
+        <v>3.35</v>
+      </c>
+      <c r="J467">
+        <v>3.25</v>
+      </c>
+      <c r="K467" t="s">
+        <v>48</v>
+      </c>
+      <c r="L467" t="s">
+        <v>48</v>
+      </c>
+      <c r="M467" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q467">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R467">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S467">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" t="s">
+        <v>45</v>
+      </c>
+      <c r="C468" t="s">
+        <v>463</v>
+      </c>
+      <c r="D468" t="s">
+        <v>47</v>
+      </c>
+      <c r="E468">
+        <v>0.38408068592236322</v>
+      </c>
+      <c r="F468">
+        <v>0.3144018288436552</v>
+      </c>
+      <c r="G468">
+        <v>0.30151748523398159</v>
+      </c>
+      <c r="H468">
+        <v>2.9</v>
+      </c>
+      <c r="I468">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J468">
+        <v>3.3</v>
+      </c>
+      <c r="K468" t="s">
+        <v>48</v>
+      </c>
+      <c r="L468" t="s">
+        <v>48</v>
+      </c>
+      <c r="M468" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q468">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R468">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S468">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+      <c r="B469" t="s">
+        <v>265</v>
+      </c>
+      <c r="C469" t="s">
+        <v>268</v>
+      </c>
+      <c r="D469" t="s">
+        <v>47</v>
+      </c>
+      <c r="E469">
+        <v>0.35328461573466308</v>
+      </c>
+      <c r="F469">
+        <v>0.36068870016990928</v>
+      </c>
+      <c r="G469">
+        <v>0.28602668409542759</v>
+      </c>
+      <c r="H469">
+        <v>3.05</v>
+      </c>
+      <c r="I469">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J469">
+        <v>3.3</v>
+      </c>
+      <c r="K469" t="s">
+        <v>48</v>
+      </c>
+      <c r="L469" t="s">
+        <v>48</v>
+      </c>
+      <c r="M469" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q469">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R469">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S469">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>468</v>
+      </c>
+      <c r="B470" t="s">
+        <v>269</v>
+      </c>
+      <c r="C470" t="s">
+        <v>440</v>
+      </c>
+      <c r="D470" t="s">
+        <v>47</v>
+      </c>
+      <c r="E470">
+        <v>0.49367618044961942</v>
+      </c>
+      <c r="F470">
+        <v>0.2323414801903127</v>
+      </c>
+      <c r="G470">
+        <v>0.27398233936006788</v>
+      </c>
+      <c r="H470">
+        <v>1.8</v>
+      </c>
+      <c r="I470">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J470">
+        <v>3.5</v>
+      </c>
+      <c r="K470" t="s">
+        <v>48</v>
+      </c>
+      <c r="L470" t="s">
+        <v>48</v>
+      </c>
+      <c r="M470" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q470">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R470">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S470">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>468</v>
+      </c>
+      <c r="B471" t="s">
+        <v>50</v>
+      </c>
+      <c r="C471" t="s">
+        <v>455</v>
+      </c>
+      <c r="D471" t="s">
+        <v>47</v>
+      </c>
+      <c r="E471">
+        <v>0.46349680736829191</v>
+      </c>
+      <c r="F471">
+        <v>0.26248591461261278</v>
+      </c>
+      <c r="G471">
+        <v>0.27401727801909542</v>
+      </c>
+      <c r="H471">
+        <v>1.9</v>
+      </c>
+      <c r="I471">
+        <v>3.65</v>
+      </c>
+      <c r="J471">
+        <v>3.6</v>
+      </c>
+      <c r="K471" t="s">
+        <v>49</v>
+      </c>
+      <c r="L471" t="s">
+        <v>48</v>
+      </c>
+      <c r="M471" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q471">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R471">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S471">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>468</v>
+      </c>
+      <c r="B472" t="s">
+        <v>164</v>
+      </c>
+      <c r="C472" t="s">
+        <v>409</v>
+      </c>
+      <c r="D472" t="s">
+        <v>59</v>
+      </c>
+      <c r="E472">
+        <v>0.33731489349310012</v>
+      </c>
+      <c r="F472">
+        <v>0.38434309650946452</v>
+      </c>
+      <c r="G472">
+        <v>0.27834200999743541</v>
+      </c>
+      <c r="H472">
+        <v>3.3</v>
+      </c>
+      <c r="I472">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J472">
+        <v>3.15</v>
+      </c>
+      <c r="K472" t="s">
+        <v>48</v>
+      </c>
+      <c r="L472" t="s">
+        <v>48</v>
+      </c>
+      <c r="M472" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q472">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R472">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S472">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>468</v>
+      </c>
+      <c r="B473" t="s">
+        <v>299</v>
+      </c>
+      <c r="C473" t="s">
+        <v>334</v>
+      </c>
+      <c r="D473" t="s">
+        <v>56</v>
+      </c>
+      <c r="E473">
+        <v>0.26636527229191509</v>
+      </c>
+      <c r="F473">
+        <v>0.48711949357210282</v>
+      </c>
+      <c r="G473">
+        <v>0.246515234135982</v>
+      </c>
+      <c r="H473">
+        <v>3.65</v>
+      </c>
+      <c r="I473">
+        <v>1.98</v>
+      </c>
+      <c r="J473">
+        <v>3.8</v>
+      </c>
+      <c r="K473" t="s">
+        <v>48</v>
+      </c>
+      <c r="L473" t="s">
+        <v>49</v>
+      </c>
+      <c r="M473" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q473">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R473">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S473">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>468</v>
+      </c>
+      <c r="B474" t="s">
+        <v>332</v>
+      </c>
+      <c r="C474" t="s">
+        <v>418</v>
+      </c>
+      <c r="D474" t="s">
+        <v>41</v>
+      </c>
+      <c r="E474">
+        <v>0.61765314910497515</v>
+      </c>
+      <c r="F474">
+        <v>0.1579630283824891</v>
+      </c>
+      <c r="G474">
+        <v>0.2243838225125358</v>
+      </c>
+      <c r="H474">
+        <v>1.55</v>
+      </c>
+      <c r="I474">
+        <v>5.75</v>
+      </c>
+      <c r="J474">
+        <v>4.05</v>
+      </c>
+      <c r="K474" t="s">
+        <v>49</v>
+      </c>
+      <c r="L474" t="s">
+        <v>48</v>
+      </c>
+      <c r="M474" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q474">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R474">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S474">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>468</v>
+      </c>
+      <c r="B475" t="s">
+        <v>80</v>
+      </c>
+      <c r="C475" t="s">
+        <v>369</v>
+      </c>
+      <c r="D475" t="s">
+        <v>69</v>
+      </c>
+      <c r="E475">
+        <v>0.38765725205966978</v>
+      </c>
+      <c r="F475">
+        <v>0.31534321137528332</v>
+      </c>
+      <c r="G475">
+        <v>0.29699953656504691</v>
+      </c>
+      <c r="H475">
+        <v>2.62</v>
+      </c>
+      <c r="I475">
+        <v>2.77</v>
+      </c>
+      <c r="J475">
+        <v>2.8</v>
+      </c>
+      <c r="K475" t="s">
+        <v>49</v>
+      </c>
+      <c r="L475" t="s">
+        <v>49</v>
+      </c>
+      <c r="M475" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q475">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R475">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S475">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>468</v>
+      </c>
+      <c r="B476" t="s">
+        <v>304</v>
+      </c>
+      <c r="C476" t="s">
+        <v>465</v>
+      </c>
+      <c r="D476" t="s">
+        <v>69</v>
+      </c>
+      <c r="E476">
+        <v>0.33010345377250749</v>
+      </c>
+      <c r="F476">
+        <v>0.37428006943121439</v>
+      </c>
+      <c r="G476">
+        <v>0.29561647679627789</v>
+      </c>
+      <c r="H476">
+        <v>3.15</v>
+      </c>
+      <c r="I476">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J476">
+        <v>3.05</v>
+      </c>
+      <c r="K476" t="s">
+        <v>49</v>
+      </c>
+      <c r="L476" t="s">
+        <v>49</v>
+      </c>
+      <c r="M476" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q476">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R476">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S476">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>468</v>
+      </c>
+      <c r="B477" t="s">
+        <v>370</v>
+      </c>
+      <c r="C477" t="s">
+        <v>81</v>
+      </c>
+      <c r="D477" t="s">
+        <v>69</v>
+      </c>
+      <c r="E477">
+        <v>0.43652219741588971</v>
+      </c>
+      <c r="F477">
+        <v>0.28042347427235248</v>
+      </c>
+      <c r="G477">
+        <v>0.28305432831175792</v>
+      </c>
+      <c r="H477">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I477">
+        <v>3.3</v>
+      </c>
+      <c r="J477">
+        <v>3.15</v>
+      </c>
+      <c r="K477" t="s">
+        <v>49</v>
+      </c>
+      <c r="L477" t="s">
+        <v>49</v>
+      </c>
+      <c r="M477" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q477">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R477">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S477">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>468</v>
+      </c>
+      <c r="B478" t="s">
+        <v>343</v>
+      </c>
+      <c r="C478" t="s">
+        <v>322</v>
+      </c>
+      <c r="D478" t="s">
+        <v>66</v>
+      </c>
+      <c r="E478">
+        <v>0.20386668505234651</v>
+      </c>
+      <c r="F478">
+        <v>0.56271056582012668</v>
+      </c>
+      <c r="G478">
+        <v>0.23342274912752681</v>
+      </c>
+      <c r="H478">
+        <v>6</v>
+      </c>
+      <c r="I478">
+        <v>1.7</v>
+      </c>
+      <c r="J478">
+        <v>3.55</v>
+      </c>
+      <c r="K478" t="s">
+        <v>48</v>
+      </c>
+      <c r="L478" t="s">
+        <v>49</v>
+      </c>
+      <c r="M478" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q478">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R478">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S478">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>468</v>
+      </c>
+      <c r="B479" t="s">
+        <v>324</v>
+      </c>
+      <c r="C479" t="s">
+        <v>232</v>
+      </c>
+      <c r="D479" t="s">
+        <v>186</v>
+      </c>
+      <c r="E479">
+        <v>0.57571734436716304</v>
+      </c>
+      <c r="F479">
+        <v>0.19537355735952</v>
+      </c>
+      <c r="G479">
+        <v>0.2289090982733169</v>
+      </c>
+      <c r="H479">
+        <v>1.78</v>
+      </c>
+      <c r="I479">
+        <v>4.2</v>
+      </c>
+      <c r="J479">
+        <v>3.65</v>
+      </c>
+      <c r="K479" t="s">
+        <v>49</v>
+      </c>
+      <c r="L479" t="s">
+        <v>48</v>
+      </c>
+      <c r="M479" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q479">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R479">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S479">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:43" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>468</v>
+      </c>
+      <c r="B480" t="s">
+        <v>89</v>
+      </c>
+      <c r="C480" t="s">
+        <v>215</v>
+      </c>
+      <c r="D480" t="s">
+        <v>87</v>
+      </c>
+      <c r="E480">
+        <v>0.43659695098616191</v>
+      </c>
+      <c r="F480">
+        <v>0.28834528529317283</v>
+      </c>
+      <c r="G480">
+        <v>0.27505776372066548</v>
+      </c>
+      <c r="H480">
+        <v>1.83</v>
+      </c>
+      <c r="I480">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J480">
+        <v>3.35</v>
+      </c>
+      <c r="K480" t="s">
+        <v>48</v>
+      </c>
+      <c r="L480" t="s">
+        <v>48</v>
+      </c>
+      <c r="M480" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q480">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R480">
+        <f t="shared" si="85"/>
+        <v>8.5187070699036249E-3</v>
+      </c>
+      <c r="S480">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>468</v>
+      </c>
+      <c r="B481" t="s">
+        <v>469</v>
+      </c>
+      <c r="C481" t="s">
+        <v>298</v>
+      </c>
+      <c r="D481" t="s">
+        <v>84</v>
+      </c>
+      <c r="E481">
+        <v>0.42241931333226229</v>
+      </c>
+      <c r="F481">
+        <v>0.29620585491465068</v>
+      </c>
+      <c r="G481">
+        <v>0.28137483175308708</v>
+      </c>
+      <c r="H481">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I481">
+        <v>3.85</v>
+      </c>
+      <c r="J481">
+        <v>3.25</v>
+      </c>
+      <c r="K481" t="s">
+        <v>48</v>
+      </c>
+      <c r="L481" t="s">
+        <v>48</v>
+      </c>
+      <c r="M481" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q481">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R481">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S481">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>468</v>
+      </c>
+      <c r="B482" t="s">
+        <v>444</v>
+      </c>
+      <c r="C482" t="s">
+        <v>94</v>
+      </c>
+      <c r="D482" t="s">
+        <v>92</v>
+      </c>
+      <c r="E482">
+        <v>0.43051183927922548</v>
+      </c>
+      <c r="F482">
+        <v>0.30263843178324379</v>
+      </c>
+      <c r="G482">
+        <v>0.26684972893753078</v>
+      </c>
+      <c r="H482">
+        <v>2.15</v>
+      </c>
+      <c r="I482">
+        <v>3.2</v>
+      </c>
+      <c r="J482">
+        <v>3.65</v>
+      </c>
+      <c r="K482" t="s">
+        <v>48</v>
+      </c>
+      <c r="L482" t="s">
+        <v>48</v>
+      </c>
+      <c r="M482" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q482">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R482">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S482">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>468</v>
+      </c>
+      <c r="B483" t="s">
+        <v>90</v>
+      </c>
+      <c r="C483" t="s">
+        <v>98</v>
+      </c>
+      <c r="D483" t="s">
+        <v>92</v>
+      </c>
+      <c r="E483">
+        <v>0.66047585186856983</v>
+      </c>
+      <c r="F483">
+        <v>0.14210515997607329</v>
+      </c>
+      <c r="G483">
+        <v>0.19741898815535691</v>
+      </c>
+      <c r="H483">
+        <v>1.5</v>
+      </c>
+      <c r="I483">
+        <v>6</v>
+      </c>
+      <c r="J483">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K483" t="s">
+        <v>49</v>
+      </c>
+      <c r="L483" t="s">
+        <v>48</v>
+      </c>
+      <c r="M483" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q483">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R483">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S483">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>468</v>
+      </c>
+      <c r="B484" t="s">
+        <v>208</v>
+      </c>
+      <c r="C484" t="s">
+        <v>445</v>
+      </c>
+      <c r="D484" t="s">
+        <v>92</v>
+      </c>
+      <c r="E484">
+        <v>0.62513843442921357</v>
+      </c>
+      <c r="F484">
+        <v>0.16349480410443959</v>
+      </c>
+      <c r="G484">
+        <v>0.21136676146634681</v>
+      </c>
+      <c r="H484">
+        <v>1.47</v>
+      </c>
+      <c r="I484">
+        <v>6.5</v>
+      </c>
+      <c r="J484">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K484" t="s">
+        <v>49</v>
+      </c>
+      <c r="L484" t="s">
+        <v>48</v>
+      </c>
+      <c r="M484" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q484">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R484">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S484">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>468</v>
+      </c>
+      <c r="B485" t="s">
+        <v>99</v>
+      </c>
+      <c r="C485" t="s">
+        <v>336</v>
+      </c>
+      <c r="D485" t="s">
+        <v>92</v>
+      </c>
+      <c r="E485">
+        <v>0.37165133042132131</v>
+      </c>
+      <c r="F485">
+        <v>0.35306367961583668</v>
+      </c>
+      <c r="G485">
+        <v>0.27528498996284201</v>
+      </c>
+      <c r="H485">
+        <v>2.85</v>
+      </c>
+      <c r="I485">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J485">
+        <v>3.15</v>
+      </c>
+      <c r="K485" t="s">
+        <v>48</v>
+      </c>
+      <c r="L485" t="s">
+        <v>48</v>
+      </c>
+      <c r="M485" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q485">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R485">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S485">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>468</v>
+      </c>
+      <c r="B486" t="s">
+        <v>125</v>
+      </c>
+      <c r="C486" t="s">
+        <v>112</v>
+      </c>
+      <c r="D486" t="s">
+        <v>74</v>
+      </c>
+      <c r="E486">
+        <v>0.43809721251956241</v>
+      </c>
+      <c r="F486">
+        <v>0.30453587900285151</v>
+      </c>
+      <c r="G486">
+        <v>0.25736690847758598</v>
+      </c>
+      <c r="H486">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I486">
+        <v>3.1</v>
+      </c>
+      <c r="J486">
+        <v>3.6</v>
+      </c>
+      <c r="K486" t="s">
+        <v>48</v>
+      </c>
+      <c r="L486" t="s">
+        <v>48</v>
+      </c>
+      <c r="M486" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q486">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R486">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S486">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>468</v>
+      </c>
+      <c r="B487" t="s">
+        <v>422</v>
+      </c>
+      <c r="C487" t="s">
+        <v>424</v>
+      </c>
+      <c r="D487" t="s">
+        <v>163</v>
+      </c>
+      <c r="E487">
+        <v>0.51807355638399832</v>
+      </c>
+      <c r="F487">
+        <v>0.23111641197349689</v>
+      </c>
+      <c r="G487">
+        <v>0.25081003164250493</v>
+      </c>
+      <c r="H487">
+        <v>1.74</v>
+      </c>
+      <c r="I487">
+        <v>4.55</v>
+      </c>
+      <c r="J487">
+        <v>3.35</v>
+      </c>
+      <c r="K487" t="s">
+        <v>48</v>
+      </c>
+      <c r="L487" t="s">
+        <v>48</v>
+      </c>
+      <c r="M487" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q487">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R487">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S487">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>468</v>
+      </c>
+      <c r="B488" t="s">
+        <v>117</v>
+      </c>
+      <c r="C488" t="s">
+        <v>154</v>
+      </c>
+      <c r="D488" t="s">
+        <v>74</v>
+      </c>
+      <c r="E488">
+        <v>0.49575238832378121</v>
+      </c>
+      <c r="F488">
+        <v>0.25202458854170912</v>
+      </c>
+      <c r="G488">
+        <v>0.25222302313450973</v>
+      </c>
+      <c r="H488">
+        <v>1.83</v>
+      </c>
+      <c r="I488">
+        <v>3.9</v>
+      </c>
+      <c r="J488">
+        <v>3.45</v>
+      </c>
+      <c r="K488" t="s">
+        <v>48</v>
+      </c>
+      <c r="L488" t="s">
+        <v>48</v>
+      </c>
+      <c r="M488" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q488">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R488">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S488">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>468</v>
+      </c>
+      <c r="B489" t="s">
+        <v>153</v>
+      </c>
+      <c r="C489" t="s">
+        <v>140</v>
+      </c>
+      <c r="D489" t="s">
+        <v>74</v>
+      </c>
+      <c r="E489">
+        <v>0.40056663150777311</v>
+      </c>
+      <c r="F489">
+        <v>0.31908319535565921</v>
+      </c>
+      <c r="G489">
+        <v>0.28035017313656779</v>
+      </c>
+      <c r="H489">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I489">
+        <v>2.6</v>
+      </c>
+      <c r="J489">
+        <v>3.25</v>
+      </c>
+      <c r="K489" t="s">
+        <v>48</v>
+      </c>
+      <c r="L489" t="s">
+        <v>48</v>
+      </c>
+      <c r="M489" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q489">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R489">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S489">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>468</v>
+      </c>
+      <c r="B490" t="s">
+        <v>113</v>
+      </c>
+      <c r="C490" t="s">
+        <v>124</v>
+      </c>
+      <c r="D490" t="s">
+        <v>77</v>
+      </c>
+      <c r="E490">
+        <v>0.54458215655787767</v>
+      </c>
+      <c r="F490">
+        <v>0.20386774962359019</v>
+      </c>
+      <c r="G490">
+        <v>0.25155009381853222</v>
+      </c>
+      <c r="H490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J490">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q490">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R490">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S490">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>468</v>
+      </c>
+      <c r="B491" t="s">
+        <v>57</v>
+      </c>
+      <c r="C491" t="s">
+        <v>170</v>
+      </c>
+      <c r="D491" t="s">
+        <v>59</v>
+      </c>
+      <c r="E491">
+        <v>0.50518417612206989</v>
+      </c>
+      <c r="F491">
+        <v>0.24001401921624099</v>
+      </c>
+      <c r="G491">
+        <v>0.25480180466168922</v>
+      </c>
+      <c r="H491">
+        <v>1.75</v>
+      </c>
+      <c r="I491">
+        <v>4.8</v>
+      </c>
+      <c r="J491">
+        <v>3.35</v>
+      </c>
+      <c r="K491" t="s">
+        <v>49</v>
+      </c>
+      <c r="L491" t="s">
+        <v>48</v>
+      </c>
+      <c r="M491" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q491">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R491">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S491">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>468</v>
+      </c>
+      <c r="B492" t="s">
+        <v>107</v>
+      </c>
+      <c r="C492" t="s">
+        <v>447</v>
+      </c>
+      <c r="D492" t="s">
+        <v>74</v>
+      </c>
+      <c r="E492">
+        <v>0.36140460909825117</v>
+      </c>
+      <c r="F492">
+        <v>0.37440378359594301</v>
+      </c>
+      <c r="G492">
+        <v>0.26419160730580582</v>
+      </c>
+      <c r="H492">
+        <v>2.75</v>
+      </c>
+      <c r="I492">
+        <v>2.5</v>
+      </c>
+      <c r="J492">
+        <v>3.15</v>
+      </c>
+      <c r="K492" t="s">
+        <v>48</v>
+      </c>
+      <c r="L492" t="s">
+        <v>48</v>
+      </c>
+      <c r="M492" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q492">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R492">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S492">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>468</v>
+      </c>
+      <c r="B493" t="s">
+        <v>448</v>
+      </c>
+      <c r="C493" t="s">
+        <v>148</v>
+      </c>
+      <c r="D493" t="s">
+        <v>59</v>
+      </c>
+      <c r="E493">
+        <v>0.40494590175001682</v>
+      </c>
+      <c r="F493">
+        <v>0.3064936091753544</v>
+      </c>
+      <c r="G493">
+        <v>0.28856048907462878</v>
+      </c>
+      <c r="H493">
+        <v>2.25</v>
+      </c>
+      <c r="I493">
+        <v>3.35</v>
+      </c>
+      <c r="J493">
+        <v>3</v>
+      </c>
+      <c r="K493" t="s">
+        <v>48</v>
+      </c>
+      <c r="L493" t="s">
+        <v>48</v>
+      </c>
+      <c r="M493" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q493">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R493">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S493">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>468</v>
+      </c>
+      <c r="B494" t="s">
+        <v>137</v>
+      </c>
+      <c r="C494" t="s">
+        <v>152</v>
+      </c>
+      <c r="D494" t="s">
+        <v>59</v>
+      </c>
+      <c r="E494">
+        <v>0.35823094048842052</v>
+      </c>
+      <c r="F494">
+        <v>0.34398330378257241</v>
+      </c>
+      <c r="G494">
+        <v>0.29778575572900701</v>
+      </c>
+      <c r="H494">
+        <v>2.65</v>
+      </c>
+      <c r="I494">
+        <v>2.85</v>
+      </c>
+      <c r="J494">
+        <v>2.9</v>
+      </c>
+      <c r="K494" t="s">
+        <v>48</v>
+      </c>
+      <c r="L494" t="s">
+        <v>48</v>
+      </c>
+      <c r="M494" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q494">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R494">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S494">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>468</v>
+      </c>
+      <c r="B495" t="s">
+        <v>72</v>
+      </c>
+      <c r="C495" t="s">
+        <v>118</v>
+      </c>
+      <c r="D495" t="s">
+        <v>74</v>
+      </c>
+      <c r="E495">
+        <v>0.52741044259017522</v>
+      </c>
+      <c r="F495">
+        <v>0.23013451970174981</v>
+      </c>
+      <c r="G495">
+        <v>0.24245503770807511</v>
+      </c>
+      <c r="H495">
+        <v>1.86</v>
+      </c>
+      <c r="I495">
+        <v>4.05</v>
+      </c>
+      <c r="J495">
+        <v>3.3</v>
+      </c>
+      <c r="K495" t="s">
+        <v>48</v>
+      </c>
+      <c r="L495" t="s">
+        <v>48</v>
+      </c>
+      <c r="M495" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q495">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R495">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S495">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>468</v>
+      </c>
+      <c r="B496" t="s">
+        <v>111</v>
+      </c>
+      <c r="C496" t="s">
+        <v>110</v>
+      </c>
+      <c r="D496" t="s">
+        <v>74</v>
+      </c>
+      <c r="E496">
+        <v>0.47535719124588899</v>
+      </c>
+      <c r="F496">
+        <v>0.27128644623843229</v>
+      </c>
+      <c r="G496">
+        <v>0.25335636251567872</v>
+      </c>
+      <c r="H496">
+        <v>2</v>
+      </c>
+      <c r="I496">
+        <v>3.5</v>
+      </c>
+      <c r="J496">
+        <v>3.4</v>
+      </c>
+      <c r="K496" t="s">
+        <v>48</v>
+      </c>
+      <c r="L496" t="s">
+        <v>48</v>
+      </c>
+      <c r="M496" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q496">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R496">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S496">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>468</v>
+      </c>
+      <c r="B497" t="s">
+        <v>147</v>
+      </c>
+      <c r="C497" t="s">
+        <v>138</v>
+      </c>
+      <c r="D497" t="s">
+        <v>59</v>
+      </c>
+      <c r="E497">
+        <v>0.44235858044126891</v>
+      </c>
+      <c r="F497">
+        <v>0.28616233437869582</v>
+      </c>
+      <c r="G497">
+        <v>0.27147908518003538</v>
+      </c>
+      <c r="H497">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I497">
+        <v>3.7</v>
+      </c>
+      <c r="J497">
+        <v>3.2</v>
+      </c>
+      <c r="K497" t="s">
+        <v>48</v>
+      </c>
+      <c r="L497" t="s">
+        <v>48</v>
+      </c>
+      <c r="M497" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q497">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R497">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S497">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>468</v>
+      </c>
+      <c r="B498" t="s">
+        <v>169</v>
+      </c>
+      <c r="C498" t="s">
+        <v>150</v>
+      </c>
+      <c r="D498" t="s">
+        <v>59</v>
+      </c>
+      <c r="E498">
+        <v>0.56676779332544835</v>
+      </c>
+      <c r="F498">
+        <v>0.1984412752623646</v>
+      </c>
+      <c r="G498">
+        <v>0.23479093141218699</v>
+      </c>
+      <c r="H498">
+        <v>1.66</v>
+      </c>
+      <c r="I498">
+        <v>5</v>
+      </c>
+      <c r="J498">
+        <v>3.6</v>
+      </c>
+      <c r="K498" t="s">
+        <v>48</v>
+      </c>
+      <c r="L498" t="s">
+        <v>48</v>
+      </c>
+      <c r="M498" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q498">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R498">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S498">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>468</v>
+      </c>
+      <c r="B499" t="s">
+        <v>313</v>
+      </c>
+      <c r="C499" t="s">
+        <v>67</v>
+      </c>
+      <c r="D499" t="s">
+        <v>69</v>
+      </c>
+      <c r="E499">
+        <v>0.34641064779705028</v>
+      </c>
+      <c r="F499">
+        <v>0.37023381071333211</v>
+      </c>
+      <c r="G499">
+        <v>0.28335554148961761</v>
+      </c>
+      <c r="H499">
+        <v>2.7</v>
+      </c>
+      <c r="I499">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="J499">
+        <v>3.05</v>
+      </c>
+      <c r="K499" t="s">
+        <v>49</v>
+      </c>
+      <c r="L499" t="s">
+        <v>49</v>
+      </c>
+      <c r="M499" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q499">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R499">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S499">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>468</v>
+      </c>
+      <c r="B500" t="s">
+        <v>131</v>
+      </c>
+      <c r="C500" t="s">
+        <v>73</v>
+      </c>
+      <c r="D500" t="s">
+        <v>74</v>
+      </c>
+      <c r="E500">
+        <v>0.55931525206334753</v>
+      </c>
+      <c r="F500">
+        <v>0.20494113629323721</v>
+      </c>
+      <c r="G500">
+        <v>0.23574361164341531</v>
+      </c>
+      <c r="H500">
+        <v>1.8</v>
+      </c>
+      <c r="I500">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J500">
+        <v>3.45</v>
+      </c>
+      <c r="K500" t="s">
+        <v>48</v>
+      </c>
+      <c r="L500" t="s">
+        <v>48</v>
+      </c>
+      <c r="M500" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q500">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R500">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S500">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>468</v>
+      </c>
+      <c r="B501" t="s">
+        <v>172</v>
+      </c>
+      <c r="C501" t="s">
+        <v>174</v>
+      </c>
+      <c r="D501" t="s">
+        <v>163</v>
+      </c>
+      <c r="E501">
+        <v>0.456233019961921</v>
+      </c>
+      <c r="F501">
+        <v>0.25732046685718302</v>
+      </c>
+      <c r="G501">
+        <v>0.28644651318089609</v>
+      </c>
+      <c r="H501">
+        <v>2</v>
+      </c>
+      <c r="I501">
+        <v>3.75</v>
+      </c>
+      <c r="J501">
+        <v>3.1</v>
+      </c>
+      <c r="K501" t="s">
+        <v>48</v>
+      </c>
+      <c r="L501" t="s">
+        <v>48</v>
+      </c>
+      <c r="M501" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q501">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R501">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S501">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>468</v>
+      </c>
+      <c r="B502" t="s">
+        <v>135</v>
+      </c>
+      <c r="C502" t="s">
+        <v>262</v>
+      </c>
+      <c r="D502" t="s">
+        <v>56</v>
+      </c>
+      <c r="E502">
+        <v>0.38680200655734548</v>
+      </c>
+      <c r="F502">
+        <v>0.32593877994854681</v>
+      </c>
+      <c r="G502">
+        <v>0.28725921349410771</v>
+      </c>
+      <c r="H502">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="I502">
+        <v>3</v>
+      </c>
+      <c r="J502">
+        <v>2.95</v>
+      </c>
+      <c r="K502" t="s">
+        <v>48</v>
+      </c>
+      <c r="L502" t="s">
+        <v>48</v>
+      </c>
+      <c r="M502" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q502">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R502">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S502">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>468</v>
+      </c>
+      <c r="B503" t="s">
+        <v>141</v>
+      </c>
+      <c r="C503" t="s">
+        <v>58</v>
+      </c>
+      <c r="D503" t="s">
+        <v>59</v>
+      </c>
+      <c r="E503">
+        <v>0.36017229233346348</v>
+      </c>
+      <c r="F503">
+        <v>0.34234265645295181</v>
+      </c>
+      <c r="G503">
+        <v>0.29748505121358448</v>
+      </c>
+      <c r="H503">
+        <v>2.75</v>
+      </c>
+      <c r="I503">
+        <v>2.7</v>
+      </c>
+      <c r="J503">
+        <v>2.95</v>
+      </c>
+      <c r="K503" t="s">
+        <v>48</v>
+      </c>
+      <c r="L503" t="s">
+        <v>48</v>
+      </c>
+      <c r="M503" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q503">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R503">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S503">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>468</v>
+      </c>
+      <c r="B504" t="s">
+        <v>143</v>
+      </c>
+      <c r="C504" t="s">
+        <v>122</v>
+      </c>
+      <c r="D504" t="s">
+        <v>77</v>
+      </c>
+      <c r="E504">
+        <v>0.46733757912813051</v>
+      </c>
+      <c r="F504">
+        <v>0.24605205203038449</v>
+      </c>
+      <c r="G504">
+        <v>0.28661036884148511</v>
+      </c>
+      <c r="H504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="I504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J504">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="Q504">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R504">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S504">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>468</v>
+      </c>
+      <c r="B505" t="s">
+        <v>430</v>
+      </c>
+      <c r="C505" t="s">
+        <v>175</v>
+      </c>
+      <c r="D505" t="s">
+        <v>163</v>
+      </c>
+      <c r="E505">
+        <v>0.82479759394286356</v>
+      </c>
+      <c r="F505">
+        <v>5.7510072297526867E-2</v>
+      </c>
+      <c r="G505">
+        <v>0.11769233375960959</v>
+      </c>
+      <c r="H505">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I505">
+        <v>12</v>
+      </c>
+      <c r="J505">
+        <v>7.25</v>
+      </c>
+      <c r="K505" t="s">
+        <v>48</v>
+      </c>
+      <c r="L505" t="s">
+        <v>48</v>
+      </c>
+      <c r="M505" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q505">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R505">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S505">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>468</v>
+      </c>
+      <c r="B506" t="s">
+        <v>109</v>
+      </c>
+      <c r="C506" t="s">
+        <v>126</v>
+      </c>
+      <c r="D506" t="s">
+        <v>74</v>
+      </c>
+      <c r="E506">
+        <v>0.48803159456448297</v>
+      </c>
+      <c r="F506">
+        <v>0.27237756825490839</v>
+      </c>
+      <c r="G506">
+        <v>0.23959083718060861</v>
+      </c>
+      <c r="H506">
+        <v>1.95</v>
+      </c>
+      <c r="I506">
+        <v>3.45</v>
+      </c>
+      <c r="J506">
+        <v>3.6</v>
+      </c>
+      <c r="K506" t="s">
+        <v>48</v>
+      </c>
+      <c r="L506" t="s">
+        <v>48</v>
+      </c>
+      <c r="M506" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q506">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R506">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S506">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>468</v>
+      </c>
+      <c r="B507" t="s">
+        <v>129</v>
+      </c>
+      <c r="C507" t="s">
+        <v>156</v>
+      </c>
+      <c r="D507" t="s">
+        <v>74</v>
+      </c>
+      <c r="E507">
+        <v>0.40469216019752557</v>
+      </c>
+      <c r="F507">
+        <v>0.3041183207065517</v>
+      </c>
+      <c r="G507">
+        <v>0.29118951909592261</v>
+      </c>
+      <c r="H507">
+        <v>2.5</v>
+      </c>
+      <c r="I507">
+        <v>2.85</v>
+      </c>
+      <c r="J507">
+        <v>3</v>
+      </c>
+      <c r="K507" t="s">
+        <v>48</v>
+      </c>
+      <c r="L507" t="s">
+        <v>48</v>
+      </c>
+      <c r="M507" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q507">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R507">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S507">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>468</v>
+      </c>
+      <c r="B508" t="s">
+        <v>386</v>
+      </c>
+      <c r="C508" t="s">
+        <v>142</v>
+      </c>
+      <c r="D508" t="s">
+        <v>59</v>
+      </c>
+      <c r="E508">
+        <v>0.63990832085536287</v>
+      </c>
+      <c r="F508">
+        <v>0.1516659497559118</v>
+      </c>
+      <c r="G508">
+        <v>0.20842572938872539</v>
+      </c>
+      <c r="H508">
+        <v>1.57</v>
+      </c>
+      <c r="I508">
+        <v>6.25</v>
+      </c>
+      <c r="J508">
+        <v>3.85</v>
+      </c>
+      <c r="K508" t="s">
+        <v>49</v>
+      </c>
+      <c r="L508" t="s">
+        <v>48</v>
+      </c>
+      <c r="M508" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q508">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R508">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S508">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>468</v>
+      </c>
+      <c r="B509" t="s">
+        <v>161</v>
+      </c>
+      <c r="C509" t="s">
+        <v>171</v>
+      </c>
+      <c r="D509" t="s">
+        <v>163</v>
+      </c>
+      <c r="E509">
+        <v>0.3008940710924326</v>
+      </c>
+      <c r="F509">
+        <v>0.43421001773762408</v>
+      </c>
+      <c r="G509">
+        <v>0.26489591116994332</v>
+      </c>
+      <c r="H509">
+        <v>4.05</v>
+      </c>
+      <c r="I509">
+        <v>1.95</v>
+      </c>
+      <c r="J509">
+        <v>3.05</v>
+      </c>
+      <c r="K509" t="s">
+        <v>48</v>
+      </c>
+      <c r="L509" t="s">
+        <v>48</v>
+      </c>
+      <c r="M509" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q509">
+        <f t="shared" si="84"/>
+        <v>1.7044419836759639E-2</v>
+      </c>
+      <c r="R509">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S509">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>468</v>
+      </c>
+      <c r="B510" t="s">
+        <v>452</v>
+      </c>
+      <c r="C510" t="s">
+        <v>209</v>
+      </c>
+      <c r="D510" t="s">
+        <v>179</v>
+      </c>
+      <c r="E510">
+        <v>0.26525132185479811</v>
+      </c>
+      <c r="F510">
+        <v>0.48434183086924321</v>
+      </c>
+      <c r="G510">
+        <v>0.25040684727595858</v>
+      </c>
+      <c r="H510">
+        <v>3.9</v>
+      </c>
+      <c r="I510">
+        <v>1.82</v>
+      </c>
+      <c r="J510">
+        <v>3.65</v>
+      </c>
+      <c r="K510" t="s">
+        <v>48</v>
+      </c>
+      <c r="L510" t="s">
+        <v>49</v>
+      </c>
+      <c r="M510" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q510">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R510">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S510">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>468</v>
+      </c>
+      <c r="B511" t="s">
+        <v>65</v>
+      </c>
+      <c r="C511" t="s">
+        <v>450</v>
+      </c>
+      <c r="D511" t="s">
+        <v>66</v>
+      </c>
+      <c r="E511">
+        <v>0.64603271146889407</v>
+      </c>
+      <c r="F511">
+        <v>0.13364043297089659</v>
+      </c>
+      <c r="G511">
+        <v>0.22032685556020931</v>
+      </c>
+      <c r="H511">
+        <v>1.52</v>
+      </c>
+      <c r="I511">
+        <v>7.25</v>
+      </c>
+      <c r="J511">
+        <v>4</v>
+      </c>
+      <c r="K511" t="s">
+        <v>49</v>
+      </c>
+      <c r="L511" t="s">
+        <v>48</v>
+      </c>
+      <c r="M511" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q511">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R511">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S511">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>468</v>
+      </c>
+      <c r="B512" t="s">
+        <v>323</v>
+      </c>
+      <c r="C512" t="s">
+        <v>284</v>
+      </c>
+      <c r="D512" t="s">
+        <v>186</v>
+      </c>
+      <c r="E512">
+        <v>0.12842015467772361</v>
+      </c>
+      <c r="F512">
+        <v>0.7147104540761835</v>
+      </c>
+      <c r="G512">
+        <v>0.15686939124609289</v>
+      </c>
+      <c r="H512">
+        <v>9.75</v>
+      </c>
+      <c r="I512">
+        <v>1.24</v>
+      </c>
+      <c r="J512">
+        <v>5.75</v>
+      </c>
+      <c r="K512" t="s">
+        <v>49</v>
+      </c>
+      <c r="L512" t="s">
+        <v>49</v>
+      </c>
+      <c r="M512" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q512">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R512">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S512">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>468</v>
+      </c>
+      <c r="B513" t="s">
+        <v>182</v>
+      </c>
+      <c r="C513" t="s">
+        <v>229</v>
+      </c>
+      <c r="D513" t="s">
+        <v>28</v>
+      </c>
+      <c r="E513">
+        <v>0.33000940107843302</v>
+      </c>
+      <c r="F513">
+        <v>0.37862421458704337</v>
+      </c>
+      <c r="G513">
+        <v>0.29136638433452372</v>
+      </c>
+      <c r="H513">
+        <v>2.6</v>
+      </c>
+      <c r="I513">
+        <v>2.9</v>
+      </c>
+      <c r="J513">
+        <v>3.1</v>
+      </c>
+      <c r="K513" t="s">
+        <v>48</v>
+      </c>
+      <c r="L513" t="s">
+        <v>48</v>
+      </c>
+      <c r="M513" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q513">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="R513">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="S513">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>468</v>
+      </c>
+      <c r="B514" t="s">
+        <v>417</v>
+      </c>
+      <c r="C514" t="s">
+        <v>197</v>
+      </c>
+      <c r="D514" t="s">
+        <v>41</v>
+      </c>
+      <c r="E514">
+        <v>0.28544920930202622</v>
+      </c>
+      <c r="F514">
+        <v>0.45820011810729377</v>
+      </c>
+      <c r="G514">
+        <v>0.25635067259068001</v>
+      </c>
+      <c r="H514">
+        <v>3.7</v>
+      </c>
+      <c r="I514">
+        <v>1.83</v>
+      </c>
+      <c r="J514">
+        <v>3.8</v>
+      </c>
+      <c r="K514" t="s">
+        <v>49</v>
+      </c>
+      <c r="L514" t="s">
+        <v>49</v>
+      </c>
+      <c r="M514" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q514">
+        <f t="shared" ref="Q514:Q543" si="96">IF((($AC$1*E514)^($AB$1))-(1-(($AC$1*E514)^($AB$1)))/(H514-1)&lt;0, 0,(($AC$1*E514)^($AB$1))-(1-(($AC$1*E514)^($AB$1)))/(H514-1))</f>
+        <v>0</v>
+      </c>
+      <c r="R514">
+        <f t="shared" ref="R514:R543" si="97">IF((($AC$1*F514)^($AB$1))-(1-(($AC$1*F514)^($AB$1)))/(I514-1)&lt;0, 0,(($AC$1*F514)^($AB$1))-(1-(($AC$1*F514)^($AB$1)))/(I514-1))</f>
+        <v>0</v>
+      </c>
+      <c r="S514">
+        <f t="shared" ref="S514:S543" si="98">IF((($AC$1*G514)^($AB$1))-(1-(($AC$1*G514)^($AB$1)))/(J514-1)&lt;0, 0,(($AC$1*G514)^($AB$1))-(1-(($AC$1*G514)^($AB$1)))/(J514-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>468</v>
+      </c>
+      <c r="B515" t="s">
+        <v>294</v>
+      </c>
+      <c r="C515" t="s">
+        <v>263</v>
+      </c>
+      <c r="D515" t="s">
+        <v>189</v>
+      </c>
+      <c r="E515">
+        <v>0.77687610095219939</v>
+      </c>
+      <c r="F515">
+        <v>7.9073465873462159E-2</v>
+      </c>
+      <c r="G515">
+        <v>0.14405043317433849</v>
+      </c>
+      <c r="H515">
+        <v>1.21</v>
+      </c>
+      <c r="I515">
+        <v>12</v>
+      </c>
+      <c r="J515">
+        <v>6.75</v>
+      </c>
+      <c r="K515" t="s">
+        <v>49</v>
+      </c>
+      <c r="L515" t="s">
+        <v>49</v>
+      </c>
+      <c r="M515" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q515">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R515">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S515">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>468</v>
+      </c>
+      <c r="B516" t="s">
+        <v>280</v>
+      </c>
+      <c r="C516" t="s">
+        <v>191</v>
+      </c>
+      <c r="D516" t="s">
+        <v>192</v>
+      </c>
+      <c r="E516">
+        <v>0.42660340547189679</v>
+      </c>
+      <c r="F516">
+        <v>0.32948654041447278</v>
+      </c>
+      <c r="G516">
+        <v>0.2439100541136304</v>
+      </c>
+      <c r="H516">
+        <v>1.6</v>
+      </c>
+      <c r="I516">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J516">
+        <v>3.95</v>
+      </c>
+      <c r="K516" t="s">
+        <v>48</v>
+      </c>
+      <c r="L516" t="s">
+        <v>48</v>
+      </c>
+      <c r="M516" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q516">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R516">
+        <f t="shared" si="97"/>
+        <v>9.3041887920422284E-2</v>
+      </c>
+      <c r="S516">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>468</v>
+      </c>
+      <c r="B517" t="s">
+        <v>195</v>
+      </c>
+      <c r="C517" t="s">
+        <v>328</v>
+      </c>
+      <c r="D517" t="s">
+        <v>192</v>
+      </c>
+      <c r="E517">
+        <v>0.12181473397982449</v>
+      </c>
+      <c r="F517">
+        <v>0.71999563528997268</v>
+      </c>
+      <c r="G517">
+        <v>0.15818963073020281</v>
+      </c>
+      <c r="H517">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I517">
+        <v>1.51</v>
+      </c>
+      <c r="J517">
+        <v>4.45</v>
+      </c>
+      <c r="K517" t="s">
+        <v>48</v>
+      </c>
+      <c r="L517" t="s">
+        <v>48</v>
+      </c>
+      <c r="M517" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q517">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R517">
+        <f t="shared" si="97"/>
+        <v>0.1197081551738931</v>
+      </c>
+      <c r="S517">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>468</v>
+      </c>
+      <c r="B518" t="s">
+        <v>282</v>
+      </c>
+      <c r="C518" t="s">
+        <v>194</v>
+      </c>
+      <c r="D518" t="s">
+        <v>192</v>
+      </c>
+      <c r="E518">
+        <v>8.685446001391478E-2</v>
+      </c>
+      <c r="F518">
+        <v>0.79682625054510026</v>
+      </c>
+      <c r="G518">
+        <v>0.1163192894409851</v>
+      </c>
+      <c r="H518">
+        <v>7.75</v>
+      </c>
+      <c r="I518">
+        <v>1.27</v>
+      </c>
+      <c r="J518">
+        <v>6</v>
+      </c>
+      <c r="K518" t="s">
+        <v>48</v>
+      </c>
+      <c r="L518" t="s">
+        <v>48</v>
+      </c>
+      <c r="M518" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q518">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R518">
+        <f t="shared" si="97"/>
+        <v>6.7390734434944477E-3</v>
+      </c>
+      <c r="S518">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>468</v>
+      </c>
+      <c r="B519" t="s">
+        <v>339</v>
+      </c>
+      <c r="C519" t="s">
+        <v>238</v>
+      </c>
+      <c r="D519" t="s">
+        <v>168</v>
+      </c>
+      <c r="E519">
+        <v>0.37907332623084122</v>
+      </c>
+      <c r="F519">
+        <v>0.29023650557985892</v>
+      </c>
+      <c r="G519">
+        <v>0.33069016818929992</v>
+      </c>
+      <c r="H519">
+        <v>2.25</v>
+      </c>
+      <c r="I519">
+        <v>3.45</v>
+      </c>
+      <c r="J519">
+        <v>2.85</v>
+      </c>
+      <c r="K519" t="s">
+        <v>48</v>
+      </c>
+      <c r="L519" t="s">
+        <v>48</v>
+      </c>
+      <c r="M519" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q519">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R519">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S519">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>468</v>
+      </c>
+      <c r="B520" t="s">
+        <v>361</v>
+      </c>
+      <c r="C520" t="s">
+        <v>307</v>
+      </c>
+      <c r="D520" t="s">
+        <v>179</v>
+      </c>
+      <c r="E520">
+        <v>0.47194496790713919</v>
+      </c>
+      <c r="F520">
+        <v>0.27856554997695809</v>
+      </c>
+      <c r="G520">
+        <v>0.24948948211590269</v>
+      </c>
+      <c r="H520">
+        <v>2.1</v>
+      </c>
+      <c r="I520">
+        <v>3.3</v>
+      </c>
+      <c r="J520">
+        <v>3.3</v>
+      </c>
+      <c r="K520" t="s">
+        <v>48</v>
+      </c>
+      <c r="L520" t="s">
+        <v>48</v>
+      </c>
+      <c r="M520" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q520">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R520">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S520">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>468</v>
+      </c>
+      <c r="B521" t="s">
+        <v>95</v>
+      </c>
+      <c r="C521" t="s">
+        <v>100</v>
+      </c>
+      <c r="D521" t="s">
+        <v>92</v>
+      </c>
+      <c r="E521">
+        <v>0.54412800184144727</v>
+      </c>
+      <c r="F521">
+        <v>0.20651561258673851</v>
+      </c>
+      <c r="G521">
+        <v>0.24935638557181419</v>
+      </c>
+      <c r="H521">
+        <v>1.72</v>
+      </c>
+      <c r="I521">
+        <v>4.95</v>
+      </c>
+      <c r="J521">
+        <v>3.65</v>
+      </c>
+      <c r="K521" t="s">
+        <v>49</v>
+      </c>
+      <c r="L521" t="s">
+        <v>48</v>
+      </c>
+      <c r="M521" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q521">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R521">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S521">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>468</v>
+      </c>
+      <c r="B522" t="s">
+        <v>105</v>
+      </c>
+      <c r="C522" t="s">
+        <v>356</v>
+      </c>
+      <c r="D522" t="s">
+        <v>56</v>
+      </c>
+      <c r="E522">
+        <v>0.77899734135833043</v>
+      </c>
+      <c r="F522">
+        <v>7.6269679718776531E-2</v>
+      </c>
+      <c r="G522">
+        <v>0.144732978922893</v>
+      </c>
+      <c r="H522">
+        <v>1.37</v>
+      </c>
+      <c r="I522">
+        <v>9.75</v>
+      </c>
+      <c r="J522">
+        <v>5.94</v>
+      </c>
+      <c r="K522" t="s">
+        <v>49</v>
+      </c>
+      <c r="L522" t="s">
+        <v>49</v>
+      </c>
+      <c r="M522" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q522">
+        <f t="shared" si="96"/>
+        <v>0.14369032162263085</v>
+      </c>
+      <c r="R522">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S522">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>468</v>
+      </c>
+      <c r="B523" t="s">
+        <v>64</v>
+      </c>
+      <c r="C523" t="s">
+        <v>442</v>
+      </c>
+      <c r="D523" t="s">
+        <v>66</v>
+      </c>
+      <c r="E523">
+        <v>0.41749574531836331</v>
+      </c>
+      <c r="F523">
+        <v>0.28690069338329871</v>
+      </c>
+      <c r="G523">
+        <v>0.29560356129833798</v>
+      </c>
+      <c r="H523">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I523">
+        <v>3.9</v>
+      </c>
+      <c r="J523">
+        <v>3.2</v>
+      </c>
+      <c r="K523" t="s">
+        <v>48</v>
+      </c>
+      <c r="L523" t="s">
+        <v>48</v>
+      </c>
+      <c r="M523" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q523">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R523">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S523">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>468</v>
+      </c>
+      <c r="B524" t="s">
+        <v>184</v>
+      </c>
+      <c r="C524" t="s">
+        <v>326</v>
+      </c>
+      <c r="D524" t="s">
+        <v>186</v>
+      </c>
+      <c r="E524">
+        <v>0.1541674301550299</v>
+      </c>
+      <c r="F524">
+        <v>0.67370435558081776</v>
+      </c>
+      <c r="G524">
+        <v>0.1721282142641524</v>
+      </c>
+      <c r="H524">
+        <v>7.75</v>
+      </c>
+      <c r="I524">
+        <v>1.31</v>
+      </c>
+      <c r="J524">
+        <v>5.25</v>
+      </c>
+      <c r="K524" t="s">
+        <v>48</v>
+      </c>
+      <c r="L524" t="s">
+        <v>49</v>
+      </c>
+      <c r="M524" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q524">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R524">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S524">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>468</v>
+      </c>
+      <c r="B525" t="s">
+        <v>231</v>
+      </c>
+      <c r="C525" t="s">
+        <v>221</v>
+      </c>
+      <c r="D525" t="s">
+        <v>87</v>
+      </c>
+      <c r="E525">
+        <v>0.40732009570653488</v>
+      </c>
+      <c r="F525">
+        <v>0.30786727685711129</v>
+      </c>
+      <c r="G525">
+        <v>0.28481262743635383</v>
+      </c>
+      <c r="H525">
+        <v>2.1</v>
+      </c>
+      <c r="I525">
+        <v>3.5</v>
+      </c>
+      <c r="J525">
+        <v>3.1</v>
+      </c>
+      <c r="K525" t="s">
+        <v>48</v>
+      </c>
+      <c r="L525" t="s">
+        <v>48</v>
+      </c>
+      <c r="M525" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q525">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R525">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S525">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>468</v>
+      </c>
+      <c r="B526" t="s">
+        <v>88</v>
+      </c>
+      <c r="C526" t="s">
+        <v>223</v>
+      </c>
+      <c r="D526" t="s">
+        <v>87</v>
+      </c>
+      <c r="E526">
+        <v>0.53314803838591485</v>
+      </c>
+      <c r="F526">
+        <v>0.21343341956163109</v>
+      </c>
+      <c r="G526">
+        <v>0.25341854205245401</v>
+      </c>
+      <c r="H526">
+        <v>1.58</v>
+      </c>
+      <c r="I526">
+        <v>6</v>
+      </c>
+      <c r="J526">
+        <v>3.4</v>
+      </c>
+      <c r="K526" t="s">
+        <v>48</v>
+      </c>
+      <c r="L526" t="s">
+        <v>48</v>
+      </c>
+      <c r="M526" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q526">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R526">
+        <f t="shared" si="97"/>
+        <v>1.0673088969853528E-2</v>
+      </c>
+      <c r="S526">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>468</v>
+      </c>
+      <c r="B527" t="s">
+        <v>218</v>
+      </c>
+      <c r="C527" t="s">
+        <v>225</v>
+      </c>
+      <c r="D527" t="s">
+        <v>87</v>
+      </c>
+      <c r="E527">
+        <v>0.36900435637090512</v>
+      </c>
+      <c r="F527">
+        <v>0.32162080626678419</v>
+      </c>
+      <c r="G527">
+        <v>0.30937483736231058</v>
+      </c>
+      <c r="H527">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I527">
+        <v>3.55</v>
+      </c>
+      <c r="J527">
+        <v>2.85</v>
+      </c>
+      <c r="K527" t="s">
+        <v>48</v>
+      </c>
+      <c r="L527" t="s">
+        <v>48</v>
+      </c>
+      <c r="M527" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q527">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R527">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S527">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>468</v>
+      </c>
+      <c r="B528" t="s">
+        <v>216</v>
+      </c>
+      <c r="C528" t="s">
+        <v>220</v>
+      </c>
+      <c r="D528" t="s">
+        <v>87</v>
+      </c>
+      <c r="E528">
+        <v>0.27452189245951542</v>
+      </c>
+      <c r="F528">
+        <v>0.44807306664906682</v>
+      </c>
+      <c r="G528">
+        <v>0.27740504089141771</v>
+      </c>
+      <c r="H528">
+        <v>3.45</v>
+      </c>
+      <c r="I528">
+        <v>2.15</v>
+      </c>
+      <c r="J528">
+        <v>3</v>
+      </c>
+      <c r="K528" t="s">
+        <v>48</v>
+      </c>
+      <c r="L528" t="s">
+        <v>48</v>
+      </c>
+      <c r="M528" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q528">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R528">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S528">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>468</v>
+      </c>
+      <c r="B529" t="s">
+        <v>296</v>
+      </c>
+      <c r="C529" t="s">
+        <v>188</v>
+      </c>
+      <c r="D529" t="s">
+        <v>189</v>
+      </c>
+      <c r="E529">
+        <v>0.34655036099828779</v>
+      </c>
+      <c r="F529">
+        <v>0.35754384636518999</v>
+      </c>
+      <c r="G529">
+        <v>0.29590579263652211</v>
+      </c>
+      <c r="H529">
+        <v>2.9</v>
+      </c>
+      <c r="I529">
+        <v>2.6</v>
+      </c>
+      <c r="J529">
+        <v>3.05</v>
+      </c>
+      <c r="K529" t="s">
+        <v>48</v>
+      </c>
+      <c r="L529" t="s">
+        <v>48</v>
+      </c>
+      <c r="M529" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q529">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R529">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S529">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>468</v>
+      </c>
+      <c r="B530" t="s">
+        <v>228</v>
+      </c>
+      <c r="C530" t="s">
+        <v>219</v>
+      </c>
+      <c r="D530" t="s">
+        <v>87</v>
+      </c>
+      <c r="E530">
+        <v>0.30536571344309538</v>
+      </c>
+      <c r="F530">
+        <v>0.39664955060093909</v>
+      </c>
+      <c r="G530">
+        <v>0.29798473595596547</v>
+      </c>
+      <c r="H530">
+        <v>2.9</v>
+      </c>
+      <c r="I530">
+        <v>2.75</v>
+      </c>
+      <c r="J530">
+        <v>2.7</v>
+      </c>
+      <c r="K530" t="s">
+        <v>48</v>
+      </c>
+      <c r="L530" t="s">
+        <v>48</v>
+      </c>
+      <c r="M530" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q530">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R530">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S530">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>468</v>
+      </c>
+      <c r="B531" t="s">
+        <v>86</v>
+      </c>
+      <c r="C531" t="s">
+        <v>230</v>
+      </c>
+      <c r="D531" t="s">
+        <v>87</v>
+      </c>
+      <c r="E531">
+        <v>0.75240504273214748</v>
+      </c>
+      <c r="F531">
+        <v>9.2445954906068079E-2</v>
+      </c>
+      <c r="G531">
+        <v>0.15514900236178439</v>
+      </c>
+      <c r="H531">
+        <v>1.22</v>
+      </c>
+      <c r="I531">
+        <v>10.75</v>
+      </c>
+      <c r="J531">
+        <v>5.75</v>
+      </c>
+      <c r="K531" t="s">
+        <v>48</v>
+      </c>
+      <c r="L531" t="s">
+        <v>48</v>
+      </c>
+      <c r="M531" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q531">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R531">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S531">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>468</v>
+      </c>
+      <c r="B532" t="s">
+        <v>315</v>
+      </c>
+      <c r="C532" t="s">
+        <v>383</v>
+      </c>
+      <c r="D532" t="s">
+        <v>28</v>
+      </c>
+      <c r="E532">
+        <v>0.4121368504714541</v>
+      </c>
+      <c r="F532">
+        <v>0.30742382048029299</v>
+      </c>
+      <c r="G532">
+        <v>0.28043932904825292</v>
+      </c>
+      <c r="H532">
+        <v>2.15</v>
+      </c>
+      <c r="I532">
+        <v>3.35</v>
+      </c>
+      <c r="J532">
+        <v>3.35</v>
+      </c>
+      <c r="K532" t="s">
+        <v>48</v>
+      </c>
+      <c r="L532" t="s">
+        <v>48</v>
+      </c>
+      <c r="M532" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q532">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R532">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S532">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>468</v>
+      </c>
+      <c r="B533" t="s">
+        <v>226</v>
+      </c>
+      <c r="C533" t="s">
+        <v>222</v>
+      </c>
+      <c r="D533" t="s">
+        <v>87</v>
+      </c>
+      <c r="E533">
+        <v>0.33622622013889719</v>
+      </c>
+      <c r="F533">
+        <v>0.36130107252885418</v>
+      </c>
+      <c r="G533">
+        <v>0.30247270733224862</v>
+      </c>
+      <c r="H533">
+        <v>2.5</v>
+      </c>
+      <c r="I533">
+        <v>3.05</v>
+      </c>
+      <c r="J533">
+        <v>2.8</v>
+      </c>
+      <c r="K533" t="s">
+        <v>48</v>
+      </c>
+      <c r="L533" t="s">
+        <v>48</v>
+      </c>
+      <c r="M533" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q533">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R533">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S533">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>468</v>
+      </c>
+      <c r="B534" t="s">
+        <v>357</v>
+      </c>
+      <c r="C534" t="s">
+        <v>462</v>
+      </c>
+      <c r="D534" t="s">
+        <v>168</v>
+      </c>
+      <c r="E534">
+        <v>0.46824643750682299</v>
+      </c>
+      <c r="F534">
+        <v>0.21400394533410499</v>
+      </c>
+      <c r="G534">
+        <v>0.31774961715907207</v>
+      </c>
+      <c r="H534">
+        <v>1.95</v>
+      </c>
+      <c r="I534">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J534">
+        <v>2.9</v>
+      </c>
+      <c r="K534" t="s">
+        <v>48</v>
+      </c>
+      <c r="L534" t="s">
+        <v>48</v>
+      </c>
+      <c r="M534" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q534">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R534">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S534">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>468</v>
+      </c>
+      <c r="B535" t="s">
+        <v>308</v>
+      </c>
+      <c r="C535" t="s">
+        <v>178</v>
+      </c>
+      <c r="D535" t="s">
+        <v>179</v>
+      </c>
+      <c r="E535">
+        <v>0.38865309286541982</v>
+      </c>
+      <c r="F535">
+        <v>0.3683648347262049</v>
+      </c>
+      <c r="G535">
+        <v>0.24298207240837519</v>
+      </c>
+      <c r="H535">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I535">
+        <v>2.5</v>
+      </c>
+      <c r="J535">
+        <v>3.6</v>
+      </c>
+      <c r="K535" t="s">
+        <v>48</v>
+      </c>
+      <c r="L535" t="s">
+        <v>48</v>
+      </c>
+      <c r="M535" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q535">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R535">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S535">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>468</v>
+      </c>
+      <c r="B536" t="s">
+        <v>259</v>
+      </c>
+      <c r="C536" t="s">
+        <v>83</v>
+      </c>
+      <c r="D536" t="s">
+        <v>84</v>
+      </c>
+      <c r="E536">
+        <v>0.1397233363908689</v>
+      </c>
+      <c r="F536">
+        <v>0.68804793941287312</v>
+      </c>
+      <c r="G536">
+        <v>0.17222872419625801</v>
+      </c>
+      <c r="H536">
+        <v>6</v>
+      </c>
+      <c r="I536">
+        <v>1.5</v>
+      </c>
+      <c r="J536">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K536" t="s">
+        <v>48</v>
+      </c>
+      <c r="L536" t="s">
+        <v>49</v>
+      </c>
+      <c r="M536" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q536">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R536">
+        <f t="shared" si="97"/>
+        <v>1.6927253086257421E-3</v>
+      </c>
+      <c r="S536">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>468</v>
+      </c>
+      <c r="B537" t="s">
+        <v>431</v>
+      </c>
+      <c r="C537" t="s">
+        <v>187</v>
+      </c>
+      <c r="D537" t="s">
+        <v>189</v>
+      </c>
+      <c r="E537">
+        <v>0.71812244542790593</v>
+      </c>
+      <c r="F537">
+        <v>0.1084540999359766</v>
+      </c>
+      <c r="G537">
+        <v>0.1734234546361175</v>
+      </c>
+      <c r="H537">
+        <v>1.38</v>
+      </c>
+      <c r="I537">
+        <v>7</v>
+      </c>
+      <c r="J537">
+        <v>5.25</v>
+      </c>
+      <c r="K537" t="s">
+        <v>49</v>
+      </c>
+      <c r="L537" t="s">
+        <v>48</v>
+      </c>
+      <c r="M537" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q537">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R537">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S537">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>468</v>
+      </c>
+      <c r="B538" t="s">
+        <v>355</v>
+      </c>
+      <c r="C538" t="s">
+        <v>248</v>
+      </c>
+      <c r="D538" t="s">
+        <v>56</v>
+      </c>
+      <c r="E538">
+        <v>0.34621559259435508</v>
+      </c>
+      <c r="F538">
+        <v>0.38721037108407452</v>
+      </c>
+      <c r="G538">
+        <v>0.26657403632157051</v>
+      </c>
+      <c r="H538">
+        <v>2.8</v>
+      </c>
+      <c r="I538">
+        <v>2.5</v>
+      </c>
+      <c r="J538">
+        <v>3.35</v>
+      </c>
+      <c r="K538" t="s">
+        <v>48</v>
+      </c>
+      <c r="L538" t="s">
+        <v>48</v>
+      </c>
+      <c r="M538" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q538">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R538">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S538">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>468</v>
+      </c>
+      <c r="B539" t="s">
+        <v>376</v>
+      </c>
+      <c r="C539" t="s">
+        <v>406</v>
+      </c>
+      <c r="D539" t="s">
+        <v>350</v>
+      </c>
+      <c r="E539">
+        <v>0.59487279958079231</v>
+      </c>
+      <c r="F539">
+        <v>0.1719574584754652</v>
+      </c>
+      <c r="G539">
+        <v>0.23316974194374249</v>
+      </c>
+      <c r="H539">
+        <v>1.57</v>
+      </c>
+      <c r="I539">
+        <v>5.3</v>
+      </c>
+      <c r="J539">
+        <v>4.05</v>
+      </c>
+      <c r="K539" t="s">
+        <v>48</v>
+      </c>
+      <c r="L539" t="s">
+        <v>49</v>
+      </c>
+      <c r="M539" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q539">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R539">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S539">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>468</v>
+      </c>
+      <c r="B540" t="s">
+        <v>367</v>
+      </c>
+      <c r="C540" t="s">
+        <v>274</v>
+      </c>
+      <c r="D540" t="s">
+        <v>66</v>
+      </c>
+      <c r="E540">
+        <v>0.80954510117479028</v>
+      </c>
+      <c r="F540">
+        <v>6.2130768068470912E-2</v>
+      </c>
+      <c r="G540">
+        <v>0.12832413075673879</v>
+      </c>
+      <c r="H540">
+        <v>1.32</v>
+      </c>
+      <c r="I540">
+        <v>9</v>
+      </c>
+      <c r="J540">
+        <v>6</v>
+      </c>
+      <c r="K540" t="s">
+        <v>49</v>
+      </c>
+      <c r="L540" t="s">
+        <v>48</v>
+      </c>
+      <c r="M540" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q540">
+        <f t="shared" si="96"/>
+        <v>0.18825107386256201</v>
+      </c>
+      <c r="R540">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S540">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>468</v>
+      </c>
+      <c r="B541" t="s">
+        <v>382</v>
+      </c>
+      <c r="C541" t="s">
+        <v>27</v>
+      </c>
+      <c r="D541" t="s">
+        <v>28</v>
+      </c>
+      <c r="E541">
+        <v>0.80742561824107228</v>
+      </c>
+      <c r="F541">
+        <v>6.5219016077809777E-2</v>
+      </c>
+      <c r="G541">
+        <v>0.12735536568111799</v>
+      </c>
+      <c r="H541">
+        <v>1.21</v>
+      </c>
+      <c r="I541">
+        <v>15</v>
+      </c>
+      <c r="J541">
+        <v>6.5</v>
+      </c>
+      <c r="K541" t="s">
+        <v>48</v>
+      </c>
+      <c r="L541" t="s">
+        <v>49</v>
+      </c>
+      <c r="M541" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q541">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R541">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S541">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>468</v>
+      </c>
+      <c r="B542" t="s">
+        <v>363</v>
+      </c>
+      <c r="C542" t="s">
+        <v>354</v>
+      </c>
+      <c r="D542" t="s">
+        <v>350</v>
+      </c>
+      <c r="E542">
+        <v>0.73642057058691857</v>
+      </c>
+      <c r="F542">
+        <v>9.0582924918724078E-2</v>
+      </c>
+      <c r="G542">
+        <v>0.17299650449435741</v>
+      </c>
+      <c r="H542">
+        <v>1.4</v>
+      </c>
+      <c r="I542">
+        <v>6.75</v>
+      </c>
+      <c r="J542">
+        <v>5.25</v>
+      </c>
+      <c r="K542" t="s">
+        <v>49</v>
+      </c>
+      <c r="L542" t="s">
+        <v>48</v>
+      </c>
+      <c r="M542" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q542">
+        <f t="shared" si="96"/>
+        <v>2.3487303031696327E-2</v>
+      </c>
+      <c r="R542">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S542">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>468</v>
+      </c>
+      <c r="B543" t="s">
+        <v>426</v>
+      </c>
+      <c r="C543" t="s">
+        <v>351</v>
+      </c>
+      <c r="D543" t="s">
+        <v>350</v>
+      </c>
+      <c r="E543">
+        <v>0.72127987568453256</v>
+      </c>
+      <c r="F543">
+        <v>9.9913578689881807E-2</v>
+      </c>
+      <c r="G543">
+        <v>0.17880654562558559</v>
+      </c>
+      <c r="H543">
+        <v>1.38</v>
+      </c>
+      <c r="I543">
+        <v>7.8</v>
+      </c>
+      <c r="J543">
+        <v>5</v>
+      </c>
+      <c r="K543" t="s">
+        <v>49</v>
+      </c>
+      <c r="L543" t="s">
+        <v>49</v>
+      </c>
+      <c r="M543" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q543">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="R543">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="S543">
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
     </row>

--- a/predictor/modelC.xlsx
+++ b/predictor/modelC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaos\Desktop\docs\github\soccer_predictor\predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F969FAE-FF9E-4EC0-AA16-1939DED2F026}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0100481C-A981-41CB-8333-0128BD0EB424}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="Y1" s="3">
         <f>(SUM(T2:V1048576)-SUM(AL2:AN1048576)  )/(SUM(AL2:AN1048576)+0.000000000000000001)</f>
-        <v>-0.19152825304909563</v>
+        <v>-0.20026852565525197</v>
       </c>
       <c r="Z1">
         <f>COUNTIF(AL2:AN1048576,"&gt;0")</f>
@@ -1919,25 +1919,25 @@
       </c>
       <c r="AA1" s="5">
         <f>_xlfn.STDEV.P(AO2:AQ1048576)</f>
-        <v>6.1992347924206569E-2</v>
+        <v>6.1541939528736829E-2</v>
       </c>
       <c r="AB1">
-        <v>1.1406337768465256</v>
+        <v>1.1287605230267694</v>
       </c>
       <c r="AC1">
-        <v>1.0193497635063331</v>
+        <v>1.0110403633802167</v>
       </c>
       <c r="AD1">
         <f>MAX(Q2:S1048576)</f>
-        <v>0.18825107386256201</v>
+        <v>0.13225949941686466</v>
       </c>
       <c r="AE1">
         <f>SUMIF(Q2:S1048576,"&gt;0")/COUNTIF(Q2:S1048576,"&gt;0")</f>
-        <v>3.8443282971767398E-2</v>
+        <v>3.3913061503725313E-2</v>
       </c>
       <c r="AF1">
         <f>AVERAGE(Q2:S1048576)</f>
-        <v>1.3003570500905331E-3</v>
+        <v>1.1262640351790694E-3</v>
       </c>
       <c r="AH1" t="s">
         <v>22</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AI2" s="2">
         <f>IFERROR(IF(Y1&lt;0,Y1,Y1/SQRT(AA1))  -IF(OR(MAX(AB4:AF4)&gt;AI1,AVERAGE(AB4:AF4)&gt;AI1/2),10000,0),-10000)</f>
-        <v>-10000.19152825305</v>
+        <v>-0.20026852565525197</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2:AL65" si="6">Q2*COUNT(N2)</f>
@@ -2161,10 +2161,10 @@
         <v>0.13753037753570821</v>
       </c>
       <c r="AE3">
-        <v>3.0375484885073904E-2</v>
+        <v>3.1321417246256145E-2</v>
       </c>
       <c r="AF3">
-        <v>1.1565378584115782E-3</v>
+        <v>1.2328233110457524E-3</v>
       </c>
       <c r="AL3">
         <f t="shared" si="6"/>
@@ -2257,23 +2257,23 @@
       </c>
       <c r="AB4" s="1">
         <f>ABS(AB1-AB3)/AB3</f>
-        <v>3.4213234968288667E-2</v>
+        <v>2.3447749593589123E-2</v>
       </c>
       <c r="AC4" s="1">
         <f>ABS(AC1-AC3)/AC3</f>
-        <v>1.9645460689933201E-2</v>
+        <v>1.1333650138756996E-2</v>
       </c>
       <c r="AD4" s="1">
         <f>ABS(AD1-AD3)/AD3</f>
-        <v>0.36879631420836279</v>
+        <v>3.8325191956046431E-2</v>
       </c>
       <c r="AE4" s="1">
         <f>ABS(AE1-AE3)/AE3</f>
-        <v>0.2656022814851558</v>
+        <v>8.2743518184157136E-2</v>
       </c>
       <c r="AF4" s="1">
         <f>ABS(AF1-AF3)/AF3</f>
-        <v>0.12435320697281824</v>
+        <v>8.6435156532117516E-2</v>
       </c>
       <c r="AL4">
         <f t="shared" si="6"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>9.3074134412471976E-2</v>
+        <v>8.9697592629315537E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>0.18428678613669452</v>
+        <v>0.17760123340604475</v>
       </c>
       <c r="U6">
         <f t="shared" si="4"/>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="AL6">
         <f t="shared" si="6"/>
-        <v>9.3074134412471976E-2</v>
+        <v>8.9697592629315537E-2</v>
       </c>
       <c r="AM6">
         <f t="shared" si="7"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="AO6">
         <f t="shared" si="9"/>
-        <v>9.1212651724222549E-2</v>
+        <v>8.7903640776729214E-2</v>
       </c>
       <c r="AP6" t="str">
         <f t="shared" si="10"/>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="1"/>
-        <v>2.389364533049243E-2</v>
+        <v>2.0743641535461377E-2</v>
       </c>
       <c r="S21">
         <f t="shared" si="2"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="4"/>
-        <v>4.5397926127935612E-2</v>
+        <v>3.9412918917376617E-2</v>
       </c>
       <c r="V21">
         <f t="shared" si="5"/>
@@ -3920,7 +3920,7 @@
       </c>
       <c r="AM21">
         <f t="shared" si="7"/>
-        <v>2.389364533049243E-2</v>
+        <v>2.0743641535461377E-2</v>
       </c>
       <c r="AN21">
         <f t="shared" si="8"/>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="AP21">
         <f t="shared" si="10"/>
-        <v>2.1504280797443182E-2</v>
+        <v>1.866927738191524E-2</v>
       </c>
       <c r="AQ21" t="str">
         <f t="shared" si="11"/>
@@ -4092,7 +4092,7 @@
       </c>
       <c r="R23">
         <f t="shared" si="1"/>
-        <v>1.7218376958980486E-2</v>
+        <v>1.8683242957086732E-2</v>
       </c>
       <c r="S23">
         <f t="shared" si="2"/>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="AM23">
         <f t="shared" si="7"/>
-        <v>1.7218376958980486E-2</v>
+        <v>1.8683242957086732E-2</v>
       </c>
       <c r="AN23">
         <f t="shared" si="8"/>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="AP23">
         <f t="shared" si="10"/>
-        <v>-1.7218376958980486E-2</v>
+        <v>-1.8683242957086732E-2</v>
       </c>
       <c r="AQ23" t="str">
         <f t="shared" si="11"/>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
-        <v>3.8077130862316066E-2</v>
+        <v>3.9701657764209697E-2</v>
       </c>
       <c r="R65">
         <f t="shared" si="1"/>
@@ -8120,7 +8120,7 @@
       </c>
       <c r="AL65">
         <f t="shared" si="6"/>
-        <v>3.8077130862316066E-2</v>
+        <v>3.9701657764209697E-2</v>
       </c>
       <c r="AM65">
         <f t="shared" si="7"/>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="AO65">
         <f t="shared" si="9"/>
-        <v>-3.8077130862316066E-2</v>
+        <v>-3.9701657764209697E-2</v>
       </c>
       <c r="AP65" t="str">
         <f t="shared" si="10"/>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="R71">
         <f t="shared" si="13"/>
-        <v>0.13172798522349469</v>
+        <v>0.13225949941686466</v>
       </c>
       <c r="S71">
         <f t="shared" si="14"/>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="AM71">
         <f t="shared" si="19"/>
-        <v>0.13172798522349469</v>
+        <v>0.13225949941686466</v>
       </c>
       <c r="AN71">
         <f t="shared" si="20"/>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="AP71">
         <f t="shared" si="22"/>
-        <v>-0.13172798522349469</v>
+        <v>-0.13225949941686466</v>
       </c>
       <c r="AQ71" t="str">
         <f t="shared" si="23"/>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="R73">
         <f t="shared" si="13"/>
-        <v>8.6646778683696746E-2</v>
+        <v>7.9387546629617223E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="14"/>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="AM73">
         <f t="shared" si="19"/>
-        <v>8.6646778683696746E-2</v>
+        <v>7.9387546629617223E-2</v>
       </c>
       <c r="AN73">
         <f t="shared" si="20"/>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="AP73">
         <f t="shared" si="22"/>
-        <v>-8.6646778683696746E-2</v>
+        <v>-7.9387546629617223E-2</v>
       </c>
       <c r="AQ73" t="str">
         <f t="shared" si="23"/>
@@ -9080,7 +9080,7 @@
       </c>
       <c r="R75">
         <f t="shared" si="13"/>
-        <v>2.6084414738517303E-2</v>
+        <v>1.4580876095975914E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="14"/>
@@ -9092,7 +9092,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="16"/>
-        <v>3.8344089665620432E-2</v>
+        <v>2.1433887861084595E-2</v>
       </c>
       <c r="V75">
         <f t="shared" si="17"/>
@@ -9104,7 +9104,7 @@
       </c>
       <c r="AM75">
         <f t="shared" si="19"/>
-        <v>2.6084414738517303E-2</v>
+        <v>1.4580876095975914E-2</v>
       </c>
       <c r="AN75">
         <f t="shared" si="20"/>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="AP75">
         <f t="shared" si="22"/>
-        <v>1.2259674927103129E-2</v>
+        <v>6.8530117651086804E-3</v>
       </c>
       <c r="AQ75" t="str">
         <f t="shared" si="23"/>
@@ -9472,7 +9472,7 @@
       </c>
       <c r="R79">
         <f t="shared" si="13"/>
-        <v>1.392490143100078E-2</v>
+        <v>1.5548620548005487E-2</v>
       </c>
       <c r="S79">
         <f t="shared" si="14"/>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="AM79">
         <f t="shared" si="19"/>
-        <v>1.392490143100078E-2</v>
+        <v>1.5548620548005487E-2</v>
       </c>
       <c r="AN79">
         <f t="shared" si="20"/>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="AP79">
         <f t="shared" si="22"/>
-        <v>-1.392490143100078E-2</v>
+        <v>-1.5548620548005487E-2</v>
       </c>
       <c r="AQ79" t="str">
         <f t="shared" si="23"/>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="R90">
         <f t="shared" si="13"/>
-        <v>1.9070186296722691E-2</v>
+        <v>1.9874384687084135E-2</v>
       </c>
       <c r="S90">
         <f t="shared" si="14"/>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="AM90">
         <f t="shared" si="19"/>
-        <v>1.9070186296722691E-2</v>
+        <v>1.9874384687084135E-2</v>
       </c>
       <c r="AN90">
         <f t="shared" si="20"/>
@@ -10586,7 +10586,7 @@
       </c>
       <c r="AP90">
         <f t="shared" si="22"/>
-        <v>-1.9070186296722691E-2</v>
+        <v>-1.9874384687084135E-2</v>
       </c>
       <c r="AQ90" t="str">
         <f t="shared" si="23"/>
@@ -11717,7 +11717,7 @@
       </c>
       <c r="R102">
         <f t="shared" si="13"/>
-        <v>3.3514125468726619E-2</v>
+        <v>3.4728737457988768E-2</v>
       </c>
       <c r="S102">
         <f t="shared" si="14"/>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="U102">
         <f t="shared" si="16"/>
-        <v>0.1139480265936705</v>
+        <v>0.1180777073571618</v>
       </c>
       <c r="V102">
         <f t="shared" si="17"/>
@@ -11741,7 +11741,7 @@
       </c>
       <c r="AM102">
         <f t="shared" si="19"/>
-        <v>3.3514125468726619E-2</v>
+        <v>3.4728737457988768E-2</v>
       </c>
       <c r="AN102">
         <f t="shared" si="20"/>
@@ -11753,7 +11753,7 @@
       </c>
       <c r="AP102">
         <f t="shared" si="22"/>
-        <v>8.0433901124943877E-2</v>
+        <v>8.3348969899173037E-2</v>
       </c>
       <c r="AQ102" t="str">
         <f t="shared" si="23"/>
@@ -15334,7 +15334,7 @@
       </c>
       <c r="R139">
         <f t="shared" si="25"/>
-        <v>9.7458698355934736E-2</v>
+        <v>9.8035783358995765E-2</v>
       </c>
       <c r="S139">
         <f t="shared" si="26"/>
@@ -15346,7 +15346,7 @@
       </c>
       <c r="U139">
         <f t="shared" si="28"/>
-        <v>0.3216137045745846</v>
+        <v>0.32351808508468599</v>
       </c>
       <c r="V139">
         <f t="shared" si="29"/>
@@ -15358,7 +15358,7 @@
       </c>
       <c r="AM139">
         <f t="shared" si="31"/>
-        <v>9.7458698355934736E-2</v>
+        <v>9.8035783358995765E-2</v>
       </c>
       <c r="AN139">
         <f t="shared" si="32"/>
@@ -15370,7 +15370,7 @@
       </c>
       <c r="AP139">
         <f t="shared" si="34"/>
-        <v>0.22415500621864987</v>
+        <v>0.22548230172569023</v>
       </c>
       <c r="AQ139" t="str">
         <f t="shared" si="35"/>
@@ -15726,7 +15726,7 @@
       </c>
       <c r="R143">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3.7550235350680694E-5</v>
       </c>
       <c r="S143">
         <f t="shared" si="26"/>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="AM143">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>3.7550235350680694E-5</v>
       </c>
       <c r="AN143">
         <f t="shared" si="32"/>
@@ -15760,9 +15760,9 @@
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="AP143" t="str">
+      <c r="AP143">
         <f t="shared" si="34"/>
-        <v/>
+        <v>-3.7550235350680694E-5</v>
       </c>
       <c r="AQ143" t="str">
         <f t="shared" si="35"/>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="Q158">
         <f t="shared" si="24"/>
-        <v>4.7091154370451749E-2</v>
+        <v>3.3066768284258363E-2</v>
       </c>
       <c r="R158">
         <f t="shared" si="25"/>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="T158">
         <f t="shared" si="27"/>
-        <v>6.6869439206041478E-2</v>
+        <v>4.695481096364687E-2</v>
       </c>
       <c r="U158">
         <f t="shared" si="28"/>
@@ -17171,7 +17171,7 @@
       </c>
       <c r="AL158">
         <f t="shared" si="30"/>
-        <v>4.7091154370451749E-2</v>
+        <v>3.3066768284258363E-2</v>
       </c>
       <c r="AM158">
         <f t="shared" si="31"/>
@@ -17183,7 +17183,7 @@
       </c>
       <c r="AO158">
         <f t="shared" si="33"/>
-        <v>1.9778284835589729E-2</v>
+        <v>1.3888042679388507E-2</v>
       </c>
       <c r="AP158" t="str">
         <f t="shared" si="34"/>
@@ -18478,7 +18478,7 @@
       </c>
       <c r="R172">
         <f t="shared" si="25"/>
-        <v>9.8340920588185221E-3</v>
+        <v>1.0329873007307866E-2</v>
       </c>
       <c r="S172">
         <f t="shared" si="26"/>
@@ -18502,7 +18502,7 @@
       </c>
       <c r="AM172">
         <f t="shared" si="31"/>
-        <v>9.8340920588185221E-3</v>
+        <v>1.0329873007307866E-2</v>
       </c>
       <c r="AN172">
         <f t="shared" si="32"/>
@@ -18514,7 +18514,7 @@
       </c>
       <c r="AP172">
         <f t="shared" si="34"/>
-        <v>-9.8340920588185221E-3</v>
+        <v>-1.0329873007307866E-2</v>
       </c>
       <c r="AQ172" t="str">
         <f t="shared" si="35"/>
@@ -21079,7 +21079,7 @@
       </c>
       <c r="R199">
         <f t="shared" si="37"/>
-        <v>3.1237701184956002E-2</v>
+        <v>3.2190930899120895E-2</v>
       </c>
       <c r="S199">
         <f t="shared" si="38"/>
@@ -21103,7 +21103,7 @@
       </c>
       <c r="AM199">
         <f t="shared" si="43"/>
-        <v>3.1237701184956002E-2</v>
+        <v>3.2190930899120895E-2</v>
       </c>
       <c r="AN199">
         <f t="shared" si="44"/>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="AP199">
         <f t="shared" si="46"/>
-        <v>-3.1237701184956002E-2</v>
+        <v>-3.2190930899120895E-2</v>
       </c>
       <c r="AQ199" t="str">
         <f t="shared" si="47"/>
@@ -22197,7 +22197,7 @@
       </c>
       <c r="Q211">
         <f t="shared" si="36"/>
-        <v>4.4928794081906531E-3</v>
+        <v>0</v>
       </c>
       <c r="R211">
         <f t="shared" si="37"/>
@@ -22209,7 +22209,7 @@
       </c>
       <c r="T211">
         <f t="shared" si="39"/>
-        <v>6.3798887596307275E-3</v>
+        <v>0</v>
       </c>
       <c r="U211">
         <f t="shared" si="40"/>
@@ -22221,7 +22221,7 @@
       </c>
       <c r="AL211">
         <f t="shared" si="42"/>
-        <v>4.4928794081906531E-3</v>
+        <v>0</v>
       </c>
       <c r="AM211">
         <f t="shared" si="43"/>
@@ -22231,9 +22231,9 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AO211">
+      <c r="AO211" t="str">
         <f t="shared" si="45"/>
-        <v>1.8870093514400743E-3</v>
+        <v/>
       </c>
       <c r="AP211" t="str">
         <f t="shared" si="46"/>
@@ -23471,7 +23471,7 @@
       </c>
       <c r="Q224">
         <f t="shared" si="36"/>
-        <v>7.7662392867211827E-3</v>
+        <v>9.238137411033881E-3</v>
       </c>
       <c r="R224">
         <f t="shared" si="37"/>
@@ -23495,7 +23495,7 @@
       </c>
       <c r="AL224">
         <f t="shared" si="42"/>
-        <v>7.7662392867211827E-3</v>
+        <v>9.238137411033881E-3</v>
       </c>
       <c r="AM224">
         <f t="shared" si="43"/>
@@ -23507,7 +23507,7 @@
       </c>
       <c r="AO224">
         <f t="shared" si="45"/>
-        <v>-7.7662392867211827E-3</v>
+        <v>-9.238137411033881E-3</v>
       </c>
       <c r="AP224" t="str">
         <f t="shared" si="46"/>
@@ -23765,7 +23765,7 @@
       </c>
       <c r="Q227">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.0186863487082753E-5</v>
       </c>
       <c r="R227">
         <f t="shared" si="37"/>
@@ -23789,7 +23789,7 @@
       </c>
       <c r="AL227">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1.0186863487082753E-5</v>
       </c>
       <c r="AM227">
         <f t="shared" si="43"/>
@@ -23799,9 +23799,9 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AO227" t="str">
+      <c r="AO227">
         <f t="shared" si="45"/>
-        <v/>
+        <v>-1.0186863487082753E-5</v>
       </c>
       <c r="AP227" t="str">
         <f t="shared" si="46"/>
@@ -25431,7 +25431,7 @@
       </c>
       <c r="Q244">
         <f t="shared" si="36"/>
-        <v>3.5702808406174791E-2</v>
+        <v>2.0826195874195652E-2</v>
       </c>
       <c r="R244">
         <f t="shared" si="37"/>
@@ -25455,7 +25455,7 @@
       </c>
       <c r="AL244">
         <f t="shared" si="42"/>
-        <v>3.5702808406174791E-2</v>
+        <v>2.0826195874195652E-2</v>
       </c>
       <c r="AM244">
         <f t="shared" si="43"/>
@@ -25467,7 +25467,7 @@
       </c>
       <c r="AO244">
         <f t="shared" si="45"/>
-        <v>-3.5702808406174791E-2</v>
+        <v>-2.0826195874195652E-2</v>
       </c>
       <c r="AP244" t="str">
         <f t="shared" si="46"/>
@@ -26611,7 +26611,7 @@
       </c>
       <c r="R256">
         <f t="shared" si="37"/>
-        <v>4.6395075690106008E-2</v>
+        <v>4.7854113205192894E-2</v>
       </c>
       <c r="S256">
         <f t="shared" si="38"/>
@@ -26623,7 +26623,7 @@
       </c>
       <c r="U256">
         <f t="shared" si="40"/>
-        <v>0.18558030276042403</v>
+        <v>0.19141645282077158</v>
       </c>
       <c r="V256">
         <f t="shared" si="41"/>
@@ -26635,7 +26635,7 @@
       </c>
       <c r="AM256">
         <f t="shared" si="43"/>
-        <v>4.6395075690106008E-2</v>
+        <v>4.7854113205192894E-2</v>
       </c>
       <c r="AN256">
         <f t="shared" si="44"/>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="AP256">
         <f t="shared" si="46"/>
-        <v>0.13918522707031802</v>
+        <v>0.14356233961557868</v>
       </c>
       <c r="AQ256" t="str">
         <f t="shared" si="47"/>
@@ -26807,7 +26807,7 @@
       </c>
       <c r="R258">
         <f t="shared" ref="R258:R321" si="49">IF((($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1)&lt;0, 0,(($AC$1*F258)^($AB$1))-(1-(($AC$1*F258)^($AB$1)))/(I258-1))</f>
-        <v>3.3040007916560477E-3</v>
+        <v>5.1691409905404995E-3</v>
       </c>
       <c r="S258">
         <f t="shared" ref="S258:S321" si="50">IF((($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1)&lt;0, 0,(($AC$1*G258)^($AB$1))-(1-(($AC$1*G258)^($AB$1)))/(J258-1))</f>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="AM258">
         <f t="shared" ref="AM258:AM321" si="55">R258*COUNT(O258)</f>
-        <v>3.3040007916560477E-3</v>
+        <v>5.1691409905404995E-3</v>
       </c>
       <c r="AN258">
         <f t="shared" ref="AN258:AN321" si="56">S258*COUNT(P258)</f>
@@ -26843,7 +26843,7 @@
       </c>
       <c r="AP258">
         <f t="shared" ref="AP258:AP321" si="58">IF(AM258=0,"",U258-AM258)</f>
-        <v>-3.3040007916560477E-3</v>
+        <v>-5.1691409905404995E-3</v>
       </c>
       <c r="AQ258" t="str">
         <f t="shared" ref="AQ258:AQ321" si="59">IF(AN258=0,"",V258-AN258)</f>
@@ -28567,7 +28567,7 @@
       </c>
       <c r="Q276">
         <f t="shared" si="48"/>
-        <v>9.8840065432044266E-3</v>
+        <v>2.509858079586258E-3</v>
       </c>
       <c r="R276">
         <f t="shared" si="49"/>
@@ -28591,7 +28591,7 @@
       </c>
       <c r="AL276">
         <f t="shared" si="54"/>
-        <v>9.8840065432044266E-3</v>
+        <v>2.509858079586258E-3</v>
       </c>
       <c r="AM276">
         <f t="shared" si="55"/>
@@ -28603,7 +28603,7 @@
       </c>
       <c r="AO276">
         <f t="shared" si="57"/>
-        <v>-9.8840065432044266E-3</v>
+        <v>-2.509858079586258E-3</v>
       </c>
       <c r="AP276" t="str">
         <f t="shared" si="58"/>
@@ -28963,7 +28963,7 @@
       </c>
       <c r="R280">
         <f t="shared" si="49"/>
-        <v>3.5578077791768303E-3</v>
+        <v>5.4380901146388883E-3</v>
       </c>
       <c r="S280">
         <f t="shared" si="50"/>
@@ -28987,7 +28987,7 @@
       </c>
       <c r="AM280">
         <f t="shared" si="55"/>
-        <v>3.5578077791768303E-3</v>
+        <v>5.4380901146388883E-3</v>
       </c>
       <c r="AN280">
         <f t="shared" si="56"/>
@@ -28999,7 +28999,7 @@
       </c>
       <c r="AP280">
         <f t="shared" si="58"/>
-        <v>-3.5578077791768303E-3</v>
+        <v>-5.4380901146388883E-3</v>
       </c>
       <c r="AQ280" t="str">
         <f t="shared" si="59"/>
@@ -29061,7 +29061,7 @@
       </c>
       <c r="R281">
         <f t="shared" si="49"/>
-        <v>3.1373306849841187E-4</v>
+        <v>1.4107811886405197E-3</v>
       </c>
       <c r="S281">
         <f t="shared" si="50"/>
@@ -29073,7 +29073,7 @@
       </c>
       <c r="U281">
         <f t="shared" si="52"/>
-        <v>9.4119920549523561E-4</v>
+        <v>4.2323435659215591E-3</v>
       </c>
       <c r="V281">
         <f t="shared" si="53"/>
@@ -29085,7 +29085,7 @@
       </c>
       <c r="AM281">
         <f t="shared" si="55"/>
-        <v>3.1373306849841187E-4</v>
+        <v>1.4107811886405197E-3</v>
       </c>
       <c r="AN281">
         <f t="shared" si="56"/>
@@ -29097,7 +29097,7 @@
       </c>
       <c r="AP281">
         <f t="shared" si="58"/>
-        <v>6.2746613699682374E-4</v>
+        <v>2.8215623772810394E-3</v>
       </c>
       <c r="AQ281" t="str">
         <f t="shared" si="59"/>
@@ -30028,7 +30028,7 @@
       </c>
       <c r="Q291">
         <f t="shared" si="48"/>
-        <v>1.0267111593903033E-2</v>
+        <v>1.191232941580822E-2</v>
       </c>
       <c r="R291">
         <f t="shared" si="49"/>
@@ -30052,7 +30052,7 @@
       </c>
       <c r="AL291">
         <f t="shared" si="54"/>
-        <v>1.0267111593903033E-2</v>
+        <v>1.191232941580822E-2</v>
       </c>
       <c r="AM291">
         <f t="shared" si="55"/>
@@ -30064,7 +30064,7 @@
       </c>
       <c r="AO291">
         <f t="shared" si="57"/>
-        <v>-1.0267111593903033E-2</v>
+        <v>-1.191232941580822E-2</v>
       </c>
       <c r="AP291" t="str">
         <f t="shared" si="58"/>
@@ -30126,7 +30126,7 @@
       </c>
       <c r="Q292">
         <f t="shared" si="48"/>
-        <v>2.0270632361524266E-4</v>
+        <v>8.4829932906343997E-4</v>
       </c>
       <c r="R292">
         <f t="shared" si="49"/>
@@ -30138,7 +30138,7 @@
       </c>
       <c r="T292">
         <f t="shared" si="51"/>
-        <v>5.4730707376115519E-4</v>
+        <v>2.2904081884712879E-3</v>
       </c>
       <c r="U292">
         <f t="shared" si="52"/>
@@ -30150,7 +30150,7 @@
       </c>
       <c r="AL292">
         <f t="shared" si="54"/>
-        <v>2.0270632361524266E-4</v>
+        <v>8.4829932906343997E-4</v>
       </c>
       <c r="AM292">
         <f t="shared" si="55"/>
@@ -30162,7 +30162,7 @@
       </c>
       <c r="AO292">
         <f t="shared" si="57"/>
-        <v>3.4460075014591254E-4</v>
+        <v>1.4421088594078479E-3</v>
       </c>
       <c r="AP292" t="str">
         <f t="shared" si="58"/>
@@ -30892,7 +30892,7 @@
       </c>
       <c r="Q300">
         <f t="shared" si="48"/>
-        <v>7.4181562339501461E-3</v>
+        <v>8.9484359750241493E-3</v>
       </c>
       <c r="R300">
         <f t="shared" si="49"/>
@@ -30916,7 +30916,7 @@
       </c>
       <c r="AL300">
         <f t="shared" si="54"/>
-        <v>7.4181562339501461E-3</v>
+        <v>8.9484359750241493E-3</v>
       </c>
       <c r="AM300">
         <f t="shared" si="55"/>
@@ -30928,7 +30928,7 @@
       </c>
       <c r="AO300">
         <f t="shared" si="57"/>
-        <v>-7.4181562339501461E-3</v>
+        <v>-8.9484359750241493E-3</v>
       </c>
       <c r="AP300" t="str">
         <f t="shared" si="58"/>
@@ -31756,7 +31756,7 @@
       </c>
       <c r="Q309">
         <f t="shared" si="48"/>
-        <v>1.3531069500425319E-2</v>
+        <v>1.4517427456932575E-2</v>
       </c>
       <c r="R309">
         <f t="shared" si="49"/>
@@ -31780,7 +31780,7 @@
       </c>
       <c r="AL309">
         <f t="shared" si="54"/>
-        <v>1.3531069500425319E-2</v>
+        <v>1.4517427456932575E-2</v>
       </c>
       <c r="AM309">
         <f t="shared" si="55"/>
@@ -31792,7 +31792,7 @@
       </c>
       <c r="AO309">
         <f t="shared" si="57"/>
-        <v>-1.3531069500425319E-2</v>
+        <v>-1.4517427456932575E-2</v>
       </c>
       <c r="AP309" t="str">
         <f t="shared" si="58"/>
@@ -31854,7 +31854,7 @@
       </c>
       <c r="Q310">
         <f t="shared" si="48"/>
-        <v>4.8304810099619733E-4</v>
+        <v>2.147521434608779E-3</v>
       </c>
       <c r="R310">
         <f t="shared" si="49"/>
@@ -31878,7 +31878,7 @@
       </c>
       <c r="AL310">
         <f t="shared" si="54"/>
-        <v>4.8304810099619733E-4</v>
+        <v>2.147521434608779E-3</v>
       </c>
       <c r="AM310">
         <f t="shared" si="55"/>
@@ -31890,7 +31890,7 @@
       </c>
       <c r="AO310">
         <f t="shared" si="57"/>
-        <v>-4.8304810099619733E-4</v>
+        <v>-2.147521434608779E-3</v>
       </c>
       <c r="AP310" t="str">
         <f t="shared" si="58"/>
@@ -32388,7 +32388,7 @@
       </c>
       <c r="Q316">
         <f t="shared" si="48"/>
-        <v>2.6771180909501702E-4</v>
+        <v>1.7266226691451392E-3</v>
       </c>
       <c r="R316">
         <f t="shared" si="49"/>
@@ -32412,7 +32412,7 @@
       </c>
       <c r="AL316">
         <f t="shared" si="54"/>
-        <v>2.6771180909501702E-4</v>
+        <v>1.7266226691451392E-3</v>
       </c>
       <c r="AM316">
         <f t="shared" si="55"/>
@@ -32424,7 +32424,7 @@
       </c>
       <c r="AO316">
         <f t="shared" si="57"/>
-        <v>-2.6771180909501702E-4</v>
+        <v>-1.7266226691451392E-3</v>
       </c>
       <c r="AP316" t="str">
         <f t="shared" si="58"/>
@@ -33466,7 +33466,7 @@
       </c>
       <c r="Q327">
         <f t="shared" si="60"/>
-        <v>3.9060931943699972E-2</v>
+        <v>4.0339542586485866E-2</v>
       </c>
       <c r="R327">
         <f t="shared" si="61"/>
@@ -33478,7 +33478,7 @@
       </c>
       <c r="T327">
         <f t="shared" si="63"/>
-        <v>0.13866630840013489</v>
+        <v>0.14320537618202481</v>
       </c>
       <c r="U327">
         <f t="shared" si="64"/>
@@ -33490,7 +33490,7 @@
       </c>
       <c r="AL327">
         <f t="shared" si="66"/>
-        <v>3.9060931943699972E-2</v>
+        <v>4.0339542586485866E-2</v>
       </c>
       <c r="AM327">
         <f t="shared" si="67"/>
@@ -33502,7 +33502,7 @@
       </c>
       <c r="AO327">
         <f t="shared" si="69"/>
-        <v>9.9605376456434913E-2</v>
+        <v>0.10286583359553894</v>
       </c>
       <c r="AP327" t="str">
         <f t="shared" si="70"/>
@@ -34250,7 +34250,7 @@
       </c>
       <c r="Q335">
         <f t="shared" si="60"/>
-        <v>5.2536831619107438E-3</v>
+        <v>7.0640140924776718E-3</v>
       </c>
       <c r="R335">
         <f t="shared" si="61"/>
@@ -34274,7 +34274,7 @@
       </c>
       <c r="AL335">
         <f t="shared" si="66"/>
-        <v>5.2536831619107438E-3</v>
+        <v>7.0640140924776718E-3</v>
       </c>
       <c r="AM335">
         <f t="shared" si="67"/>
@@ -34286,7 +34286,7 @@
       </c>
       <c r="AO335">
         <f t="shared" si="69"/>
-        <v>-5.2536831619107438E-3</v>
+        <v>-7.0640140924776718E-3</v>
       </c>
       <c r="AP335" t="str">
         <f t="shared" si="70"/>
@@ -34642,7 +34642,7 @@
       </c>
       <c r="Q339">
         <f t="shared" si="60"/>
-        <v>5.7501448152491141E-2</v>
+        <v>4.9865349554136906E-2</v>
       </c>
       <c r="R339">
         <f t="shared" si="61"/>
@@ -34666,7 +34666,7 @@
       </c>
       <c r="AL339">
         <f t="shared" si="66"/>
-        <v>5.7501448152491141E-2</v>
+        <v>4.9865349554136906E-2</v>
       </c>
       <c r="AM339">
         <f t="shared" si="67"/>
@@ -34678,7 +34678,7 @@
       </c>
       <c r="AO339">
         <f t="shared" si="69"/>
-        <v>-5.7501448152491141E-2</v>
+        <v>-4.9865349554136906E-2</v>
       </c>
       <c r="AP339" t="str">
         <f t="shared" si="70"/>
@@ -34744,7 +34744,7 @@
       </c>
       <c r="R340">
         <f t="shared" si="61"/>
-        <v>4.0784015013831221E-2</v>
+        <v>3.6079405196194791E-2</v>
       </c>
       <c r="S340">
         <f t="shared" si="62"/>
@@ -34768,7 +34768,7 @@
       </c>
       <c r="AM340">
         <f t="shared" si="67"/>
-        <v>4.0784015013831221E-2</v>
+        <v>3.6079405196194791E-2</v>
       </c>
       <c r="AN340">
         <f t="shared" si="68"/>
@@ -34780,7 +34780,7 @@
       </c>
       <c r="AP340">
         <f t="shared" si="70"/>
-        <v>-4.0784015013831221E-2</v>
+        <v>-3.6079405196194791E-2</v>
       </c>
       <c r="AQ340" t="str">
         <f t="shared" si="71"/>
@@ -34838,7 +34838,7 @@
       </c>
       <c r="Q341">
         <f t="shared" si="60"/>
-        <v>0.13774055713216982</v>
+        <v>0.1284302322027574</v>
       </c>
       <c r="R341">
         <f t="shared" si="61"/>
@@ -34862,7 +34862,7 @@
       </c>
       <c r="AL341">
         <f t="shared" si="66"/>
-        <v>0.13774055713216982</v>
+        <v>0.1284302322027574</v>
       </c>
       <c r="AM341">
         <f t="shared" si="67"/>
@@ -34874,7 +34874,7 @@
       </c>
       <c r="AO341">
         <f t="shared" si="69"/>
-        <v>-0.13774055713216982</v>
+        <v>-0.1284302322027574</v>
       </c>
       <c r="AP341" t="str">
         <f t="shared" si="70"/>
@@ -35524,7 +35524,7 @@
       </c>
       <c r="Q348">
         <f t="shared" si="60"/>
-        <v>2.1045485890653359E-2</v>
+        <v>9.6209724488974802E-3</v>
       </c>
       <c r="R348">
         <f t="shared" si="61"/>
@@ -35536,7 +35536,7 @@
       </c>
       <c r="T348">
         <f t="shared" si="63"/>
-        <v>3.0936864259260437E-2</v>
+        <v>1.4142829499879295E-2</v>
       </c>
       <c r="U348">
         <f t="shared" si="64"/>
@@ -35548,7 +35548,7 @@
       </c>
       <c r="AL348">
         <f t="shared" si="66"/>
-        <v>2.1045485890653359E-2</v>
+        <v>9.6209724488974802E-3</v>
       </c>
       <c r="AM348">
         <f t="shared" si="67"/>
@@ -35560,7 +35560,7 @@
       </c>
       <c r="AO348">
         <f t="shared" si="69"/>
-        <v>9.8913783686070782E-3</v>
+        <v>4.5218570509818149E-3</v>
       </c>
       <c r="AP348" t="str">
         <f t="shared" si="70"/>
@@ -35720,7 +35720,7 @@
       </c>
       <c r="Q350">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>6.064864758824548E-4</v>
       </c>
       <c r="R350">
         <f t="shared" si="61"/>
@@ -35744,7 +35744,7 @@
       </c>
       <c r="AL350">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6.064864758824548E-4</v>
       </c>
       <c r="AM350">
         <f t="shared" si="67"/>
@@ -35754,9 +35754,9 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AO350" t="str">
+      <c r="AO350">
         <f t="shared" si="69"/>
-        <v/>
+        <v>-6.064864758824548E-4</v>
       </c>
       <c r="AP350" t="str">
         <f t="shared" si="70"/>
@@ -36103,7 +36103,7 @@
       </c>
       <c r="Q354">
         <f t="shared" si="60"/>
-        <v>2.1556480993317972E-2</v>
+        <v>2.2740239555108011E-2</v>
       </c>
       <c r="R354">
         <f t="shared" si="61"/>
@@ -36127,7 +36127,7 @@
       </c>
       <c r="AL354">
         <f t="shared" si="66"/>
-        <v>2.1556480993317972E-2</v>
+        <v>2.2740239555108011E-2</v>
       </c>
       <c r="AM354">
         <f t="shared" si="67"/>
@@ -36139,7 +36139,7 @@
       </c>
       <c r="AO354">
         <f t="shared" si="69"/>
-        <v>-2.1556480993317972E-2</v>
+        <v>-2.2740239555108011E-2</v>
       </c>
       <c r="AP354" t="str">
         <f t="shared" si="70"/>
@@ -36887,7 +36887,7 @@
       </c>
       <c r="Q362">
         <f t="shared" si="60"/>
-        <v>5.946915881929582E-3</v>
+        <v>7.5122693930824158E-3</v>
       </c>
       <c r="R362">
         <f t="shared" si="61"/>
@@ -36911,7 +36911,7 @@
       </c>
       <c r="AL362">
         <f t="shared" si="66"/>
-        <v>5.946915881929582E-3</v>
+        <v>7.5122693930824158E-3</v>
       </c>
       <c r="AM362">
         <f t="shared" si="67"/>
@@ -36923,7 +36923,7 @@
       </c>
       <c r="AO362">
         <f t="shared" si="69"/>
-        <v>-5.946915881929582E-3</v>
+        <v>-7.5122693930824158E-3</v>
       </c>
       <c r="AP362" t="str">
         <f t="shared" si="70"/>
@@ -38161,7 +38161,7 @@
       </c>
       <c r="Q375">
         <f t="shared" si="60"/>
-        <v>5.3311853259855324E-3</v>
+        <v>0</v>
       </c>
       <c r="R375">
         <f t="shared" si="61"/>
@@ -38173,7 +38173,7 @@
       </c>
       <c r="T375">
         <f t="shared" si="63"/>
-        <v>7.9967779889782986E-3</v>
+        <v>0</v>
       </c>
       <c r="U375">
         <f t="shared" si="64"/>
@@ -38185,7 +38185,7 @@
       </c>
       <c r="AL375">
         <f t="shared" si="66"/>
-        <v>5.3311853259855324E-3</v>
+        <v>0</v>
       </c>
       <c r="AM375">
         <f t="shared" si="67"/>
@@ -38195,9 +38195,9 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="AO375">
+      <c r="AO375" t="str">
         <f t="shared" si="69"/>
-        <v>2.6655926629927662E-3</v>
+        <v/>
       </c>
       <c r="AP375" t="str">
         <f t="shared" si="70"/>
@@ -39426,7 +39426,7 @@
       </c>
       <c r="Q388">
         <f t="shared" si="72"/>
-        <v>7.9041722145047899E-3</v>
+        <v>0</v>
       </c>
       <c r="R388">
         <f t="shared" si="73"/>
@@ -39438,7 +39438,7 @@
       </c>
       <c r="T388">
         <f t="shared" si="75"/>
-        <v>1.0749674211726516E-2</v>
+        <v>0</v>
       </c>
       <c r="U388">
         <f t="shared" si="76"/>
@@ -39450,7 +39450,7 @@
       </c>
       <c r="AL388">
         <f t="shared" si="78"/>
-        <v>7.9041722145047899E-3</v>
+        <v>0</v>
       </c>
       <c r="AM388">
         <f t="shared" si="79"/>
@@ -39460,9 +39460,9 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="AO388">
+      <c r="AO388" t="str">
         <f t="shared" si="81"/>
-        <v>2.8455019972217256E-3</v>
+        <v/>
       </c>
       <c r="AP388" t="str">
         <f t="shared" si="82"/>
@@ -41252,7 +41252,7 @@
       </c>
       <c r="Q407">
         <f t="shared" si="72"/>
-        <v>3.7053732818544127E-3</v>
+        <v>5.5943403043187401E-3</v>
       </c>
       <c r="R407">
         <f t="shared" si="73"/>
@@ -41276,7 +41276,7 @@
       </c>
       <c r="AL407">
         <f t="shared" si="78"/>
-        <v>3.7053732818544127E-3</v>
+        <v>5.5943403043187401E-3</v>
       </c>
       <c r="AM407">
         <f t="shared" si="79"/>
@@ -41288,7 +41288,7 @@
       </c>
       <c r="AO407">
         <f t="shared" si="81"/>
-        <v>-3.7053732818544127E-3</v>
+        <v>-5.5943403043187401E-3</v>
       </c>
       <c r="AP407" t="str">
         <f t="shared" si="82"/>
@@ -41354,7 +41354,7 @@
       </c>
       <c r="R408">
         <f t="shared" si="73"/>
-        <v>1.9618951855791489E-2</v>
+        <v>2.1277110705943014E-2</v>
       </c>
       <c r="S408">
         <f t="shared" si="74"/>
@@ -41378,7 +41378,7 @@
       </c>
       <c r="AM408">
         <f t="shared" si="79"/>
-        <v>1.9618951855791489E-2</v>
+        <v>2.1277110705943014E-2</v>
       </c>
       <c r="AN408">
         <f t="shared" si="80"/>
@@ -41390,7 +41390,7 @@
       </c>
       <c r="AP408">
         <f t="shared" si="82"/>
-        <v>-1.9618951855791489E-2</v>
+        <v>-2.1277110705943014E-2</v>
       </c>
       <c r="AQ408" t="str">
         <f t="shared" si="83"/>
@@ -41452,7 +41452,7 @@
       </c>
       <c r="R409">
         <f t="shared" si="73"/>
-        <v>1.9101378161936272E-2</v>
+        <v>2.0857227412532098E-2</v>
       </c>
       <c r="S409">
         <f t="shared" si="74"/>
@@ -41476,7 +41476,7 @@
       </c>
       <c r="AM409">
         <f t="shared" si="79"/>
-        <v>1.9101378161936272E-2</v>
+        <v>2.0857227412532098E-2</v>
       </c>
       <c r="AN409">
         <f t="shared" si="80"/>
@@ -41488,7 +41488,7 @@
       </c>
       <c r="AP409">
         <f t="shared" si="82"/>
-        <v>-1.9101378161936272E-2</v>
+        <v>-2.0857227412532098E-2</v>
       </c>
       <c r="AQ409" t="str">
         <f t="shared" si="83"/>
@@ -41550,7 +41550,7 @@
       </c>
       <c r="R410">
         <f t="shared" si="73"/>
-        <v>7.787503178082375E-2</v>
+        <v>7.9521518823298248E-2</v>
       </c>
       <c r="S410">
         <f t="shared" si="74"/>
@@ -41574,7 +41574,7 @@
       </c>
       <c r="AM410">
         <f t="shared" si="79"/>
-        <v>7.787503178082375E-2</v>
+        <v>7.9521518823298248E-2</v>
       </c>
       <c r="AN410">
         <f t="shared" si="80"/>
@@ -41586,7 +41586,7 @@
       </c>
       <c r="AP410">
         <f t="shared" si="82"/>
-        <v>-7.787503178082375E-2</v>
+        <v>-7.9521518823298248E-2</v>
       </c>
       <c r="AQ410" t="str">
         <f t="shared" si="83"/>
@@ -43999,7 +43999,7 @@
       </c>
       <c r="R436">
         <f t="shared" si="73"/>
-        <v>0.1119179804032619</v>
+        <v>0.11298582262136994</v>
       </c>
       <c r="S436">
         <f t="shared" si="74"/>
@@ -44023,7 +44023,7 @@
       </c>
       <c r="AM436">
         <f t="shared" si="79"/>
-        <v>0.1119179804032619</v>
+        <v>0.11298582262136994</v>
       </c>
       <c r="AN436">
         <f t="shared" si="80"/>
@@ -44035,7 +44035,7 @@
       </c>
       <c r="AP436">
         <f t="shared" si="82"/>
-        <v>-0.1119179804032619</v>
+        <v>-0.11298582262136994</v>
       </c>
       <c r="AQ436" t="str">
         <f t="shared" si="83"/>
@@ -44658,7 +44658,7 @@
       </c>
       <c r="R443">
         <f t="shared" si="73"/>
-        <v>7.6303674788240183E-2</v>
+        <v>7.5687994163197436E-2</v>
       </c>
       <c r="S443">
         <f t="shared" si="74"/>
@@ -46715,7 +46715,7 @@
       </c>
       <c r="R465">
         <f t="shared" si="85"/>
-        <v>3.8446861312668668E-2</v>
+        <v>3.939343909949522E-2</v>
       </c>
       <c r="S465">
         <f t="shared" si="86"/>
@@ -46739,7 +46739,7 @@
       </c>
       <c r="AM465">
         <f t="shared" si="91"/>
-        <v>3.8446861312668668E-2</v>
+        <v>3.939343909949522E-2</v>
       </c>
       <c r="AN465">
         <f t="shared" si="92"/>
@@ -46751,7 +46751,7 @@
       </c>
       <c r="AP465">
         <f t="shared" si="94"/>
-        <v>-3.8446861312668668E-2</v>
+        <v>-3.939343909949522E-2</v>
       </c>
       <c r="AQ465" t="str">
         <f t="shared" si="95"/>
@@ -46878,13 +46878,13 @@
         <v>47</v>
       </c>
       <c r="E468">
-        <v>0.38408068592236322</v>
+        <v>0.38401571586850819</v>
       </c>
       <c r="F468">
-        <v>0.3144018288436552</v>
+        <v>0.31409402914859691</v>
       </c>
       <c r="G468">
-        <v>0.30151748523398159</v>
+        <v>0.3018902549828949</v>
       </c>
       <c r="H468">
         <v>2.9</v>
@@ -46893,7 +46893,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J468">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K468" t="s">
         <v>48</v>
@@ -46931,13 +46931,13 @@
         <v>47</v>
       </c>
       <c r="E469">
-        <v>0.35328461573466308</v>
+        <v>0.35394373514702843</v>
       </c>
       <c r="F469">
-        <v>0.36068870016990928</v>
+        <v>0.35976134279335681</v>
       </c>
       <c r="G469">
-        <v>0.28602668409542759</v>
+        <v>0.28629492205961471</v>
       </c>
       <c r="H469">
         <v>3.05</v>
@@ -47037,16 +47037,16 @@
         <v>47</v>
       </c>
       <c r="E471">
-        <v>0.46349680736829191</v>
+        <v>0.46347117809689931</v>
       </c>
       <c r="F471">
-        <v>0.26248591461261278</v>
+        <v>0.26237831923690841</v>
       </c>
       <c r="G471">
-        <v>0.27401727801909542</v>
+        <v>0.27415050266619229</v>
       </c>
       <c r="H471">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I471">
         <v>3.65</v>
@@ -47090,13 +47090,13 @@
         <v>59</v>
       </c>
       <c r="E472">
-        <v>0.33731489349310012</v>
+        <v>0.33857669950844488</v>
       </c>
       <c r="F472">
-        <v>0.38434309650946452</v>
+        <v>0.38262713447103319</v>
       </c>
       <c r="G472">
-        <v>0.27834200999743541</v>
+        <v>0.27879616602052187</v>
       </c>
       <c r="H472">
         <v>3.3</v>
@@ -47143,31 +47143,31 @@
         <v>56</v>
       </c>
       <c r="E473">
-        <v>0.26636527229191509</v>
+        <v>0.26275234352385279</v>
       </c>
       <c r="F473">
-        <v>0.48711949357210282</v>
+        <v>0.4921456061577737</v>
       </c>
       <c r="G473">
-        <v>0.246515234135982</v>
+        <v>0.24510205031837359</v>
       </c>
       <c r="H473">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I473">
         <v>1.98</v>
       </c>
       <c r="J473">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K473" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L473" t="s">
         <v>49</v>
       </c>
       <c r="M473" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q473">
         <f t="shared" si="84"/>
@@ -47196,13 +47196,13 @@
         <v>41</v>
       </c>
       <c r="E474">
-        <v>0.61765314910497515</v>
+        <v>0.61379033579011455</v>
       </c>
       <c r="F474">
-        <v>0.1579630283824891</v>
+        <v>0.16039602054554539</v>
       </c>
       <c r="G474">
-        <v>0.2243838225125358</v>
+        <v>0.22581364366434001</v>
       </c>
       <c r="H474">
         <v>1.55</v>
@@ -47249,22 +47249,22 @@
         <v>69</v>
       </c>
       <c r="E475">
-        <v>0.38765725205966978</v>
+        <v>0.38862989211259069</v>
       </c>
       <c r="F475">
-        <v>0.31534321137528332</v>
+        <v>0.31381720360050441</v>
       </c>
       <c r="G475">
-        <v>0.29699953656504691</v>
+        <v>0.29755290428690478</v>
       </c>
       <c r="H475">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="I475">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="J475">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="K475" t="s">
         <v>49</v>
@@ -47302,22 +47302,22 @@
         <v>69</v>
       </c>
       <c r="E476">
-        <v>0.33010345377250749</v>
+        <v>0.3312719334988784</v>
       </c>
       <c r="F476">
-        <v>0.37428006943121439</v>
+        <v>0.37258490530416433</v>
       </c>
       <c r="G476">
-        <v>0.29561647679627789</v>
+        <v>0.29614316119695733</v>
       </c>
       <c r="H476">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I476">
         <v>2.2000000000000002</v>
       </c>
       <c r="J476">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K476" t="s">
         <v>49</v>
@@ -47355,19 +47355,19 @@
         <v>69</v>
       </c>
       <c r="E477">
-        <v>0.43652219741588971</v>
+        <v>0.43526877320960178</v>
       </c>
       <c r="F477">
-        <v>0.28042347427235248</v>
+        <v>0.28108899911787782</v>
       </c>
       <c r="G477">
-        <v>0.28305432831175792</v>
+        <v>0.28364222767252051</v>
       </c>
       <c r="H477">
-        <v>2.0699999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I477">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J477">
         <v>3.15</v>
@@ -47408,13 +47408,13 @@
         <v>66</v>
       </c>
       <c r="E478">
-        <v>0.20386668505234651</v>
+        <v>0.20297716541979791</v>
       </c>
       <c r="F478">
-        <v>0.56271056582012668</v>
+        <v>0.56425086977452443</v>
       </c>
       <c r="G478">
-        <v>0.23342274912752681</v>
+        <v>0.23277196480567769</v>
       </c>
       <c r="H478">
         <v>6</v>
@@ -47436,7 +47436,7 @@
       </c>
       <c r="Q478">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>8.3409996343000725E-4</v>
       </c>
       <c r="R478">
         <f t="shared" si="85"/>
@@ -47461,22 +47461,22 @@
         <v>186</v>
       </c>
       <c r="E479">
-        <v>0.57571734436716304</v>
+        <v>0.57356531738816807</v>
       </c>
       <c r="F479">
-        <v>0.19537355735952</v>
+        <v>0.19664045440682579</v>
       </c>
       <c r="G479">
-        <v>0.2289090982733169</v>
+        <v>0.22979422820500611</v>
       </c>
       <c r="H479">
         <v>1.78</v>
       </c>
       <c r="I479">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J479">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K479" t="s">
         <v>49</v>
@@ -47514,22 +47514,22 @@
         <v>87</v>
       </c>
       <c r="E480">
-        <v>0.43659695098616191</v>
+        <v>0.43554943191886308</v>
       </c>
       <c r="F480">
-        <v>0.28834528529317283</v>
+        <v>0.28945690529385032</v>
       </c>
       <c r="G480">
-        <v>0.27505776372066548</v>
+        <v>0.27499366278728671</v>
       </c>
       <c r="H480">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I480">
-        <v>4.1500000000000004</v>
+        <v>4.05</v>
       </c>
       <c r="J480">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K480" t="s">
         <v>48</v>
@@ -47546,7 +47546,7 @@
       </c>
       <c r="R480">
         <f t="shared" si="85"/>
-        <v>8.5187070699036249E-3</v>
+        <v>3.8688630407170133E-3</v>
       </c>
       <c r="S480">
         <f t="shared" si="86"/>
@@ -47567,22 +47567,22 @@
         <v>84</v>
       </c>
       <c r="E481">
-        <v>0.42241931333226229</v>
+        <v>0.40753476949966361</v>
       </c>
       <c r="F481">
-        <v>0.29620585491465068</v>
+        <v>0.31015171869562153</v>
       </c>
       <c r="G481">
-        <v>0.28137483175308708</v>
+        <v>0.28231351180471492</v>
       </c>
       <c r="H481">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I481">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J481">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K481" t="s">
         <v>48</v>
@@ -47620,13 +47620,13 @@
         <v>92</v>
       </c>
       <c r="E482">
-        <v>0.43051183927922548</v>
+        <v>0.42864470630903961</v>
       </c>
       <c r="F482">
-        <v>0.30263843178324379</v>
+        <v>0.3044420514381187</v>
       </c>
       <c r="G482">
-        <v>0.26684972893753078</v>
+        <v>0.26691324225284169</v>
       </c>
       <c r="H482">
         <v>2.15</v>
@@ -47635,7 +47635,7 @@
         <v>3.2</v>
       </c>
       <c r="J482">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K482" t="s">
         <v>48</v>
@@ -47644,7 +47644,7 @@
         <v>48</v>
       </c>
       <c r="M482" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q482">
         <f t="shared" si="84"/>
@@ -47673,22 +47673,22 @@
         <v>92</v>
       </c>
       <c r="E483">
-        <v>0.66047585186856983</v>
+        <v>0.66691440801968926</v>
       </c>
       <c r="F483">
-        <v>0.14210515997607329</v>
+        <v>0.1382400625099387</v>
       </c>
       <c r="G483">
-        <v>0.19741898815535691</v>
+        <v>0.19484552947037201</v>
       </c>
       <c r="H483">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="I483">
         <v>6</v>
       </c>
       <c r="J483">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="K483" t="s">
         <v>49</v>
@@ -47726,13 +47726,13 @@
         <v>92</v>
       </c>
       <c r="E484">
-        <v>0.62513843442921357</v>
+        <v>0.62611273127966305</v>
       </c>
       <c r="F484">
-        <v>0.16349480410443959</v>
+        <v>0.16291289907596099</v>
       </c>
       <c r="G484">
-        <v>0.21136676146634681</v>
+        <v>0.21097436964437599</v>
       </c>
       <c r="H484">
         <v>1.47</v>
@@ -47832,22 +47832,22 @@
         <v>74</v>
       </c>
       <c r="E486">
-        <v>0.43809721251956241</v>
+        <v>0.43278231072650619</v>
       </c>
       <c r="F486">
-        <v>0.30453587900285151</v>
+        <v>0.30898707732690123</v>
       </c>
       <c r="G486">
-        <v>0.25736690847758598</v>
+        <v>0.25823061194659258</v>
       </c>
       <c r="H486">
-        <v>2.0499999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="I486">
         <v>3.1</v>
       </c>
       <c r="J486">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K486" t="s">
         <v>48</v>
@@ -47885,22 +47885,22 @@
         <v>163</v>
       </c>
       <c r="E487">
-        <v>0.51807355638399832</v>
+        <v>0.51036356249547277</v>
       </c>
       <c r="F487">
-        <v>0.23111641197349689</v>
+        <v>0.23610717390514629</v>
       </c>
       <c r="G487">
-        <v>0.25081003164250493</v>
+        <v>0.25352926359938088</v>
       </c>
       <c r="H487">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="I487">
-        <v>4.55</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J487">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K487" t="s">
         <v>48</v>
@@ -47938,22 +47938,22 @@
         <v>74</v>
       </c>
       <c r="E488">
-        <v>0.49575238832378121</v>
+        <v>0.49286201291814707</v>
       </c>
       <c r="F488">
-        <v>0.25202458854170912</v>
+        <v>0.25433244422704893</v>
       </c>
       <c r="G488">
-        <v>0.25222302313450973</v>
+        <v>0.25280554285480389</v>
       </c>
       <c r="H488">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I488">
         <v>3.9</v>
       </c>
       <c r="J488">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K488" t="s">
         <v>48</v>
@@ -47991,13 +47991,13 @@
         <v>74</v>
       </c>
       <c r="E489">
-        <v>0.40056663150777311</v>
+        <v>0.40108721599122438</v>
       </c>
       <c r="F489">
-        <v>0.31908319535565921</v>
+        <v>0.31831993086365618</v>
       </c>
       <c r="G489">
-        <v>0.28035017313656779</v>
+        <v>0.2805928531451195</v>
       </c>
       <c r="H489">
         <v>2.5499999999999998</v>
@@ -48044,13 +48044,13 @@
         <v>77</v>
       </c>
       <c r="E490">
-        <v>0.54458215655787767</v>
+        <v>0.5449403269026688</v>
       </c>
       <c r="F490">
-        <v>0.20386774962359019</v>
+        <v>0.20309057365387159</v>
       </c>
       <c r="G490">
-        <v>0.25155009381853222</v>
+        <v>0.25196909944345958</v>
       </c>
       <c r="H490">
         <v>1.0009999999999999</v>
@@ -48088,13 +48088,13 @@
         <v>59</v>
       </c>
       <c r="E491">
-        <v>0.50518417612206989</v>
+        <v>0.50552410659172964</v>
       </c>
       <c r="F491">
-        <v>0.24001401921624099</v>
+        <v>0.2397483407280501</v>
       </c>
       <c r="G491">
-        <v>0.25480180466168922</v>
+        <v>0.25472755268022029</v>
       </c>
       <c r="H491">
         <v>1.75</v>
@@ -48141,13 +48141,13 @@
         <v>74</v>
       </c>
       <c r="E492">
-        <v>0.36140460909825117</v>
+        <v>0.3618345801435463</v>
       </c>
       <c r="F492">
-        <v>0.37440378359594301</v>
+        <v>0.37396630639467748</v>
       </c>
       <c r="G492">
-        <v>0.26419160730580582</v>
+        <v>0.2641991134617761</v>
       </c>
       <c r="H492">
         <v>2.75</v>
@@ -48194,19 +48194,19 @@
         <v>59</v>
       </c>
       <c r="E493">
-        <v>0.40494590175001682</v>
+        <v>0.40292663508453919</v>
       </c>
       <c r="F493">
-        <v>0.3064936091753544</v>
+        <v>0.30847507692858828</v>
       </c>
       <c r="G493">
-        <v>0.28856048907462878</v>
+        <v>0.28859828798687243</v>
       </c>
       <c r="H493">
         <v>2.25</v>
       </c>
       <c r="I493">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J493">
         <v>3</v>
@@ -48300,13 +48300,13 @@
         <v>74</v>
       </c>
       <c r="E495">
-        <v>0.52741044259017522</v>
+        <v>0.528171315335077</v>
       </c>
       <c r="F495">
-        <v>0.23013451970174981</v>
+        <v>0.22963423655152859</v>
       </c>
       <c r="G495">
-        <v>0.24245503770807511</v>
+        <v>0.24219444811339449</v>
       </c>
       <c r="H495">
         <v>1.86</v>
@@ -48353,13 +48353,13 @@
         <v>74</v>
       </c>
       <c r="E496">
-        <v>0.47535719124588899</v>
+        <v>0.47500906854184882</v>
       </c>
       <c r="F496">
-        <v>0.27128644623843229</v>
+        <v>0.27159651289138947</v>
       </c>
       <c r="G496">
-        <v>0.25335636251567872</v>
+        <v>0.25339441856676148</v>
       </c>
       <c r="H496">
         <v>2</v>
@@ -48368,7 +48368,7 @@
         <v>3.5</v>
       </c>
       <c r="J496">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K496" t="s">
         <v>48</v>
@@ -48406,13 +48406,13 @@
         <v>59</v>
       </c>
       <c r="E497">
-        <v>0.44235858044126891</v>
+        <v>0.44482327518301312</v>
       </c>
       <c r="F497">
-        <v>0.28616233437869582</v>
+        <v>0.28389403413118047</v>
       </c>
       <c r="G497">
-        <v>0.27147908518003538</v>
+        <v>0.27128269068580652</v>
       </c>
       <c r="H497">
         <v>2.0499999999999998</v>
@@ -48459,13 +48459,13 @@
         <v>59</v>
       </c>
       <c r="E498">
-        <v>0.56676779332544835</v>
+        <v>0.56656508994146426</v>
       </c>
       <c r="F498">
-        <v>0.1984412752623646</v>
+        <v>0.19858712114040261</v>
       </c>
       <c r="G498">
-        <v>0.23479093141218699</v>
+        <v>0.23484778891813321</v>
       </c>
       <c r="H498">
         <v>1.66</v>
@@ -48474,7 +48474,7 @@
         <v>5</v>
       </c>
       <c r="J498">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K498" t="s">
         <v>48</v>
@@ -48512,13 +48512,13 @@
         <v>69</v>
       </c>
       <c r="E499">
-        <v>0.34641064779705028</v>
+        <v>0.34610880513979991</v>
       </c>
       <c r="F499">
-        <v>0.37023381071333211</v>
+        <v>0.37028727228958602</v>
       </c>
       <c r="G499">
-        <v>0.28335554148961761</v>
+        <v>0.28360392257061401</v>
       </c>
       <c r="H499">
         <v>2.7</v>
@@ -48565,13 +48565,13 @@
         <v>74</v>
       </c>
       <c r="E500">
-        <v>0.55931525206334753</v>
+        <v>0.55848447229904963</v>
       </c>
       <c r="F500">
-        <v>0.20494113629323721</v>
+        <v>0.20565873581760141</v>
       </c>
       <c r="G500">
-        <v>0.23574361164341531</v>
+        <v>0.2358567918833489</v>
       </c>
       <c r="H500">
         <v>1.8</v>
@@ -48618,13 +48618,13 @@
         <v>163</v>
       </c>
       <c r="E501">
-        <v>0.456233019961921</v>
+        <v>0.45580251541913852</v>
       </c>
       <c r="F501">
-        <v>0.25732046685718302</v>
+        <v>0.25752859339745049</v>
       </c>
       <c r="G501">
-        <v>0.28644651318089609</v>
+        <v>0.28666889118341121</v>
       </c>
       <c r="H501">
         <v>2</v>
@@ -48671,22 +48671,22 @@
         <v>56</v>
       </c>
       <c r="E502">
-        <v>0.38680200655734548</v>
+        <v>0.38710229010321168</v>
       </c>
       <c r="F502">
-        <v>0.32593877994854681</v>
+        <v>0.32451641931358499</v>
       </c>
       <c r="G502">
-        <v>0.28725921349410771</v>
+        <v>0.28838129058320328</v>
       </c>
       <c r="H502">
-        <v>2.5499999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="I502">
         <v>3</v>
       </c>
       <c r="J502">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K502" t="s">
         <v>48</v>
@@ -48695,7 +48695,7 @@
         <v>48</v>
       </c>
       <c r="M502" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q502">
         <f t="shared" si="84"/>
@@ -48724,13 +48724,13 @@
         <v>59</v>
       </c>
       <c r="E503">
-        <v>0.36017229233346348</v>
+        <v>0.36049030308974012</v>
       </c>
       <c r="F503">
-        <v>0.34234265645295181</v>
+        <v>0.34198105044738009</v>
       </c>
       <c r="G503">
-        <v>0.29748505121358448</v>
+        <v>0.29752864646287969</v>
       </c>
       <c r="H503">
         <v>2.75</v>
@@ -48777,13 +48777,13 @@
         <v>77</v>
       </c>
       <c r="E504">
-        <v>0.46733757912813051</v>
+        <v>0.46378734277665662</v>
       </c>
       <c r="F504">
-        <v>0.24605205203038449</v>
+        <v>0.24852461270318069</v>
       </c>
       <c r="G504">
-        <v>0.28661036884148511</v>
+        <v>0.28768804452016272</v>
       </c>
       <c r="H504">
         <v>1.0009999999999999</v>
@@ -48821,16 +48821,16 @@
         <v>163</v>
       </c>
       <c r="E505">
-        <v>0.82479759394286356</v>
+        <v>0.82470669483241399</v>
       </c>
       <c r="F505">
-        <v>5.7510072297526867E-2</v>
+        <v>5.7529417140422839E-2</v>
       </c>
       <c r="G505">
-        <v>0.11769233375960959</v>
+        <v>0.1177638880271632</v>
       </c>
       <c r="H505">
-        <v>1.1499999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I505">
         <v>12</v>
@@ -48839,7 +48839,7 @@
         <v>7.25</v>
       </c>
       <c r="K505" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L505" t="s">
         <v>48</v>
@@ -48927,22 +48927,22 @@
         <v>74</v>
       </c>
       <c r="E507">
-        <v>0.40469216019752557</v>
+        <v>0.40428984753995389</v>
       </c>
       <c r="F507">
-        <v>0.3041183207065517</v>
+        <v>0.30437074440199952</v>
       </c>
       <c r="G507">
-        <v>0.29118951909592261</v>
+        <v>0.29133940805804648</v>
       </c>
       <c r="H507">
-        <v>2.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I507">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J507">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K507" t="s">
         <v>48</v>
@@ -48980,13 +48980,13 @@
         <v>59</v>
       </c>
       <c r="E508">
-        <v>0.63990832085536287</v>
+        <v>0.6389157172300004</v>
       </c>
       <c r="F508">
-        <v>0.1516659497559118</v>
+        <v>0.15232114682266831</v>
       </c>
       <c r="G508">
-        <v>0.20842572938872539</v>
+        <v>0.2087631359473314</v>
       </c>
       <c r="H508">
         <v>1.57</v>
@@ -49033,19 +49033,19 @@
         <v>163</v>
       </c>
       <c r="E509">
-        <v>0.3008940710924326</v>
+        <v>0.30274203737816902</v>
       </c>
       <c r="F509">
-        <v>0.43421001773762408</v>
+        <v>0.43194895340188949</v>
       </c>
       <c r="G509">
-        <v>0.26489591116994332</v>
+        <v>0.26530900921994149</v>
       </c>
       <c r="H509">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I509">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J509">
         <v>3.05</v>
@@ -49061,7 +49061,7 @@
       </c>
       <c r="Q509">
         <f t="shared" si="84"/>
-        <v>1.7044419836759639E-2</v>
+        <v>1.7076759818887677E-2</v>
       </c>
       <c r="R509">
         <f t="shared" si="85"/>
@@ -49086,13 +49086,13 @@
         <v>179</v>
       </c>
       <c r="E510">
-        <v>0.26525132185479811</v>
+        <v>0.26538161154235701</v>
       </c>
       <c r="F510">
-        <v>0.48434183086924321</v>
+        <v>0.48409152222310481</v>
       </c>
       <c r="G510">
-        <v>0.25040684727595858</v>
+        <v>0.25052686623453818</v>
       </c>
       <c r="H510">
         <v>3.9</v>
@@ -49139,13 +49139,13 @@
         <v>66</v>
       </c>
       <c r="E511">
-        <v>0.64603271146889407</v>
+        <v>0.64617245100967824</v>
       </c>
       <c r="F511">
-        <v>0.13364043297089659</v>
+        <v>0.13360708096621229</v>
       </c>
       <c r="G511">
-        <v>0.22032685556020931</v>
+        <v>0.22022046802410941</v>
       </c>
       <c r="H511">
         <v>1.52</v>
@@ -49154,7 +49154,7 @@
         <v>7.25</v>
       </c>
       <c r="J511">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K511" t="s">
         <v>49</v>
@@ -49192,16 +49192,16 @@
         <v>186</v>
       </c>
       <c r="E512">
-        <v>0.12842015467772361</v>
+        <v>0.12827408320650471</v>
       </c>
       <c r="F512">
-        <v>0.7147104540761835</v>
+        <v>0.71500617876845651</v>
       </c>
       <c r="G512">
-        <v>0.15686939124609289</v>
+        <v>0.15671973802503891</v>
       </c>
       <c r="H512">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="I512">
         <v>1.24</v>
@@ -49210,7 +49210,7 @@
         <v>5.75</v>
       </c>
       <c r="K512" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L512" t="s">
         <v>49</v>
@@ -49254,10 +49254,10 @@
         <v>0.29136638433452372</v>
       </c>
       <c r="H513">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="I513">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J513">
         <v>3.1</v>
@@ -49298,13 +49298,13 @@
         <v>41</v>
       </c>
       <c r="E514">
-        <v>0.28544920930202622</v>
+        <v>0.28419630986983568</v>
       </c>
       <c r="F514">
-        <v>0.45820011810729377</v>
+        <v>0.45410888469631078</v>
       </c>
       <c r="G514">
-        <v>0.25635067259068001</v>
+        <v>0.26169480543385348</v>
       </c>
       <c r="H514">
         <v>3.7</v>
@@ -49313,13 +49313,13 @@
         <v>1.83</v>
       </c>
       <c r="J514">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K514" t="s">
         <v>49</v>
       </c>
       <c r="L514" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M514" t="s">
         <v>48</v>
@@ -49351,13 +49351,13 @@
         <v>189</v>
       </c>
       <c r="E515">
-        <v>0.77687610095219939</v>
+        <v>0.77319072490438767</v>
       </c>
       <c r="F515">
-        <v>7.9073465873462159E-2</v>
+        <v>8.0595271148473063E-2</v>
       </c>
       <c r="G515">
-        <v>0.14405043317433849</v>
+        <v>0.14621400394713921</v>
       </c>
       <c r="H515">
         <v>1.21</v>
@@ -49404,22 +49404,22 @@
         <v>192</v>
       </c>
       <c r="E516">
-        <v>0.42660340547189679</v>
+        <v>0.41541161007129879</v>
       </c>
       <c r="F516">
-        <v>0.32948654041447278</v>
+        <v>0.33850664469703412</v>
       </c>
       <c r="G516">
-        <v>0.2439100541136304</v>
+        <v>0.24608174523166709</v>
       </c>
       <c r="H516">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="I516">
         <v>4.6500000000000004</v>
       </c>
       <c r="J516">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K516" t="s">
         <v>48</v>
@@ -49436,7 +49436,7 @@
       </c>
       <c r="R516">
         <f t="shared" si="97"/>
-        <v>9.3041887920422284E-2</v>
+        <v>0.10581134170826126</v>
       </c>
       <c r="S516">
         <f t="shared" si="98"/>
@@ -49457,22 +49457,22 @@
         <v>192</v>
       </c>
       <c r="E517">
-        <v>0.12181473397982449</v>
+        <v>0.1219827571033424</v>
       </c>
       <c r="F517">
-        <v>0.71999563528997268</v>
+        <v>0.71919534633331683</v>
       </c>
       <c r="G517">
-        <v>0.15818963073020281</v>
+        <v>0.1588218965633407</v>
       </c>
       <c r="H517">
-        <v>4.9000000000000004</v>
+        <v>5.25</v>
       </c>
       <c r="I517">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="J517">
-        <v>4.45</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K517" t="s">
         <v>48</v>
@@ -49489,7 +49489,7 @@
       </c>
       <c r="R517">
         <f t="shared" si="97"/>
-        <v>0.1197081551738931</v>
+        <v>4.1179670048391959E-2</v>
       </c>
       <c r="S517">
         <f t="shared" si="98"/>
@@ -49510,22 +49510,22 @@
         <v>192</v>
       </c>
       <c r="E518">
-        <v>8.685446001391478E-2</v>
+        <v>8.7684555590236246E-2</v>
       </c>
       <c r="F518">
-        <v>0.79682625054510026</v>
+        <v>0.79516813308012624</v>
       </c>
       <c r="G518">
-        <v>0.1163192894409851</v>
+        <v>0.1171473113296375</v>
       </c>
       <c r="H518">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="I518">
         <v>1.27</v>
       </c>
       <c r="J518">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="K518" t="s">
         <v>48</v>
@@ -49542,7 +49542,7 @@
       </c>
       <c r="R518">
         <f t="shared" si="97"/>
-        <v>6.7390734434944477E-3</v>
+        <v>0</v>
       </c>
       <c r="S518">
         <f t="shared" si="98"/>
@@ -49563,13 +49563,13 @@
         <v>168</v>
       </c>
       <c r="E519">
-        <v>0.37907332623084122</v>
+        <v>0.37889312928530949</v>
       </c>
       <c r="F519">
-        <v>0.29023650557985892</v>
+        <v>0.29095852617126899</v>
       </c>
       <c r="G519">
-        <v>0.33069016818929992</v>
+        <v>0.33014834454342129</v>
       </c>
       <c r="H519">
         <v>2.25</v>
@@ -49587,7 +49587,7 @@
         <v>48</v>
       </c>
       <c r="M519" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q519">
         <f t="shared" si="96"/>
@@ -49616,22 +49616,22 @@
         <v>179</v>
       </c>
       <c r="E520">
-        <v>0.47194496790713919</v>
+        <v>0.47684361960761762</v>
       </c>
       <c r="F520">
-        <v>0.27856554997695809</v>
+        <v>0.27289697440449201</v>
       </c>
       <c r="G520">
-        <v>0.24948948211590269</v>
+        <v>0.25025940598789043</v>
       </c>
       <c r="H520">
-        <v>2.1</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I520">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J520">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K520" t="s">
         <v>48</v>
@@ -49669,22 +49669,22 @@
         <v>92</v>
       </c>
       <c r="E521">
-        <v>0.54412800184144727</v>
+        <v>0.54163873722923417</v>
       </c>
       <c r="F521">
-        <v>0.20651561258673851</v>
+        <v>0.2058778712809719</v>
       </c>
       <c r="G521">
-        <v>0.24935638557181419</v>
+        <v>0.25248339148979387</v>
       </c>
       <c r="H521">
         <v>1.72</v>
       </c>
       <c r="I521">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="J521">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K521" t="s">
         <v>49</v>
@@ -49722,22 +49722,22 @@
         <v>56</v>
       </c>
       <c r="E522">
-        <v>0.77899734135833043</v>
+        <v>0.77414806707934403</v>
       </c>
       <c r="F522">
-        <v>7.6269679718776531E-2</v>
+        <v>7.820711597302149E-2</v>
       </c>
       <c r="G522">
-        <v>0.144732978922893</v>
+        <v>0.14764481694763451</v>
       </c>
       <c r="H522">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="I522">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="J522">
-        <v>5.94</v>
+        <v>5.96</v>
       </c>
       <c r="K522" t="s">
         <v>49</v>
@@ -49750,7 +49750,7 @@
       </c>
       <c r="Q522">
         <f t="shared" si="96"/>
-        <v>0.14369032162263085</v>
+        <v>8.7243513225601976E-2</v>
       </c>
       <c r="R522">
         <f t="shared" si="97"/>
@@ -49775,13 +49775,13 @@
         <v>66</v>
       </c>
       <c r="E523">
-        <v>0.41749574531836331</v>
+        <v>0.41582521458693378</v>
       </c>
       <c r="F523">
-        <v>0.28690069338329871</v>
+        <v>0.28731547911740091</v>
       </c>
       <c r="G523">
-        <v>0.29560356129833798</v>
+        <v>0.29685930629566543</v>
       </c>
       <c r="H523">
         <v>2.0499999999999998</v>
@@ -49828,13 +49828,13 @@
         <v>186</v>
       </c>
       <c r="E524">
-        <v>0.1541674301550299</v>
+        <v>0.154290959947878</v>
       </c>
       <c r="F524">
-        <v>0.67370435558081776</v>
+        <v>0.671706242981437</v>
       </c>
       <c r="G524">
-        <v>0.1721282142641524</v>
+        <v>0.174002797070685</v>
       </c>
       <c r="H524">
         <v>7.75</v>
@@ -49843,7 +49843,7 @@
         <v>1.31</v>
       </c>
       <c r="J524">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="K524" t="s">
         <v>48</v>
@@ -49881,13 +49881,13 @@
         <v>87</v>
       </c>
       <c r="E525">
-        <v>0.40732009570653488</v>
+        <v>0.40498619085133958</v>
       </c>
       <c r="F525">
-        <v>0.30786727685711129</v>
+        <v>0.30943484108936747</v>
       </c>
       <c r="G525">
-        <v>0.28481262743635383</v>
+        <v>0.28557896805929278</v>
       </c>
       <c r="H525">
         <v>2.1</v>
@@ -49934,13 +49934,13 @@
         <v>87</v>
       </c>
       <c r="E526">
-        <v>0.53314803838591485</v>
+        <v>0.52952499716139667</v>
       </c>
       <c r="F526">
-        <v>0.21343341956163109</v>
+        <v>0.21649436069135899</v>
       </c>
       <c r="G526">
-        <v>0.25341854205245401</v>
+        <v>0.2539806421472442</v>
       </c>
       <c r="H526">
         <v>1.58</v>
@@ -49966,7 +49966,7 @@
       </c>
       <c r="R526">
         <f t="shared" si="97"/>
-        <v>1.0673088969853528E-2</v>
+        <v>1.599419397994678E-2</v>
       </c>
       <c r="S526">
         <f t="shared" si="98"/>
@@ -49987,13 +49987,13 @@
         <v>87</v>
       </c>
       <c r="E527">
-        <v>0.36900435637090512</v>
+        <v>0.36684898761512508</v>
       </c>
       <c r="F527">
-        <v>0.32162080626678419</v>
+        <v>0.32259386890539399</v>
       </c>
       <c r="G527">
-        <v>0.30937483736231058</v>
+        <v>0.31055714347948082</v>
       </c>
       <c r="H527">
         <v>2.2000000000000002</v>
@@ -50019,7 +50019,7 @@
       </c>
       <c r="R527">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>9.05149585779641E-4</v>
       </c>
       <c r="S527">
         <f t="shared" si="98"/>
@@ -50040,13 +50040,13 @@
         <v>87</v>
       </c>
       <c r="E528">
-        <v>0.27452189245951542</v>
+        <v>0.26953092951286239</v>
       </c>
       <c r="F528">
-        <v>0.44807306664906682</v>
+        <v>0.45231049277285751</v>
       </c>
       <c r="G528">
-        <v>0.27740504089141771</v>
+        <v>0.27815857771427999</v>
       </c>
       <c r="H528">
         <v>3.45</v>
@@ -50093,13 +50093,13 @@
         <v>189</v>
       </c>
       <c r="E529">
-        <v>0.34655036099828779</v>
+        <v>0.35220160198613693</v>
       </c>
       <c r="F529">
-        <v>0.35754384636518999</v>
+        <v>0.35031392430849873</v>
       </c>
       <c r="G529">
-        <v>0.29590579263652211</v>
+        <v>0.29748447370536441</v>
       </c>
       <c r="H529">
         <v>2.9</v>
@@ -50146,13 +50146,13 @@
         <v>87</v>
       </c>
       <c r="E530">
-        <v>0.30536571344309538</v>
+        <v>0.30755950455156372</v>
       </c>
       <c r="F530">
-        <v>0.39664955060093909</v>
+        <v>0.39410998938453218</v>
       </c>
       <c r="G530">
-        <v>0.29798473595596547</v>
+        <v>0.29833050606390399</v>
       </c>
       <c r="H530">
         <v>2.9</v>
@@ -50199,25 +50199,25 @@
         <v>87</v>
       </c>
       <c r="E531">
-        <v>0.75240504273214748</v>
+        <v>0.74866726816671325</v>
       </c>
       <c r="F531">
-        <v>9.2445954906068079E-2</v>
+        <v>9.4157461388035629E-2</v>
       </c>
       <c r="G531">
-        <v>0.15514900236178439</v>
+        <v>0.15717527044525109</v>
       </c>
       <c r="H531">
         <v>1.22</v>
       </c>
       <c r="I531">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="J531">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="K531" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L531" t="s">
         <v>48</v>
@@ -50252,22 +50252,22 @@
         <v>28</v>
       </c>
       <c r="E532">
-        <v>0.4121368504714541</v>
+        <v>0.4065546217616568</v>
       </c>
       <c r="F532">
-        <v>0.30742382048029299</v>
+        <v>0.31231245900639842</v>
       </c>
       <c r="G532">
-        <v>0.28043932904825292</v>
+        <v>0.28113291923194478</v>
       </c>
       <c r="H532">
         <v>2.15</v>
       </c>
       <c r="I532">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J532">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K532" t="s">
         <v>48</v>
@@ -50305,13 +50305,13 @@
         <v>87</v>
       </c>
       <c r="E533">
-        <v>0.33622622013889719</v>
+        <v>0.33733210408191278</v>
       </c>
       <c r="F533">
-        <v>0.36130107252885418</v>
+        <v>0.35838068808715368</v>
       </c>
       <c r="G533">
-        <v>0.30247270733224862</v>
+        <v>0.30428720783093349</v>
       </c>
       <c r="H533">
         <v>2.5</v>
@@ -50358,13 +50358,13 @@
         <v>168</v>
       </c>
       <c r="E534">
-        <v>0.46824643750682299</v>
+        <v>0.46297158710441938</v>
       </c>
       <c r="F534">
-        <v>0.21400394533410499</v>
+        <v>0.21735208172161011</v>
       </c>
       <c r="G534">
-        <v>0.31774961715907207</v>
+        <v>0.31967633117397037</v>
       </c>
       <c r="H534">
         <v>1.95</v>
@@ -50373,7 +50373,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="J534">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="K534" t="s">
         <v>48</v>
@@ -50382,7 +50382,7 @@
         <v>48</v>
       </c>
       <c r="M534" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q534">
         <f t="shared" si="96"/>
@@ -50411,13 +50411,13 @@
         <v>179</v>
       </c>
       <c r="E535">
-        <v>0.38865309286541982</v>
+        <v>0.38502688654012668</v>
       </c>
       <c r="F535">
-        <v>0.3683648347262049</v>
+        <v>0.36864326313750551</v>
       </c>
       <c r="G535">
-        <v>0.24298207240837519</v>
+        <v>0.24632985032236759</v>
       </c>
       <c r="H535">
         <v>2.4500000000000002</v>
@@ -50464,13 +50464,13 @@
         <v>84</v>
       </c>
       <c r="E536">
-        <v>0.1397233363908689</v>
+        <v>0.1438349707816986</v>
       </c>
       <c r="F536">
-        <v>0.68804793941287312</v>
+        <v>0.67919064646492777</v>
       </c>
       <c r="G536">
-        <v>0.17222872419625801</v>
+        <v>0.1769743827533734</v>
       </c>
       <c r="H536">
         <v>6</v>
@@ -50496,7 +50496,7 @@
       </c>
       <c r="R536">
         <f t="shared" si="97"/>
-        <v>1.6927253086257421E-3</v>
+        <v>0</v>
       </c>
       <c r="S536">
         <f t="shared" si="98"/>
@@ -50517,13 +50517,13 @@
         <v>189</v>
       </c>
       <c r="E537">
-        <v>0.71812244542790593</v>
+        <v>0.71393283032202692</v>
       </c>
       <c r="F537">
-        <v>0.1084540999359766</v>
+        <v>0.1102663413081362</v>
       </c>
       <c r="G537">
-        <v>0.1734234546361175</v>
+        <v>0.1758008283698369</v>
       </c>
       <c r="H537">
         <v>1.38</v>
@@ -50570,13 +50570,13 @@
         <v>56</v>
       </c>
       <c r="E538">
-        <v>0.34621559259435508</v>
+        <v>0.34896568600201699</v>
       </c>
       <c r="F538">
-        <v>0.38721037108407452</v>
+        <v>0.38277059863093182</v>
       </c>
       <c r="G538">
-        <v>0.26657403632157051</v>
+        <v>0.26826371536705118</v>
       </c>
       <c r="H538">
         <v>2.8</v>
@@ -50585,7 +50585,7 @@
         <v>2.5</v>
       </c>
       <c r="J538">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K538" t="s">
         <v>48</v>
@@ -50594,7 +50594,7 @@
         <v>48</v>
       </c>
       <c r="M538" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q538">
         <f t="shared" si="96"/>
@@ -50623,13 +50623,13 @@
         <v>350</v>
       </c>
       <c r="E539">
-        <v>0.59487279958079231</v>
+        <v>0.58954400869924461</v>
       </c>
       <c r="F539">
-        <v>0.1719574584754652</v>
+        <v>0.17454308176547401</v>
       </c>
       <c r="G539">
-        <v>0.23316974194374249</v>
+        <v>0.23591290953528141</v>
       </c>
       <c r="H539">
         <v>1.57</v>
@@ -50676,16 +50676,16 @@
         <v>66</v>
       </c>
       <c r="E540">
-        <v>0.80954510117479028</v>
+        <v>0.80624899956789642</v>
       </c>
       <c r="F540">
-        <v>6.2130768068470912E-2</v>
+        <v>6.3390784352143542E-2</v>
       </c>
       <c r="G540">
-        <v>0.12832413075673879</v>
+        <v>0.13036021607996001</v>
       </c>
       <c r="H540">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="I540">
         <v>9</v>
@@ -50704,7 +50704,7 @@
       </c>
       <c r="Q540">
         <f t="shared" si="96"/>
-        <v>0.18825107386256201</v>
+        <v>0.12939191968043162</v>
       </c>
       <c r="R540">
         <f t="shared" si="97"/>
@@ -50729,22 +50729,22 @@
         <v>28</v>
       </c>
       <c r="E541">
-        <v>0.80742561824107228</v>
+        <v>0.8002108669598047</v>
       </c>
       <c r="F541">
-        <v>6.5219016077809777E-2</v>
+        <v>6.8290180740575926E-2</v>
       </c>
       <c r="G541">
-        <v>0.12735536568111799</v>
+        <v>0.1314989522996193</v>
       </c>
       <c r="H541">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="I541">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J541">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K541" t="s">
         <v>48</v>
@@ -50782,19 +50782,19 @@
         <v>350</v>
       </c>
       <c r="E542">
-        <v>0.73642057058691857</v>
+        <v>0.7332301188249104</v>
       </c>
       <c r="F542">
-        <v>9.0582924918724078E-2</v>
+        <v>9.1847263848327573E-2</v>
       </c>
       <c r="G542">
-        <v>0.17299650449435741</v>
+        <v>0.17492261732676201</v>
       </c>
       <c r="H542">
         <v>1.4</v>
       </c>
       <c r="I542">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="J542">
         <v>5.25</v>
@@ -50803,14 +50803,14 @@
         <v>49</v>
       </c>
       <c r="L542" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M542" t="s">
         <v>48</v>
       </c>
       <c r="Q542">
         <f t="shared" si="96"/>
-        <v>2.3487303031696327E-2</v>
+        <v>0</v>
       </c>
       <c r="R542">
         <f t="shared" si="97"/>
@@ -50835,13 +50835,13 @@
         <v>350</v>
       </c>
       <c r="E543">
-        <v>0.72127987568453256</v>
+        <v>0.71699400792104995</v>
       </c>
       <c r="F543">
-        <v>9.9913578689881807E-2</v>
+        <v>0.1015905195567407</v>
       </c>
       <c r="G543">
-        <v>0.17880654562558559</v>
+        <v>0.18141547252220919</v>
       </c>
       <c r="H543">
         <v>1.38</v>
